--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="21">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t xml:space="preserve">adult offers</t>
   </si>
+  <si>
+    <t xml:space="preserve">15.05.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +122,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +198,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -222,10 +234,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C226" activeCellId="0" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2341,8 +2353,8 @@
       <c r="D124" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
+      <c r="E124" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,8 +2472,8 @@
       <c r="D131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>11</v>
+      <c r="E131" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,8 +2506,8 @@
       <c r="D133" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
+      <c r="E133" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,6 +2949,1145 @@
         <v>7</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>165906</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>164765</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>165951</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>165928</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>165909</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>165810</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>165793</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>165720</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>165716</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>165562</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>165395</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>165383</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>165380</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>165378</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>165377</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>165375</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>165370</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>165359</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>165355</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>165298</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>151430</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>151434</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>151435</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>151445</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>151451</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>151532</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>151535</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>151569</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>151576</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>150600</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>150602</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>150603</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>150609</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>150610</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>150611</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>150617</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>150618</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>150620</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>150623</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>150629</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>150630</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>150631</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>150632</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>150638</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>150645</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>150721</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>150770</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>150781</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>150786</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>150814</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>150817</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>150819</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>150820</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>150822</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>150825</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>150826</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>150827</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>150828</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>150830</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>150861</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>150864</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>150872</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>150901</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>150907</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>150909</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>150914</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>161192</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>8</v>
       </c>
     </row>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="22">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2023</t>
   </si>
 </sst>
 </file>
@@ -234,10 +237,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C226" activeCellId="0" sqref="C226"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A272" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A295" activeCellId="0" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3016,7 +3019,7 @@
       <c r="D163" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3067,8 +3070,8 @@
       <c r="D166" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>11</v>
+      <c r="E166" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,7 +3087,7 @@
       <c r="D167" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3118,8 +3121,8 @@
       <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>11</v>
+      <c r="E169" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3206,7 @@
       <c r="D174" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3237,7 +3240,7 @@
       <c r="D176" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3305,7 +3308,7 @@
       <c r="D180" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3526,8 +3529,8 @@
       <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>11</v>
+      <c r="E193" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,7 +4090,1163 @@
       <c r="D226" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="E226" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>159482</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>159479</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>159477</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>159462</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>159487</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>158679</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>158681</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>158729</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>158740</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>158742</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>158743</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>158747</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>158749</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>158808</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>158826</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>158210</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>166117</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>166066</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>166029</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>165979</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>163476</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>163517</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>163526</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>163539</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>163570</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>163575</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>163164</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>163176</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>163261</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>163272</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>163357</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>163358</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>163360</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>163399</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>163417</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>163429</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>163448</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>163450</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>163470</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>163471</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>163474</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>160494</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>164942</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>160499</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>160601</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>159133</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>159139</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>159140</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>157730</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>157741</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>158175</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>158139</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>158106</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>158098</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>158095</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>158092</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>158086</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>158083</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>158070</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>158083</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>157613</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>157659</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>157679</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>157693</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>157725</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>154128</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>165298</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>158733</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="26">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t xml:space="preserve">16.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from where we are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip tickets</t>
   </si>
 </sst>
 </file>
@@ -237,10 +249,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A272" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A295" activeCellId="0" sqref="A295"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B361" activeCellId="0" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3003,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,8 +3116,8 @@
       <c r="D168" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>11</v>
+      <c r="E168" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3133,7 @@
       <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3529,7 +3541,7 @@
       <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E193" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4379,7 +4391,7 @@
       <c r="D243" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E243" s="7" t="s">
+      <c r="E243" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4516,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4833,7 @@
       <c r="D269" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E269" s="7" t="s">
+      <c r="E269" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5249,6 +5261,1165 @@
       <c r="E294" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>166151</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>142183</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>165298</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>166175</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>166222</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>166227</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>166241</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>166243</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>166259</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>165716</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>157873</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>157454</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>157029</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>157030</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>157041</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>156531</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>156589</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>156592</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>156595</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>156596</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>156685</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>156722</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>156732</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>155112</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>155137</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>155158</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>155164</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>155165</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>155166</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>155168</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>154305</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>140386</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>2864</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>155958</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>155972</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>155982</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>155991</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>155994</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>156017</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>156019</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>154000</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>154004</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>154008</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>154010</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>154212</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>154217</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>154218</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>154222</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>154227</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>154230</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>154293</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>154296</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>154300</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>154304</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>153443</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>153447</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>153460</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>153469</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>153482</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>153486</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>153487</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>124412</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>131550</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>155158</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>161848</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>165033</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A158">

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="28">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">vip tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veniselle</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,8 +221,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -249,10 +259,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B361" activeCellId="0" sqref="B361"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B433" activeCellId="0" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3151,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,7 +5523,7 @@
       <c r="D309" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E309" s="7" t="s">
+      <c r="E309" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5816,10 +5826,10 @@
       <c r="C327" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D327" s="7" t="s">
+      <c r="D327" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E327" s="7" t="s">
+      <c r="E327" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5833,7 +5843,7 @@
       <c r="C328" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D328" s="7" t="s">
+      <c r="D328" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E328" s="2" t="s">
@@ -6346,7 +6356,7 @@
       <c r="D358" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E358" s="7" t="s">
+      <c r="E358" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6363,7 +6373,7 @@
       <c r="D359" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E359" s="7" t="s">
+      <c r="E359" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6419,7 +6429,1194 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2"/>
+      <c r="A363" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>142183</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>166401</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B365" s="7" t="n">
+        <v>121924</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>164942</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>166385</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>163764</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>140386</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>161883</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>166474</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>166462</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>166440</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>166415</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>166412</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>166392</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>166391</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>166383</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>166352</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>166339</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>166259</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>156848</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>156849</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>156858</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>156887</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>156287</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>156348</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>156392</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>156416</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>156434</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>156443</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>156451</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>156452</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>156457</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>156465</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>156522</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>156023</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>155603</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>155613</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>155719</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>155721</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>155723</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>155726</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>155727</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>155737</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>155824</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>155826</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>155833</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>155842</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>155850</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>155851</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>155912</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>155913</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>155916</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>154774</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>154792</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>154793</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>154796</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>154798</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>154800</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>154801</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>154803</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>154813</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>154819</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>154831</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B430" s="8" t="n">
+        <v>155077</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>155080</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>154373</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A158">

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$A$158</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$A$462</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="31">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">in</t>
   </si>
   <si>
-    <t xml:space="preserve">Links, domain settings, and VIP offers </t>
+    <t xml:space="preserve">technical questions</t>
   </si>
   <si>
     <t xml:space="preserve">waiting answers</t>
@@ -108,6 +108,15 @@
   <si>
     <t xml:space="preserve">Veniselle</t>
   </si>
+  <si>
+    <t xml:space="preserve">19.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,11 +152,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,15 +221,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,13 +256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B433" activeCellId="0" sqref="B433"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A473" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G494" activeCellId="0" sqref="G494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,7 +291,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -308,7 +308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -325,7 +325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -335,14 +335,14 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -359,7 +359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -376,7 +376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -393,7 +393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -410,7 +410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -750,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -920,7 +920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -971,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>14</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>14</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>14</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>7</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,7 +6466,7 @@
       <c r="A365" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B365" s="7" t="n">
+      <c r="B365" s="6" t="n">
         <v>121924</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -6595,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +6646,7 @@
         <v>7</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6697,7 +6697,7 @@
         <v>7</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,7 +6714,7 @@
         <v>7</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,7 +6782,7 @@
         <v>7</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7258,7 @@
         <v>7</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,7 +7292,7 @@
         <v>7</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +7571,7 @@
       <c r="A430" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B430" s="8" t="n">
+      <c r="B430" s="3" t="n">
         <v>155077</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -7618,14 +7618,1164 @@
         <v>11</v>
       </c>
     </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>136117</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>165298</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>133070</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B437" s="3" t="n">
+        <v>165105</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>165906</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>156147</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>156149</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>156152</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>156190</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>156207</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>156209</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>156213</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>156216</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>156220</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>156222</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>156232</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>156241</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>156245</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B452" s="7" t="n">
+        <v>156250</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>156266</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>156280</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>155369</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>155386</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>155399</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>155401</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>155408</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>155413</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>155435</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>155442</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>155443</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>155511</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>155521</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>155526</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>155593</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>154581</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>154594</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>154595</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>154635</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>132272</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>154643</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>154644</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>154655</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>154719</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>154742</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>154750</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>154765</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>154314</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>154329</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>166520</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>166525</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>166615</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>154362</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>154197</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>154198</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>154206</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>153687</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>153691</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>153698</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>153702</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>153762</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>153778</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>153780</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>153787</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>153788</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>153804</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>153837</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>153865</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A158">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="12.05.2023"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A462"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="35">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">18.05.2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Veniselle</t>
+    <t xml:space="preserve">veniselle</t>
   </si>
   <si>
     <t xml:space="preserve">19.05.2023</t>
@@ -115,7 +115,19 @@
     <t xml:space="preserve">vip </t>
   </si>
   <si>
-    <t xml:space="preserve">Blood Balance</t>
+    <t xml:space="preserve">blood balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epc questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offers</t>
   </si>
 </sst>
 </file>
@@ -196,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,10 +235,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:G567"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A473" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G494" activeCellId="0" sqref="G494"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A541" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D564" activeCellId="0" sqref="D564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,7 +6739,7 @@
         <v>7</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7945,7 +7953,7 @@
       <c r="A452" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B452" s="7" t="n">
+      <c r="B452" s="1" t="n">
         <v>156250</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -8669,7 +8677,7 @@
         <v>7</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8773,6 +8781,1047 @@
       <c r="E500" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>163644</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>166222</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>133070</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>153780</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>166385</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>153837</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>166544</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>167029</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>166966</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>166928</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>166922</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>166921</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>166914</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>166896</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B518" s="1" t="n">
+        <v>166891</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>166875</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B520" s="1" t="n">
+        <v>166874</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B521" s="1" t="n">
+        <v>166868</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B522" s="1" t="n">
+        <v>166858</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B523" s="1" t="n">
+        <v>166850</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B524" s="1" t="n">
+        <v>166849</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B525" s="1" t="n">
+        <v>166797</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B526" s="1" t="n">
+        <v>166742</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>166693</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>166691</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>166688</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>166687</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>166684</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>166648</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>166635</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>166625</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>166615</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>166559</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>166557</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>166544</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>166538</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>166537</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>166529</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>146715</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>146717</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>146722</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>146724</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>146725</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B547" s="1" t="n">
+        <v>146728</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B548" s="1" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B549" s="1" t="n">
+        <v>146772</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B550" s="1" t="n">
+        <v>146823</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B551" s="1" t="n">
+        <v>166889</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B552" s="1" t="n">
+        <v>142197</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B553" s="1" t="n">
+        <v>167032</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B554" s="1" t="n">
+        <v>167045</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>167088</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>167136</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>167141</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>167149</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>167156</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>167162</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="2"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="2"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="2"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="2"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="2"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="2"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="37">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payments</t>
   </si>
 </sst>
 </file>
@@ -267,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G567"/>
+  <dimension ref="A1:G624"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A541" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D564" activeCellId="0" sqref="D564"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A616" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E624" activeCellId="0" sqref="E624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4172,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,7 +7527,7 @@
         <v>7</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,7 +9091,7 @@
         <v>7</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9238,7 +9244,7 @@
         <v>7</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9680,7 +9686,7 @@
         <v>7</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9697,7 +9703,7 @@
         <v>7</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9731,7 +9737,7 @@
         <v>7</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9765,7 +9771,7 @@
         <v>7</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,7 +9793,7 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B560" s="1" t="n">
         <v>167162</v>
@@ -9803,25 +9809,1092 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="2"/>
+      <c r="A561" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B561" s="1" t="n">
+        <v>167287</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="2"/>
+      <c r="A562" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B562" s="1" t="n">
+        <v>167284</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="2"/>
+      <c r="A563" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B563" s="1" t="n">
+        <v>167187</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="2"/>
+      <c r="A564" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B564" s="1" t="n">
+        <v>167183</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="2"/>
+      <c r="A565" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B565" s="1" t="n">
+        <v>167181</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="2"/>
+      <c r="A566" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B566" s="1" t="n">
+        <v>167179</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="2"/>
+      <c r="A567" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B567" s="1" t="n">
+        <v>154486</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B568" s="1" t="n">
+        <v>154482</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B569" s="1" t="n">
+        <v>154419</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B570" s="1" t="n">
+        <v>154417</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B571" s="1" t="n">
+        <v>154411</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B572" s="1" t="n">
+        <v>154404</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B573" s="1" t="n">
+        <v>154402</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B574" s="1" t="n">
+        <v>154399</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B575" s="1" t="n">
+        <v>153876</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B576" s="1" t="n">
+        <v>153880</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>153883</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>153884</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B579" s="1" t="n">
+        <v>153889</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B580" s="1" t="n">
+        <v>153951</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B581" s="1" t="n">
+        <v>153961</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B582" s="1" t="n">
+        <v>153582</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>153585</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>153587</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>153621</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>153630</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B587" s="1" t="n">
+        <v>153631</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B588" s="1" t="n">
+        <v>153636</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>153652</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B590" s="1" t="n">
+        <v>153659</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B591" s="1" t="n">
+        <v>153684</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B592" s="1" t="n">
+        <v>153871</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B593" s="1" t="n">
+        <v>153868</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>153291</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>153371</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>153388</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>153393</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B598" s="1" t="n">
+        <v>153394</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B599" s="1" t="n">
+        <v>153399</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B600" s="1" t="n">
+        <v>153428</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B601" s="1" t="n">
+        <v>153433</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>153437</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B603" s="1" t="n">
+        <v>153440</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B604" s="1" t="n">
+        <v>153263</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B605" s="1" t="n">
+        <v>153258</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B606" s="1" t="n">
+        <v>153255</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B607" s="1" t="n">
+        <v>153250</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B608" s="1" t="n">
+        <v>153249</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B609" s="1" t="n">
+        <v>153248</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B610" s="1" t="n">
+        <v>153247</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B611" s="1" t="n">
+        <v>153246</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>153245</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>153244</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>153213</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>153208</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>153198</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>153196</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>153179</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>153176</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>152512</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B621" s="1" t="n">
+        <v>154123</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B622" s="3" t="n">
+        <v>128946</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B623" s="1" t="n">
+        <v>153635</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B624" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="39">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 conversions</t>
   </si>
 </sst>
 </file>
@@ -273,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G624"/>
+  <dimension ref="A1:G644"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A616" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E624" activeCellId="0" sqref="E624"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A619" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A645" activeCellId="0" sqref="A645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10896,6 +10902,346 @@
         <v>8</v>
       </c>
     </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B625" s="1" t="n">
+        <v>167799</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B626" s="1" t="n">
+        <v>158538</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B627" s="1" t="n">
+        <v>168410</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B628" s="1" t="n">
+        <v>77363</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B629" s="1" t="n">
+        <v>168060</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B630" s="1" t="n">
+        <v>154800</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B631" s="1" t="n">
+        <v>167657</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B632" s="1" t="n">
+        <v>168587</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B633" s="1" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B634" s="1" t="n">
+        <v>168592</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B635" s="1" t="n">
+        <v>167183</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>161333</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>160772</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>31944</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>167162</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>167383</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>153659</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>167955</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>166928</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>167965</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="42">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t xml:space="preserve">10 conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packs, random etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how can i do</t>
   </si>
 </sst>
 </file>
@@ -279,10 +288,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G740"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A619" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A645" activeCellId="0" sqref="A645"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A684" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B710" activeCellId="0" sqref="B710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2025,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11241,6 +11250,1204 @@
       <c r="E644" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>167647</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>168403</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>168645</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>168709</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>142183</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>163764</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>168706</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>168764</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>168597</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>168780</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>168768</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>168706</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>168784</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>168639</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>168642</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>168634</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>168633</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>168631</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>168627</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>168622</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>168621</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>168618</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>168586</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>168415</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>168411</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>168409</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>168407</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>168406</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>168404</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>168014</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>168004</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>167982</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>167890</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E678" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>167806</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E679" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>167789</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>167741</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>167709</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>167683</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>167667</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>167666</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>167622</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>167607</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E687" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>167569</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E688" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>167565</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>167558</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E690" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>167555</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E691" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>167554</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E692" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>167546</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>167543</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>167493</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>167415</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>167411</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>167400</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E699" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>167384</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>167381</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>167371</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>167369</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>167356</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>167349</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>167323</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>156127</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>146947</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>147003</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="2"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="2"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="2"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="2"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="2"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="2"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="2"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="2"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="2"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="2"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="2"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="2"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="2"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="2"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="2"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="2"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="2"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="2"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="2"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="2"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="2"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="2"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="2"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="2"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="2"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="2"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="2"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="2"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="2"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="2"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="43">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">how can i do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2023</t>
   </si>
 </sst>
 </file>
@@ -288,10 +291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G740"/>
+  <dimension ref="A1:G781"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A684" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B710" activeCellId="0" sqref="B710"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A757" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C781" activeCellId="0" sqref="C781:E781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11622,7 +11625,7 @@
         <v>7</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11826,7 +11829,7 @@
         <v>7</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11911,7 +11914,7 @@
         <v>7</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12200,7 +12203,7 @@
         <v>7</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,97 +12360,1228 @@
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="2"/>
+      <c r="A710" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>166849</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="2"/>
+      <c r="A711" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="2"/>
+      <c r="A712" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>167380</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="2"/>
+      <c r="A713" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>31944</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="2"/>
+      <c r="A714" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>167647</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="2"/>
+      <c r="A715" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>168645</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="2"/>
+      <c r="A716" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>168642</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="2"/>
+      <c r="A717" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>168704</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="2"/>
+      <c r="A718" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>168784</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="2"/>
+      <c r="A719" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>168627</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="2"/>
+      <c r="A720" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>167554</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="2"/>
+      <c r="A721" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>167323</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="2"/>
+      <c r="A722" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>158616</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="2"/>
+      <c r="A723" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="2"/>
+      <c r="A724" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B724" s="1" t="n">
+        <v>163764</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="2"/>
+      <c r="A725" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B725" s="1" t="n">
+        <v>168586</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="2"/>
+      <c r="A726" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B726" s="1" t="n">
+        <v>168933</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="2"/>
+      <c r="A727" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>168915</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="2"/>
+      <c r="A728" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>168805</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="2"/>
+      <c r="A729" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B729" s="1" t="n">
+        <v>168804</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="2"/>
+      <c r="A730" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B730" s="1" t="n">
+        <v>168802</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="2"/>
+      <c r="A731" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B731" s="1" t="n">
+        <v>168800</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="2"/>
+      <c r="A732" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B732" s="1" t="n">
+        <v>168792</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="2"/>
+      <c r="A733" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B733" s="1" t="n">
+        <v>152916</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="2"/>
+      <c r="A734" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B734" s="1" t="n">
+        <v>152921</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="2"/>
+      <c r="A735" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B735" s="1" t="n">
+        <v>152925</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="2"/>
+      <c r="A736" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B736" s="1" t="n">
+        <v>152930</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="2"/>
+      <c r="A737" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B737" s="1" t="n">
+        <v>152939</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="2"/>
+      <c r="A738" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B738" s="1" t="n">
+        <v>152945</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="2"/>
+      <c r="A739" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B739" s="1" t="n">
+        <v>152952</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="2"/>
+      <c r="A740" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B740" s="1" t="n">
+        <v>152954</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B741" s="1" t="n">
+        <v>152956</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>152962</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>152393</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B744" s="1" t="n">
+        <v>152396</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B745" s="1" t="n">
+        <v>152452</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B746" s="1" t="n">
+        <v>152455</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B747" s="1" t="n">
+        <v>152464</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B748" s="1" t="n">
+        <v>152466</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B749" s="1" t="n">
+        <v>152470</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>152489</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>152493</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B752" s="1" t="n">
+        <v>152495</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B753" s="1" t="n">
+        <v>152497</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>152504</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>152511</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>152518</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>152523</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>152561</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>152565</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>152569</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>152577</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B762" s="1" t="n">
+        <v>152648</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>152649</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>152653</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B765" s="1" t="n">
+        <v>152819</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B766" s="1" t="n">
+        <v>152909</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>152242</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B768" s="1" t="n">
+        <v>152255</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B769" s="1" t="n">
+        <v>152257</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B770" s="1" t="n">
+        <v>152260</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B771" s="1" t="n">
+        <v>152262</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>152263</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B773" s="1" t="n">
+        <v>152264</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>152267</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>152269</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>152271</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>152326</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>152328</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E778" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B779" s="1" t="n">
+        <v>152336</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E779" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B780" s="1" t="n">
+        <v>152343</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E780" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B781" s="1" t="n">
+        <v>158616</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E781" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="45">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">31.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google ads problem</t>
   </si>
 </sst>
 </file>
@@ -291,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G781"/>
+  <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A757" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C781" activeCellId="0" sqref="C781:E781"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A818" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A838" activeCellId="0" sqref="A838:E841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11540,7 +11546,7 @@
         <v>7</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13582,6 +13588,970 @@
       <c r="E781" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>168634</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E782" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>168800</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E783" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>155327</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>168915</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B786" s="1" t="n">
+        <v>155413</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E786" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B787" s="1" t="n">
+        <v>168805</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E787" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B788" s="1" t="n">
+        <v>168784</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B789" s="1" t="n">
+        <v>168792</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B790" s="1" t="n">
+        <v>167411</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E790" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>168415</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E791" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B792" s="1" t="n">
+        <v>168804</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E792" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B793" s="1" t="n">
+        <v>151960</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E793" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B794" s="1" t="n">
+        <v>151975</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B795" s="1" t="n">
+        <v>151990</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B796" s="1" t="n">
+        <v>152086</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E796" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B797" s="1" t="n">
+        <v>152091</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E797" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B798" s="1" t="n">
+        <v>152095</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B799" s="1" t="n">
+        <v>152098</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B800" s="1" t="n">
+        <v>152103</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>152105</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>152192</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B803" s="1" t="n">
+        <v>152213</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>152216</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>152219</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>152240</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>151862</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>151855</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>151852</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>151851</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>151852</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>151850</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>151849</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>151847</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>151846</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>151274</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>151282</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>151287</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>151289</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>151295</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>151304</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>151305</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E822" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>151313</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E823" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>151317</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E824" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>151322</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E825" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>151399</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>163764</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E828" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E829" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>168625</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E830" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>151424</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>151425</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>151426</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E833" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>151046</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>151054</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>151060</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E836" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>151091</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E837" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="2"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="2"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="2"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="48">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -159,6 +159,15 @@
   <si>
     <t xml:space="preserve">google ads problem</t>
   </si>
+  <si>
+    <t xml:space="preserve">02.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,6 +203,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +279,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,10 +315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G841"/>
+  <dimension ref="A1:G919"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A818" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A838" activeCellId="0" sqref="A838:E841"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A890" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D914" activeCellId="0" sqref="D914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14542,16 +14560,1244 @@
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="2"/>
+      <c r="A838" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>169416</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E838" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="2"/>
+      <c r="A839" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>168621</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E839" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="2"/>
+      <c r="A840" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>169449</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="2"/>
+      <c r="A841" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>169448</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>169433</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>169432</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>169419</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>169408</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>169381</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>169323</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>169319</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>169313</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>169267</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>169228</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>169128</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>169103</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>169419</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>169098</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>169098</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>169084</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>169052</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>169022</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>169019</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>151789</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>151822</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>151152</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>151158</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>151159</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>151160</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>151168</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>151169</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>151190</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>151222</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>151250</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>150986</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>150987</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>150988</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>151024</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>151025</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>151032</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>151034</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>151041</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>151044</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>151045</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>150827</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>150279</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>150298</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>150303</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>150323</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>150398</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>150459</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>150465</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>150504</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>150517</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>150556</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>150566</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>150582</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B899" s="7" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>164268</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>168627</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>168915</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>168406</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>169103</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>169449</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>150556</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>150465</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>168587</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="2"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="2"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="2"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="2"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="2"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="2"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="2"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="2"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="2"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="2"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="52">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -168,6 +168,18 @@
   <si>
     <t xml:space="preserve">login</t>
   </si>
+  <si>
+    <t xml:space="preserve">05.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special offers</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,7 +293,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,10 +331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G919"/>
+  <dimension ref="A1:G985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A890" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D914" activeCellId="0" sqref="D914"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A985" activeCellId="0" sqref="A985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4356,7 +4372,7 @@
         <v>7</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15600,7 +15616,7 @@
       <c r="A899" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B899" s="7" t="n">
+      <c r="B899" s="3" t="n">
         <v>169100</v>
       </c>
       <c r="C899" s="1" t="s">
@@ -15767,37 +15783,1313 @@
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="2"/>
+      <c r="A909" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>168805</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="2"/>
+      <c r="A910" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="2"/>
+      <c r="A911" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>167965</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="2"/>
+      <c r="A912" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>150556</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="2"/>
+      <c r="A913" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>169475</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="2"/>
+      <c r="A914" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>168804</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="2"/>
+      <c r="A915" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="2"/>
+      <c r="A916" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>7247</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="2"/>
+      <c r="A917" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>97449</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="2"/>
+      <c r="A918" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>169743</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="2"/>
+      <c r="A919" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>169737</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>169732</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D920" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E920" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E921" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>169728</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E922" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B923" s="7" t="n">
+        <v>169727</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>169723</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>169652</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>169651</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E926" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>169636</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E927" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>169632</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E928" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>169626</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E929" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>169516</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>169509</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>169507</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E932" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>169504</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E933" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>169496</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>169484</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>169451</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>149468</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>149469</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>149476</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E941" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>149478</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E942" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>149481</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E943" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>149483</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E944" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>149484</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E945" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>149486</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E946" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>149545</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>149579</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>149581</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>149618</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E951" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>149639</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>149680</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E953" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>149697</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E954" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>149699</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E955" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>149702</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E956" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>149707</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E957" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>149708</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>149716</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>149717</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>149806</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>149807</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>149048</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>149053</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B965" s="8" t="n">
+        <v>149057</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>149058</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>149121</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E967" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>149154</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>149155</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E969" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>149174</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>149177</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>149187</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E972" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>149196</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E973" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>149203</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>149261</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E975" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>149345</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E976" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>149354</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E977" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>149355</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E978" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>149357</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>161349</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>167381</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>169737</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>169475</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>169381</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>169743</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="53">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t xml:space="preserve">special offers</t>
   </si>
+  <si>
+    <t xml:space="preserve">06.06.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -215,11 +218,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,14 +289,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G985"/>
+  <dimension ref="A1:G1052"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A985" activeCellId="0" sqref="A985"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1037" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1055" activeCellId="0" sqref="C1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16024,7 +16014,7 @@
       <c r="A923" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B923" s="7" t="n">
+      <c r="B923" s="3" t="n">
         <v>169727</v>
       </c>
       <c r="C923" s="1" t="s">
@@ -16068,7 +16058,7 @@
         <v>7</v>
       </c>
       <c r="E925" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16738,7 +16728,7 @@
       <c r="A965" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B965" s="8" t="n">
+      <c r="B965" s="1" t="n">
         <v>149057</v>
       </c>
       <c r="C965" s="1" t="s">
@@ -17089,6 +17079,1145 @@
       </c>
       <c r="E985" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>149174</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>168804</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>124358</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>169652</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>169860</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>169840</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>169836</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>130659</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>169829</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>169819</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>169804</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>169803</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>153356</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>147327</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>147387</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>147430</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>147449</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>147456</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>147520</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>147556</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>147595</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>147599</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>147600</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>147623</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>147662</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>147666</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>147672</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>147734</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>147766</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>147785</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>147826</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>147847</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>147849</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>148050</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>148115</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>148116</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>148121</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>148130</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>147280</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>147270</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>147237</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>147233</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>147222</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>147212</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>147185</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>147180</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>147172</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>147168</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>147158</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>147148</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>147103</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>147073</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>146180</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>146191</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>146195</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>146303</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>146316</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>146321</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>146447</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>146455</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1052" s="1" t="n">
+        <v>146462</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="57">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -183,6 +183,18 @@
   <si>
     <t xml:space="preserve">06.06.2023</t>
   </si>
+  <si>
+    <t xml:space="preserve">07.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offering for br first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taboola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarose Skin Tag Remover</t>
+  </si>
 </sst>
 </file>
 
@@ -321,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1052"/>
+  <dimension ref="A1:G1140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1037" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1055" activeCellId="0" sqref="C1055"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1121" activeCellId="0" sqref="B1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18220,6 +18232,1208 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1053" s="1" t="n">
+        <v>169835</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>169451</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1055" s="1" t="n">
+        <v>151789</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1056" s="1" t="n">
+        <v>169804</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1057" s="1" t="n">
+        <v>169836</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1058" s="1" t="n">
+        <v>169728</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1059" s="1" t="n">
+        <v>147233</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1060" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1061" s="1" t="n">
+        <v>161848</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1062" s="1" t="n">
+        <v>167657</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1063" s="1" t="n">
+        <v>167783</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1064" s="1" t="n">
+        <v>169949</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1065" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1066" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1067" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1068" s="1" t="n">
+        <v>170049</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1069" s="1" t="n">
+        <v>170037</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1070" s="1" t="n">
+        <v>170031</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1070" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1071" s="1" t="n">
+        <v>170027</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1072" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1072" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1073" s="1" t="n">
+        <v>169934</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1073" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1074" s="1" t="n">
+        <v>169927</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1074" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1075" s="1" t="n">
+        <v>169902</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1075" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1076" s="1" t="n">
+        <v>146126</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1077" s="1" t="n">
+        <v>145251</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1077" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1078" s="1" t="n">
+        <v>145253</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1078" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1079" s="1" t="n">
+        <v>145267</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1079" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1080" s="1" t="n">
+        <v>145272</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1080" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1081" s="1" t="n">
+        <v>145475</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1081" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1082" s="1" t="n">
+        <v>145500</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1082" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1083" s="1" t="n">
+        <v>145506</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1083" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1084" s="1" t="n">
+        <v>145521</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1084" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1085" s="1" t="n">
+        <v>145530</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1086" s="1" t="n">
+        <v>145536</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1087" s="1" t="n">
+        <v>145540</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1087" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1088" s="1" t="n">
+        <v>145634</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1088" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1089" s="1" t="n">
+        <v>145666</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1089" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1090" s="1" t="n">
+        <v>145667</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1090" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1091" s="1" t="n">
+        <v>145716</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1091" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1092" s="1" t="n">
+        <v>145725</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1092" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1093" s="1" t="n">
+        <v>145728</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1093" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1094" s="1" t="n">
+        <v>145733</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1094" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1095" s="1" t="n">
+        <v>145808</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1095" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1096" s="1" t="n">
+        <v>145867</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1096" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1097" s="1" t="n">
+        <v>145888</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1098" s="1" t="n">
+        <v>145915</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1098" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1099" s="1" t="n">
+        <v>145929</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1099" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1100" s="1" t="n">
+        <v>145971</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1101" s="1" t="n">
+        <v>145993</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1102" s="1" t="n">
+        <v>144264</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1103" s="1" t="n">
+        <v>144273</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1104" s="1" t="n">
+        <v>144390</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1105" s="1" t="n">
+        <v>144408</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1105" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1106" s="1" t="n">
+        <v>144410</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1107" s="1" t="n">
+        <v>144464</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1107" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1108" s="1" t="n">
+        <v>144469</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1109" s="1" t="n">
+        <v>144471</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1110" s="1" t="n">
+        <v>144477</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1111" s="1" t="n">
+        <v>144592</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1112" s="1" t="n">
+        <v>144594</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1112" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1113" s="1" t="n">
+        <v>144598</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1114" s="1" t="n">
+        <v>144674</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1115" s="1" t="n">
+        <v>144681</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1116" s="1" t="n">
+        <v>144748</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1116" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1117" s="1" t="n">
+        <v>144757</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1118" s="1" t="n">
+        <v>144788</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1119" s="1" t="n">
+        <v>168644</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="2"/>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="2"/>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="2"/>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="2"/>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="2"/>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="2"/>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="2"/>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="2"/>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="2"/>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="2"/>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="2"/>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="2"/>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="2"/>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="2"/>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="2"/>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="2"/>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="2"/>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="2"/>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="2"/>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="2"/>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="60">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -195,6 +195,15 @@
   <si>
     <t xml:space="preserve">Amarose Skin Tag Remover</t>
   </si>
+  <si>
+    <t xml:space="preserve">08.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil offers</t>
+  </si>
 </sst>
 </file>
 
@@ -333,10 +342,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1140"/>
+  <dimension ref="A1:G1190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1121" activeCellId="0" sqref="B1121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1173" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1196" activeCellId="0" sqref="D1196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19372,67 +19381,1197 @@
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="2"/>
+      <c r="A1120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1120" s="1" t="n">
+        <v>170027</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="2"/>
+      <c r="A1121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1121" s="1" t="n">
+        <v>170139</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1121" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="2"/>
+      <c r="A1122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1122" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1122" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="2"/>
+      <c r="A1123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1123" s="1" t="n">
+        <v>170031</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1124" s="2"/>
+      <c r="A1124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1124" s="1" t="n">
+        <v>170037</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1124" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="2"/>
+      <c r="A1125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1125" s="1" t="n">
+        <v>159318</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1125" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="2"/>
+      <c r="A1126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1126" s="1" t="n">
+        <v>170049</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="2"/>
+      <c r="A1127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1127" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1127" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="2"/>
+      <c r="A1128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1128" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1128" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="2"/>
+      <c r="A1129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1129" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1129" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1130" s="2"/>
+      <c r="A1130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1130" s="1" t="n">
+        <v>158538</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1130" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="2"/>
+      <c r="A1131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1131" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="2"/>
+      <c r="A1132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1132" s="1" t="n">
+        <v>15366</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1133" s="2"/>
+      <c r="A1133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1133" s="1" t="n">
+        <v>170309</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1133" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1134" s="2"/>
+      <c r="A1134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1134" s="1" t="n">
+        <v>170295</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1135" s="2"/>
+      <c r="A1135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1135" s="1" t="n">
+        <v>170220</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1136" s="2"/>
+      <c r="A1136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1136" s="1" t="n">
+        <v>170190</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="2"/>
+      <c r="A1137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1137" s="1" t="n">
+        <v>170155</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="2"/>
+      <c r="A1138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1138" s="1" t="n">
+        <v>170139</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="2"/>
+      <c r="A1139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1139" s="1" t="n">
+        <v>170136</v>
+      </c>
+      <c r="C1139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="2"/>
+      <c r="A1140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1140" s="1" t="n">
+        <v>170133</v>
+      </c>
+      <c r="C1140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1141" s="1" t="n">
+        <v>170126</v>
+      </c>
+      <c r="C1141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1142" s="1" t="n">
+        <v>170125</v>
+      </c>
+      <c r="C1142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1143" s="1" t="n">
+        <v>146825</v>
+      </c>
+      <c r="C1143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1144" s="1" t="n">
+        <v>146826</v>
+      </c>
+      <c r="C1144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1145" s="1" t="n">
+        <v>146830</v>
+      </c>
+      <c r="C1145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1146" s="1" t="n">
+        <v>146838</v>
+      </c>
+      <c r="C1146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1147" s="1" t="n">
+        <v>146896</v>
+      </c>
+      <c r="C1147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1147" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1148" s="1" t="n">
+        <v>146933</v>
+      </c>
+      <c r="C1148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1149" s="1" t="n">
+        <v>146824</v>
+      </c>
+      <c r="C1149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1150" s="1" t="n">
+        <v>143688</v>
+      </c>
+      <c r="C1150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1151" s="1" t="n">
+        <v>143694</v>
+      </c>
+      <c r="C1151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1151" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1152" s="1" t="n">
+        <v>143803</v>
+      </c>
+      <c r="C1152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1152" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1153" s="1" t="n">
+        <v>143804</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1153" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1154" s="1" t="n">
+        <v>143806</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1154" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1155" s="1" t="n">
+        <v>143813</v>
+      </c>
+      <c r="C1155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1155" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1156" s="1" t="n">
+        <v>143821</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1156" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1157" s="1" t="n">
+        <v>143828</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1157" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1158" s="1" t="n">
+        <v>143872</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1158" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1159" s="1" t="n">
+        <v>143924</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1159" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1160" s="1" t="n">
+        <v>143937</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1160" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1161" s="1" t="n">
+        <v>143949</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1161" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1162" s="1" t="n">
+        <v>143977</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1162" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1163" s="1" t="n">
+        <v>143991</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1163" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1164" s="1" t="n">
+        <v>143996</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1164" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1165" s="1" t="n">
+        <v>144007</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1166" s="1" t="n">
+        <v>144008</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1167" s="1" t="n">
+        <v>144075</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1167" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1168" s="1" t="n">
+        <v>144081</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1169" s="1" t="n">
+        <v>144135</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1169" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1170" s="1" t="n">
+        <v>144248</v>
+      </c>
+      <c r="C1170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1171" s="1" t="n">
+        <v>144258</v>
+      </c>
+      <c r="C1171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1172" s="1" t="n">
+        <v>142660</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1173" s="1" t="n">
+        <v>142664</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1174" s="1" t="n">
+        <v>142667</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1174" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1175" s="1" t="n">
+        <v>142843</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1176" s="1" t="n">
+        <v>142880</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1176" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1177" s="1" t="n">
+        <v>142881</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1178" s="1" t="n">
+        <v>142890</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1179" s="1" t="n">
+        <v>142915</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1179" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1180" s="1" t="n">
+        <v>142933</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1181" s="1" t="n">
+        <v>142937</v>
+      </c>
+      <c r="C1181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1181" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1182" s="1" t="n">
+        <v>143168</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1182" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1183" s="1" t="n">
+        <v>143173</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1184" s="1" t="n">
+        <v>143177</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1185" s="1" t="n">
+        <v>143183</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1186" s="1" t="n">
+        <v>143281</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1186" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1187" s="1" t="n">
+        <v>143333</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1188" s="1" t="n">
+        <v>143339</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1189" s="1" t="n">
+        <v>143343</v>
+      </c>
+      <c r="C1189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1189" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="62">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t xml:space="preserve">Brazil offers</t>
   </si>
+  <si>
+    <t xml:space="preserve">09.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oldest acc text</t>
+  </si>
 </sst>
 </file>
 
@@ -342,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1190"/>
+  <dimension ref="A1:G1251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1173" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1196" activeCellId="0" sqref="D1196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1251" activeCellId="0" sqref="E1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20571,7 +20577,1044 @@
       </c>
     </row>
     <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1190" s="2"/>
+      <c r="A1190" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1190" s="1" t="n">
+        <v>158538</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1190" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1191" s="1" t="n">
+        <v>152243</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1192" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1192" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1193" s="1" t="n">
+        <v>150956</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1193" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1194" s="1" t="n">
+        <v>150979</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1194" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1195" s="1" t="n">
+        <v>150981</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1195" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1196" s="1" t="n">
+        <v>150984</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1196" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1197" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1198" s="1" t="n">
+        <v>150831</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1198" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1199" s="1" t="n">
+        <v>149412</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1199" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1200" s="1" t="n">
+        <v>149413</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1201" s="1" t="n">
+        <v>148415</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1202" s="1" t="n">
+        <v>148454</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1202" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1203" s="1" t="n">
+        <v>148468</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1203" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1204" s="1" t="n">
+        <v>148474</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1204" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1205" s="1" t="n">
+        <v>167323</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1205" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1206" s="1" t="n">
+        <v>143546</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1206" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1207" s="1" t="n">
+        <v>143665</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1207" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1208" s="1" t="n">
+        <v>143673</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1208" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1209" s="1" t="n">
+        <v>143685</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1209" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1210" s="1" t="n">
+        <v>142340</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1210" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1211" s="1" t="n">
+        <v>142354</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1212" s="1" t="n">
+        <v>142374</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1212" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1213" s="1" t="n">
+        <v>142382</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1214" s="1" t="n">
+        <v>170126</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1214" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1215" s="1" t="n">
+        <v>142034</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1216" s="1" t="n">
+        <v>142036</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1217" s="1" t="n">
+        <v>142069</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1217" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1218" s="1" t="n">
+        <v>142081</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1218" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1219" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1219" s="1" t="n">
+        <v>142089</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1220" s="1" t="n">
+        <v>142097</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1221" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1221" s="1" t="n">
+        <v>142116</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1222" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1222" s="1" t="n">
+        <v>142123</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1223" s="1" t="n">
+        <v>142185</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1223" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1224" s="1" t="n">
+        <v>142201</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1224" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1225" s="1" t="n">
+        <v>142208</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1226" s="1" t="n">
+        <v>142263</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1226" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1227" s="1" t="n">
+        <v>142273</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1227" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1228" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1228" s="1" t="n">
+        <v>142275</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1228" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1229" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1229" s="1" t="n">
+        <v>142277</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1229" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1230" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1230" s="1" t="n">
+        <v>164319</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1230" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1231" s="1" t="n">
+        <v>170155</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1231" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1232" s="1" t="n">
+        <v>170133</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1232" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1233" s="1" t="n">
+        <v>152925</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1233" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1234" s="1" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1234" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1235" s="1" t="n">
+        <v>169507</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1235" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1236" s="1" t="n">
+        <v>149599</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1236" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1237" s="1" t="n">
+        <v>149633</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1238" s="1" t="n">
+        <v>149416</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1238" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1239" s="1" t="n">
+        <v>149422</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1239" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1240" s="1" t="n">
+        <v>149425</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1240" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1241" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1241" s="1" t="n">
+        <v>149443</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1241" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1242" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1242" s="1" t="n">
+        <v>149449</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1242" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1243" s="1" t="n">
+        <v>149454</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1243" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1244" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1244" s="1" t="n">
+        <v>149462</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1244" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1245" s="1" t="n">
+        <v>149474</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1245" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1246" s="1" t="n">
+        <v>149130</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1246" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1247" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1247" s="1" t="n">
+        <v>141553</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1247" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1248" s="1" t="n">
+        <v>141656</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1248" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1249" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1249" s="1" t="n">
+        <v>141661</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1249" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1250" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1250" s="1" t="n">
+        <v>141877</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1250" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A462"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$A$462</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$A$1337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="79">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -210,6 +211,57 @@
   <si>
     <t xml:space="preserve">oldest acc text</t>
   </si>
+  <si>
+    <t xml:space="preserve">12.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
 </sst>
 </file>
 
@@ -348,10 +400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1251"/>
+  <dimension ref="A1:G1337"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1251" activeCellId="0" sqref="E1251"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="A8:A13 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21614,10 +21666,1486 @@
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1251" s="2"/>
+      <c r="A1251" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1251" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1251" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1252" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1252" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1253" s="1" t="n">
+        <v>7008</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1253" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1254" s="1" t="n">
+        <v>18061</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1254" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1255" s="1" t="n">
+        <v>101420</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1255" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1256" s="1" t="n">
+        <v>170126</v>
+      </c>
+      <c r="C1256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1256" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1257" s="1" t="n">
+        <v>170323</v>
+      </c>
+      <c r="C1257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1257" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1258" s="1" t="n">
+        <v>170420</v>
+      </c>
+      <c r="C1258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1258" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1259" s="1" t="n">
+        <v>170410</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1259" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1260" s="1" t="n">
+        <v>170136</v>
+      </c>
+      <c r="C1260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1260" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1261" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C1261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1261" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1261" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1262" s="1" t="n">
+        <v>171078</v>
+      </c>
+      <c r="C1262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1263" s="1" t="n">
+        <v>170829</v>
+      </c>
+      <c r="C1263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1264" s="1" t="n">
+        <v>170815</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1264" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1265" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1265" s="1" t="n">
+        <v>170733</v>
+      </c>
+      <c r="C1265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1265" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1266" s="1" t="n">
+        <v>170190</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1266" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1267" s="1" t="n">
+        <v>170295</v>
+      </c>
+      <c r="C1267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1267" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1268" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1268" s="1" t="n">
+        <v>170699</v>
+      </c>
+      <c r="C1268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1268" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1269" s="1" t="n">
+        <v>170733</v>
+      </c>
+      <c r="C1269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1269" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1270" s="1" t="n">
+        <v>170692</v>
+      </c>
+      <c r="C1270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1270" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1271" s="1" t="n">
+        <v>170602</v>
+      </c>
+      <c r="C1271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1271" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1272" s="1" t="n">
+        <v>170594</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1272" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1273" s="1" t="n">
+        <v>170593</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1273" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1274" s="1" t="n">
+        <v>170557</v>
+      </c>
+      <c r="C1274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1274" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1275" s="1" t="n">
+        <v>170523</v>
+      </c>
+      <c r="C1275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1275" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1276" s="1" t="n">
+        <v>170398</v>
+      </c>
+      <c r="C1276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1276" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1277" s="1" t="n">
+        <v>170341</v>
+      </c>
+      <c r="C1277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1277" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1278" s="1" t="n">
+        <v>170337</v>
+      </c>
+      <c r="C1278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1278" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1278" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1279" s="1" t="n">
+        <v>170329</v>
+      </c>
+      <c r="C1279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1279" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1280" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1280" s="1" t="n">
+        <v>170324</v>
+      </c>
+      <c r="C1280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1280" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1281" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1281" s="1" t="n">
+        <v>170319</v>
+      </c>
+      <c r="C1281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1281" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1282" s="1" t="n">
+        <v>170318</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1282" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1283" s="1" t="n">
+        <v>137547</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1283" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1284" s="1" t="n">
+        <v>137726</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1284" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1285" s="1" t="n">
+        <v>137777</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1285" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1286" s="1" t="n">
+        <v>137807</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1286" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1287" s="1" t="n">
+        <v>137883</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1287" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1288" s="1" t="n">
+        <v>137911</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1288" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1289" s="1" t="n">
+        <v>137920</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1289" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1290" s="1" t="n">
+        <v>137926</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1290" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1291" s="1" t="n">
+        <v>138033</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1291" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1292" s="1" t="n">
+        <v>138044</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1292" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1293" s="1" t="n">
+        <v>138054</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1293" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1294" s="1" t="n">
+        <v>138268</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1294" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1295" s="1" t="n">
+        <v>138271</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1295" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1296" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1296" s="1" t="n">
+        <v>138404</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1296" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1297" s="1" t="n">
+        <v>138443</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1297" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1298" s="1" t="n">
+        <v>138478</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1298" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1299" s="1" t="n">
+        <v>138482</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1299" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1300" s="1" t="n">
+        <v>138496</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1300" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1301" s="1" t="n">
+        <v>138498</v>
+      </c>
+      <c r="C1301" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1301" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1302" s="1" t="n">
+        <v>138502</v>
+      </c>
+      <c r="C1302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1302" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1303" s="1" t="n">
+        <v>138546</v>
+      </c>
+      <c r="C1303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1303" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1304" s="1" t="n">
+        <v>138560</v>
+      </c>
+      <c r="C1304" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1304" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1305" s="1" t="n">
+        <v>138562</v>
+      </c>
+      <c r="C1305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1305" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1306" s="1" t="n">
+        <v>138583</v>
+      </c>
+      <c r="C1306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1306" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1307" s="1" t="n">
+        <v>138595</v>
+      </c>
+      <c r="C1307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1307" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1308" s="1" t="n">
+        <v>138599</v>
+      </c>
+      <c r="C1308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1308" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1309" s="1" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C1309" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1309" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1310" s="1" t="n">
+        <v>168918</v>
+      </c>
+      <c r="C1310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1310" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1311" s="1" t="n">
+        <v>168683</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1311" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1312" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1312" s="1" t="n">
+        <v>167927</v>
+      </c>
+      <c r="C1312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1312" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1313" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1313" s="1" t="n">
+        <v>167673</v>
+      </c>
+      <c r="C1313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1313" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1314" s="1" t="n">
+        <v>167169</v>
+      </c>
+      <c r="C1314" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1314" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1315" s="1" t="n">
+        <v>166834</v>
+      </c>
+      <c r="C1315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1315" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1316" s="1" t="n">
+        <v>166721</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1316" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1317" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1317" s="1" t="n">
+        <v>166237</v>
+      </c>
+      <c r="C1317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1317" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1318" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1318" s="1" t="n">
+        <v>166015</v>
+      </c>
+      <c r="C1318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1318" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1319" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1319" s="1" t="n">
+        <v>164312</v>
+      </c>
+      <c r="C1319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1319" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1320" s="1" t="n">
+        <v>164011</v>
+      </c>
+      <c r="C1320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1320" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1321" s="1" t="n">
+        <v>163887</v>
+      </c>
+      <c r="C1321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1321" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1322" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1322" s="1" t="n">
+        <v>163769</v>
+      </c>
+      <c r="C1322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1322" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1323" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1323" s="1" t="n">
+        <v>163674</v>
+      </c>
+      <c r="C1323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1323" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1324" s="1" t="n">
+        <v>163634</v>
+      </c>
+      <c r="C1324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1324" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1325" s="1" t="n">
+        <v>160790</v>
+      </c>
+      <c r="C1325" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1325" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1326" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1326" s="1" t="n">
+        <v>159427</v>
+      </c>
+      <c r="C1326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1326" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1326" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1327" s="1" t="n">
+        <v>158635</v>
+      </c>
+      <c r="C1327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1327" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1328" s="1" t="n">
+        <v>158238</v>
+      </c>
+      <c r="C1328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1328" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1329" s="1" t="n">
+        <v>156909</v>
+      </c>
+      <c r="C1329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1329" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1330" s="1" t="n">
+        <v>156362</v>
+      </c>
+      <c r="C1330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1330" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1331" s="1" t="n">
+        <v>156223</v>
+      </c>
+      <c r="C1331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1331" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1332" s="1" t="n">
+        <v>170325</v>
+      </c>
+      <c r="C1332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1332" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1332" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1333" s="1" t="n">
+        <v>40018</v>
+      </c>
+      <c r="C1333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1333" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1334" s="1" t="n">
+        <v>170733</v>
+      </c>
+      <c r="C1334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1334" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1334" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1335" s="1" t="n">
+        <v>138404</v>
+      </c>
+      <c r="C1335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1335" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1335" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1336" s="1" t="n">
+        <v>168683</v>
+      </c>
+      <c r="C1336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1336" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1336" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1337" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1337" s="1" t="n">
+        <v>168060</v>
+      </c>
+      <c r="C1337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1337" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A462"/>
+  <autoFilter ref="A1:A1337"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -21627,4 +23155,135 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5640" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6136" uniqueCount="83">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -224,6 +224,12 @@
     <t xml:space="preserve">google ads</t>
   </si>
   <si>
+    <t xml:space="preserve">14.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.06.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -406,10 +412,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1410"/>
+  <dimension ref="A1:G1539"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1507" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1531" activeCellId="0" sqref="F1531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24308,7 +24314,7 @@
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1406" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1406" s="1" t="n">
         <v>171164</v>
@@ -24324,16 +24330,2139 @@
       </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1407" s="2"/>
+      <c r="A1407" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1407" s="1" t="n">
+        <v>171660</v>
+      </c>
+      <c r="C1407" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1407" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1407" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1408" s="2"/>
+      <c r="A1408" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1408" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1408" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1408" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1409" s="2"/>
+      <c r="A1409" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1409" s="1" t="n">
+        <v>154304</v>
+      </c>
+      <c r="C1409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1409" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1409" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1410" s="2"/>
+      <c r="A1410" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1410" s="1" t="n">
+        <v>170699</v>
+      </c>
+      <c r="C1410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1410" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1410" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1411" s="1" t="n">
+        <v>171296</v>
+      </c>
+      <c r="C1411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1411" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1411" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1412" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C1412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1412" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1412" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1413" s="1" t="n">
+        <v>171694</v>
+      </c>
+      <c r="C1413" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1413" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1413" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1414" s="1" t="n">
+        <v>171666</v>
+      </c>
+      <c r="C1414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1414" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1415" s="1" t="n">
+        <v>96764</v>
+      </c>
+      <c r="C1415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1415" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1415" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1416" s="1" t="n">
+        <v>128889</v>
+      </c>
+      <c r="C1416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1416" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1416" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1417" s="1" t="n">
+        <v>147256</v>
+      </c>
+      <c r="C1417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1417" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1417" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1418" s="1" t="n">
+        <v>148832</v>
+      </c>
+      <c r="C1418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1418" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1419" s="1" t="n">
+        <v>149118</v>
+      </c>
+      <c r="C1419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1419" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1419" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1420" s="1" t="n">
+        <v>149706</v>
+      </c>
+      <c r="C1420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1420" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1420" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1421" s="1" t="n">
+        <v>150792</v>
+      </c>
+      <c r="C1421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1421" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1421" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1422" s="1" t="n">
+        <v>150793</v>
+      </c>
+      <c r="C1422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1422" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1422" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1423" s="1" t="n">
+        <v>150932</v>
+      </c>
+      <c r="C1423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1423" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1424" s="1" t="n">
+        <v>151042</v>
+      </c>
+      <c r="C1424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1424" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1425" s="1" t="n">
+        <v>151079</v>
+      </c>
+      <c r="C1425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1425" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1425" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1426" s="1" t="n">
+        <v>151234</v>
+      </c>
+      <c r="C1426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1426" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1426" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1427" s="1" t="n">
+        <v>171717</v>
+      </c>
+      <c r="C1427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1427" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1427" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1428" s="1" t="n">
+        <v>171684</v>
+      </c>
+      <c r="C1428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1428" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1428" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1429" s="1" t="n">
+        <v>171675</v>
+      </c>
+      <c r="C1429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1429" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1429" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1430" s="1" t="n">
+        <v>171613</v>
+      </c>
+      <c r="C1430" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1430" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1430" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1431" s="1" t="n">
+        <v>171611</v>
+      </c>
+      <c r="C1431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1431" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1431" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1432" s="1" t="n">
+        <v>171604</v>
+      </c>
+      <c r="C1432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1432" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1432" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1433" s="1" t="n">
+        <v>171568</v>
+      </c>
+      <c r="C1433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1433" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1433" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1434" s="1" t="n">
+        <v>171535</v>
+      </c>
+      <c r="C1434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1434" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1434" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1435" s="1" t="n">
+        <v>128002</v>
+      </c>
+      <c r="C1435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1435" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1435" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1436" s="1" t="n">
+        <v>128017</v>
+      </c>
+      <c r="C1436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1436" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1436" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1437" s="1" t="n">
+        <v>128049</v>
+      </c>
+      <c r="C1437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1437" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1437" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1438" s="1" t="n">
+        <v>128086</v>
+      </c>
+      <c r="C1438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1438" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1438" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1439" s="1" t="n">
+        <v>128100</v>
+      </c>
+      <c r="C1439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1439" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1439" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1440" s="1" t="n">
+        <v>128221</v>
+      </c>
+      <c r="C1440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1440" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1441" s="1" t="n">
+        <v>128248</v>
+      </c>
+      <c r="C1441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1441" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1441" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1442" s="1" t="n">
+        <v>128370</v>
+      </c>
+      <c r="C1442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1442" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1442" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1443" s="1" t="n">
+        <v>128378</v>
+      </c>
+      <c r="C1443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1443" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1443" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1444" s="1" t="n">
+        <v>128387</v>
+      </c>
+      <c r="C1444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1444" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1444" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1445" s="1" t="n">
+        <v>128403</v>
+      </c>
+      <c r="C1445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1445" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1445" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1446" s="1" t="n">
+        <v>128475</v>
+      </c>
+      <c r="C1446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1446" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1446" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1447" s="1" t="n">
+        <v>128536</v>
+      </c>
+      <c r="C1447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1447" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1447" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1448" s="1" t="n">
+        <v>128571</v>
+      </c>
+      <c r="C1448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1448" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1449" s="1" t="n">
+        <v>128650</v>
+      </c>
+      <c r="C1449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1449" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1449" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1450" s="1" t="n">
+        <v>128690</v>
+      </c>
+      <c r="C1450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1450" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1450" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1451" s="1" t="n">
+        <v>128731</v>
+      </c>
+      <c r="C1451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1451" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1451" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1452" s="1" t="n">
+        <v>128771</v>
+      </c>
+      <c r="C1452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1452" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1452" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1453" s="1" t="n">
+        <v>128797</v>
+      </c>
+      <c r="C1453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1453" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1453" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1454" s="1" t="n">
+        <v>128806</v>
+      </c>
+      <c r="C1454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1454" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1454" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1455" s="1" t="n">
+        <v>128839</v>
+      </c>
+      <c r="C1455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1455" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1455" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1456" s="1" t="n">
+        <v>128869</v>
+      </c>
+      <c r="C1456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1456" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1456" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1457" s="1" t="n">
+        <v>128879</v>
+      </c>
+      <c r="C1457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1457" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1457" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1458" s="1" t="n">
+        <v>128880</v>
+      </c>
+      <c r="C1458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1458" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1458" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1459" s="1" t="n">
+        <v>128888</v>
+      </c>
+      <c r="C1459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1459" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1459" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1460" s="1" t="n">
+        <v>128955</v>
+      </c>
+      <c r="C1460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1460" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1461" s="1" t="n">
+        <v>128979</v>
+      </c>
+      <c r="C1461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1461" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1462" s="1" t="n">
+        <v>129182</v>
+      </c>
+      <c r="C1462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1462" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1462" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1463" s="1" t="n">
+        <v>129203</v>
+      </c>
+      <c r="C1463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1463" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1463" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1464" s="1" t="n">
+        <v>129333</v>
+      </c>
+      <c r="C1464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1464" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1464" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1465" s="1" t="n">
+        <v>129354</v>
+      </c>
+      <c r="C1465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1465" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1465" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1466" s="1" t="n">
+        <v>129474</v>
+      </c>
+      <c r="C1466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1466" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1466" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1467" s="1" t="n">
+        <v>129476</v>
+      </c>
+      <c r="C1467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1467" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1467" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1468" s="1" t="n">
+        <v>129485</v>
+      </c>
+      <c r="C1468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1468" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1468" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1469" s="1" t="n">
+        <v>129496</v>
+      </c>
+      <c r="C1469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1469" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1469" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1470" s="1" t="n">
+        <v>129534</v>
+      </c>
+      <c r="C1470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1470" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1470" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1471" s="1" t="n">
+        <v>129538</v>
+      </c>
+      <c r="C1471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1471" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1471" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1472" s="1" t="n">
+        <v>129632</v>
+      </c>
+      <c r="C1472" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1472" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1472" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1473" s="1" t="n">
+        <v>59143</v>
+      </c>
+      <c r="C1473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1473" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1473" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1474" s="1" t="n">
+        <v>124065</v>
+      </c>
+      <c r="C1474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1474" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1474" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1475" s="1" t="n">
+        <v>31760</v>
+      </c>
+      <c r="C1475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1475" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1475" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1476" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C1476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1476" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1476" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1477" s="1" t="n">
+        <v>96764</v>
+      </c>
+      <c r="C1477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1477" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1477" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1478" s="1" t="n">
+        <v>167673</v>
+      </c>
+      <c r="C1478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1478" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1478" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1479" s="1" t="n">
+        <v>171681</v>
+      </c>
+      <c r="C1479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1479" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1479" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1480" s="1" t="n">
+        <v>171613</v>
+      </c>
+      <c r="C1480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1480" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1480" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1481" s="1" t="n">
+        <v>171717</v>
+      </c>
+      <c r="C1481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1481" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1481" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1482" s="1" t="n">
+        <v>171666</v>
+      </c>
+      <c r="C1482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1482" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1482" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1483" s="1" t="n">
+        <v>130537</v>
+      </c>
+      <c r="C1483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1483" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1483" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1484" s="1" t="n">
+        <v>130588</v>
+      </c>
+      <c r="C1484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1484" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1484" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1485" s="1" t="n">
+        <v>130640</v>
+      </c>
+      <c r="C1485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1485" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1485" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1486" s="1" t="n">
+        <v>130657</v>
+      </c>
+      <c r="C1486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1486" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1486" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1487" s="1" t="n">
+        <v>130660</v>
+      </c>
+      <c r="C1487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1487" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1487" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1488" s="1" t="n">
+        <v>130661</v>
+      </c>
+      <c r="C1488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1488" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1488" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1489" s="1" t="n">
+        <v>130668</v>
+      </c>
+      <c r="C1489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1489" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1489" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1490" s="1" t="n">
+        <v>130737</v>
+      </c>
+      <c r="C1490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1490" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1490" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1491" s="1" t="n">
+        <v>130755</v>
+      </c>
+      <c r="C1491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1491" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1491" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1492" s="1" t="n">
+        <v>130888</v>
+      </c>
+      <c r="C1492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1492" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1492" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1493" s="1" t="n">
+        <v>131024</v>
+      </c>
+      <c r="C1493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1493" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1493" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1494" s="1" t="n">
+        <v>131099</v>
+      </c>
+      <c r="C1494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1494" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1494" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1495" s="1" t="n">
+        <v>131173</v>
+      </c>
+      <c r="C1495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1495" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1495" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1496" s="1" t="n">
+        <v>131188</v>
+      </c>
+      <c r="C1496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1496" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1496" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1497" s="1" t="n">
+        <v>131216</v>
+      </c>
+      <c r="C1497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1497" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1497" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1498" s="1" t="n">
+        <v>131304</v>
+      </c>
+      <c r="C1498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1498" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1498" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1499" s="1" t="n">
+        <v>131321</v>
+      </c>
+      <c r="C1499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1499" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1499" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1500" s="1" t="n">
+        <v>131406</v>
+      </c>
+      <c r="C1500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1500" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1500" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1501" s="1" t="n">
+        <v>131432</v>
+      </c>
+      <c r="C1501" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1501" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1501" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1502" s="1" t="n">
+        <v>131469</v>
+      </c>
+      <c r="C1502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1502" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1502" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1503" s="1" t="n">
+        <v>131551</v>
+      </c>
+      <c r="C1503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1503" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1503" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1504" s="1" t="n">
+        <v>131574</v>
+      </c>
+      <c r="C1504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1504" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1504" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1505" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1505" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1506" s="1" t="n">
+        <v>131739</v>
+      </c>
+      <c r="C1506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1506" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1507" s="1" t="n">
+        <v>131886</v>
+      </c>
+      <c r="C1507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1507" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1507" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1508" s="1" t="n">
+        <v>131903</v>
+      </c>
+      <c r="C1508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1508" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1508" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1509" s="1" t="n">
+        <v>131942</v>
+      </c>
+      <c r="C1509" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1509" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1509" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1510" s="1" t="n">
+        <v>132035</v>
+      </c>
+      <c r="C1510" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1510" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1510" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1511" s="1" t="n">
+        <v>132119</v>
+      </c>
+      <c r="C1511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1511" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1511" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1512" s="1" t="n">
+        <v>132160</v>
+      </c>
+      <c r="C1512" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1512" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1512" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1513" s="1" t="n">
+        <v>132456</v>
+      </c>
+      <c r="C1513" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1513" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1513" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1514" s="1" t="n">
+        <v>132527</v>
+      </c>
+      <c r="C1514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1514" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1514" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1515" s="1" t="n">
+        <v>132590</v>
+      </c>
+      <c r="C1515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1515" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1515" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1516" s="1" t="n">
+        <v>150041</v>
+      </c>
+      <c r="C1516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1516" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1516" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1517" s="1" t="n">
+        <v>171910</v>
+      </c>
+      <c r="C1517" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1517" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1517" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1518" s="1" t="n">
+        <v>171907</v>
+      </c>
+      <c r="C1518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1518" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1518" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1519" s="1" t="n">
+        <v>171901</v>
+      </c>
+      <c r="C1519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1519" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1519" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1520" s="1" t="n">
+        <v>171896</v>
+      </c>
+      <c r="C1520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1520" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1520" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1521" s="1" t="n">
+        <v>171883</v>
+      </c>
+      <c r="C1521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1521" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1521" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1522" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1522" s="1" t="n">
+        <v>171873</v>
+      </c>
+      <c r="C1522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1522" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1522" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1523" s="1" t="n">
+        <v>171864</v>
+      </c>
+      <c r="C1523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1523" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1523" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1524" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1524" s="1" t="n">
+        <v>171801</v>
+      </c>
+      <c r="C1524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1524" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1524" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1525" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1525" s="1" t="n">
+        <v>171796</v>
+      </c>
+      <c r="C1525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1525" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1525" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1526" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1526" s="1" t="n">
+        <v>171795</v>
+      </c>
+      <c r="C1526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1526" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1526" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1527" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1527" s="1" t="n">
+        <v>171794</v>
+      </c>
+      <c r="C1527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1527" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1527" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1528" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1528" s="1" t="n">
+        <v>171793</v>
+      </c>
+      <c r="C1528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1528" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1528" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1529" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1529" s="1" t="n">
+        <v>171907</v>
+      </c>
+      <c r="C1529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1529" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1529" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1530" s="1" t="n">
+        <v>171901</v>
+      </c>
+      <c r="C1530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1530" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1530" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="2"/>
+    </row>
+    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1532" s="2"/>
+    </row>
+    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1533" s="2"/>
+    </row>
+    <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1534" s="2"/>
+    </row>
+    <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1535" s="2"/>
+    </row>
+    <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1536" s="2"/>
+    </row>
+    <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1537" s="2"/>
+    </row>
+    <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1538" s="2"/>
+    </row>
+    <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1539" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E1406">
@@ -24342,6 +26471,7 @@
         <filter val="activated"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -24369,18 +26499,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -24391,7 +26521,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -24402,7 +26532,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -24413,7 +26543,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -24424,7 +26554,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -24435,7 +26565,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -24446,32 +26576,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="84">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -230,6 +230,9 @@
     <t xml:space="preserve">15.06.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">16.06.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -412,10 +415,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1539"/>
+  <dimension ref="A1:G1590"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1507" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1531" activeCellId="0" sqref="F1531"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1588" activeCellId="0" sqref="L1588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26438,31 +26441,1024 @@
       </c>
     </row>
     <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1531" s="2"/>
+      <c r="A1531" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1531" s="1" t="n">
+        <v>169092</v>
+      </c>
+      <c r="C1531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1531" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1531" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1532" s="2"/>
+      <c r="A1532" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1532" s="1" t="n">
+        <v>171926</v>
+      </c>
+      <c r="C1532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1532" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1532" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1533" s="2"/>
+      <c r="A1533" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1533" s="1" t="n">
+        <v>171896</v>
+      </c>
+      <c r="C1533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1533" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1533" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1534" s="2"/>
+      <c r="A1534" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1534" s="1" t="n">
+        <v>171794</v>
+      </c>
+      <c r="C1534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1534" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1534" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1535" s="2"/>
+      <c r="A1535" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1535" s="1" t="n">
+        <v>171883</v>
+      </c>
+      <c r="C1535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1535" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1535" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1536" s="2"/>
+      <c r="A1536" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1536" s="1" t="n">
+        <v>171796</v>
+      </c>
+      <c r="C1536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1536" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1536" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1537" s="2"/>
+      <c r="A1537" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1537" s="1" t="n">
+        <v>130622</v>
+      </c>
+      <c r="C1537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1537" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="2"/>
+      <c r="A1538" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1538" s="1" t="n">
+        <v>170295</v>
+      </c>
+      <c r="C1538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1538" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1538" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1539" s="2"/>
+      <c r="A1539" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1539" s="1" t="n">
+        <v>171589</v>
+      </c>
+      <c r="C1539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1539" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1539" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1540" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1540" s="1" t="n">
+        <v>117056</v>
+      </c>
+      <c r="C1540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1540" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1540" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1541" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1541" s="1" t="n">
+        <v>171488</v>
+      </c>
+      <c r="C1541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1541" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1541" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1542" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1542" s="1" t="n">
+        <v>171568</v>
+      </c>
+      <c r="C1542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1542" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1542" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1543" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1543" s="1" t="n">
+        <v>171985</v>
+      </c>
+      <c r="C1543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1543" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1543" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1544" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1544" s="1" t="n">
+        <v>171963</v>
+      </c>
+      <c r="C1544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1544" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1544" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1545" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1545" s="1" t="n">
+        <v>171933</v>
+      </c>
+      <c r="C1545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1545" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1545" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1546" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1546" s="1" t="n">
+        <v>171930</v>
+      </c>
+      <c r="C1546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1546" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1546" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1547" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1547" s="1" t="n">
+        <v>171881</v>
+      </c>
+      <c r="C1547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1547" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1547" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1548" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1548" s="1" t="n">
+        <v>171892</v>
+      </c>
+      <c r="C1548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1548" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1548" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1549" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1549" s="1" t="n">
+        <v>171879</v>
+      </c>
+      <c r="C1549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1549" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1549" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1550" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1550" s="1" t="n">
+        <v>171883</v>
+      </c>
+      <c r="C1550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1550" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1550" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1551" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1551" s="1" t="n">
+        <v>122337</v>
+      </c>
+      <c r="C1551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1551" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1551" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1552" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1552" s="1" t="n">
+        <v>171859</v>
+      </c>
+      <c r="C1552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1552" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1552" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1553" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1553" s="1" t="n">
+        <v>151050</v>
+      </c>
+      <c r="C1553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1553" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1553" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1554" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1554" s="1" t="n">
+        <v>14260</v>
+      </c>
+      <c r="C1554" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1554" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1554" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1555" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1555" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C1555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1555" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1555" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1556" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1556" s="1" t="n">
+        <v>43874</v>
+      </c>
+      <c r="C1556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1556" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1556" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1557" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1557" s="1" t="n">
+        <v>114610</v>
+      </c>
+      <c r="C1557" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1557" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1557" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1558" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1558" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C1558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1558" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1558" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1559" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1559" s="1" t="n">
+        <v>171208</v>
+      </c>
+      <c r="C1559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1559" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1559" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1560" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1560" s="1" t="n">
+        <v>149937</v>
+      </c>
+      <c r="C1560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1560" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1560" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1561" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1561" s="1" t="n">
+        <v>149894</v>
+      </c>
+      <c r="C1561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1561" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1561" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1562" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1562" s="1" t="n">
+        <v>149952</v>
+      </c>
+      <c r="C1562" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1562" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1562" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1563" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1563" s="1" t="n">
+        <v>149975</v>
+      </c>
+      <c r="C1563" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1563" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1563" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1564" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1564" s="1" t="n">
+        <v>149980</v>
+      </c>
+      <c r="C1564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1564" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1564" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1565" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1565" s="1" t="n">
+        <v>149989</v>
+      </c>
+      <c r="C1565" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1565" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1565" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1566" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1566" s="1" t="n">
+        <v>150011</v>
+      </c>
+      <c r="C1566" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1566" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1566" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1567" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1567" s="1" t="n">
+        <v>150020</v>
+      </c>
+      <c r="C1567" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1567" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1567" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1568" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1568" s="1" t="n">
+        <v>150022</v>
+      </c>
+      <c r="C1568" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1568" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1568" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1569" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1569" s="1" t="n">
+        <v>150025</v>
+      </c>
+      <c r="C1569" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1569" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1569" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1570" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1570" s="1" t="n">
+        <v>150040</v>
+      </c>
+      <c r="C1570" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1570" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1570" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1571" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1571" s="1" t="n">
+        <v>150076</v>
+      </c>
+      <c r="C1571" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1571" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1571" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1572" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1572" s="1" t="n">
+        <v>150087</v>
+      </c>
+      <c r="C1572" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1572" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1572" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1573" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1573" s="1" t="n">
+        <v>150105</v>
+      </c>
+      <c r="C1573" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1573" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1573" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1574" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1574" s="1" t="n">
+        <v>150110</v>
+      </c>
+      <c r="C1574" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1574" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1574" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1575" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1575" s="1" t="n">
+        <v>150114</v>
+      </c>
+      <c r="C1575" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1575" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1575" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1576" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1576" s="1" t="n">
+        <v>150123</v>
+      </c>
+      <c r="C1576" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1576" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1576" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1577" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1577" s="1" t="n">
+        <v>150124</v>
+      </c>
+      <c r="C1577" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1577" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1577" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1578" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1578" s="1" t="n">
+        <v>150127</v>
+      </c>
+      <c r="C1578" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1578" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1578" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1579" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1579" s="1" t="n">
+        <v>150128</v>
+      </c>
+      <c r="C1579" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1579" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1579" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1580" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1580" s="1" t="n">
+        <v>150130</v>
+      </c>
+      <c r="C1580" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1580" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1580" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1581" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1581" s="1" t="n">
+        <v>150178</v>
+      </c>
+      <c r="C1581" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1581" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1581" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1582" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1582" s="1" t="n">
+        <v>150228</v>
+      </c>
+      <c r="C1582" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1582" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1582" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1583" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1583" s="1" t="n">
+        <v>150255</v>
+      </c>
+      <c r="C1583" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1583" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1583" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1584" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1584" s="1" t="n">
+        <v>150274</v>
+      </c>
+      <c r="C1584" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1584" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1584" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1585" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1585" s="1" t="n">
+        <v>148290</v>
+      </c>
+      <c r="C1585" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1585" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1585" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1586" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1586" s="1" t="n">
+        <v>148293</v>
+      </c>
+      <c r="C1586" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1586" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1587" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1587" s="1" t="n">
+        <v>148299</v>
+      </c>
+      <c r="C1587" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1587" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1587" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1588" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1588" s="1" t="n">
+        <v>148358</v>
+      </c>
+      <c r="C1588" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1588" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1588" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1589" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1589" s="1" t="n">
+        <v>148498</v>
+      </c>
+      <c r="C1589" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1589" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1589" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1590" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1590" s="1" t="n">
+        <v>148499</v>
+      </c>
+      <c r="C1590" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1590" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E1406">
@@ -26499,18 +27495,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -26521,7 +27517,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -26532,7 +27528,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -26543,7 +27539,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -26554,7 +27550,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -26565,7 +27561,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -26576,32 +27572,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="91">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -233,6 +233,27 @@
     <t xml:space="preserve">16.06.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">19.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mena offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slow traffic</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -285,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -312,6 +333,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +409,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -415,10 +445,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1590"/>
+  <dimension ref="A1:G1702"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1572" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1588" activeCellId="0" sqref="L1588"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1694" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1703" activeCellId="0" sqref="A1703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27457,6 +27487,1910 @@
         <v>7</v>
       </c>
       <c r="E1590" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1591" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1591" s="1" t="n">
+        <v>170733</v>
+      </c>
+      <c r="C1591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1591" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1591" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1592" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1592" s="1" t="n">
+        <v>151103</v>
+      </c>
+      <c r="C1592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1592" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1592" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1593" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1593" s="1" t="n">
+        <v>168800</v>
+      </c>
+      <c r="C1593" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1593" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1593" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1594" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1594" s="1" t="n">
+        <v>166117</v>
+      </c>
+      <c r="C1594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1594" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1594" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1595" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1595" s="1" t="n">
+        <v>167380</v>
+      </c>
+      <c r="C1595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1595" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1595" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1596" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1596" s="1" t="n">
+        <v>163764</v>
+      </c>
+      <c r="C1596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1596" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1596" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1597" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1597" s="1" t="n">
+        <v>166693</v>
+      </c>
+      <c r="C1597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1597" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1597" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1598" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1598" s="1" t="n">
+        <v>117139</v>
+      </c>
+      <c r="C1598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1598" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1598" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1599" s="1" t="n">
+        <v>163486</v>
+      </c>
+      <c r="C1599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1599" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1599" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1600" s="1" t="n">
+        <v>168060</v>
+      </c>
+      <c r="C1600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1600" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1600" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1601" s="1" t="n">
+        <v>142178</v>
+      </c>
+      <c r="C1601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1601" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1601" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1602" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1602" s="1" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C1602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1602" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1602" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1603" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1603" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C1603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1603" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1603" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1604" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1604" s="1" t="n">
+        <v>62418</v>
+      </c>
+      <c r="C1604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1604" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1604" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1605" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1605" s="1" t="n">
+        <v>10404</v>
+      </c>
+      <c r="C1605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1605" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1605" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1606" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1606" s="1" t="n">
+        <v>110541</v>
+      </c>
+      <c r="C1606" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1606" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1606" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1607" s="1" t="n">
+        <v>71074</v>
+      </c>
+      <c r="C1607" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1607" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1607" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1608" s="1" t="n">
+        <v>172305</v>
+      </c>
+      <c r="C1608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1608" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1608" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1609" s="1" t="n">
+        <v>152093</v>
+      </c>
+      <c r="C1609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1609" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1609" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1610" s="1" t="n">
+        <v>172296</v>
+      </c>
+      <c r="C1610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1610" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1610" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1611" s="1" t="n">
+        <v>172160</v>
+      </c>
+      <c r="C1611" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1611" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1611" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1612" s="1" t="n">
+        <v>149436</v>
+      </c>
+      <c r="C1612" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1612" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1612" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1613" s="1" t="n">
+        <v>172234</v>
+      </c>
+      <c r="C1613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1613" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1614" s="1" t="n">
+        <v>57396</v>
+      </c>
+      <c r="C1614" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1614" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1614" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1615" s="1" t="n">
+        <v>172185</v>
+      </c>
+      <c r="C1615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1615" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1615" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1616" s="1" t="n">
+        <v>172185</v>
+      </c>
+      <c r="C1616" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1616" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1616" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1617" s="1" t="n">
+        <v>172173</v>
+      </c>
+      <c r="C1617" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1617" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1617" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1618" s="1" t="n">
+        <v>172168</v>
+      </c>
+      <c r="C1618" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1618" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1618" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1619" s="1" t="n">
+        <v>172160</v>
+      </c>
+      <c r="C1619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1619" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1619" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1620" s="1" t="n">
+        <v>62418</v>
+      </c>
+      <c r="C1620" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1620" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1620" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1621" s="1" t="n">
+        <v>172141</v>
+      </c>
+      <c r="C1621" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1621" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1621" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1622" s="1" t="n">
+        <v>171208</v>
+      </c>
+      <c r="C1622" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1622" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1622" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1623" s="1" t="n">
+        <v>163780</v>
+      </c>
+      <c r="C1623" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1623" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1623" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1624" s="1" t="n">
+        <v>128894</v>
+      </c>
+      <c r="C1624" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1624" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1624" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1625" s="1" t="n">
+        <v>172297</v>
+      </c>
+      <c r="C1625" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1625" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1625" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1626" s="1" t="n">
+        <v>172295</v>
+      </c>
+      <c r="C1626" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1626" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1626" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1627" s="1" t="n">
+        <v>172292</v>
+      </c>
+      <c r="C1627" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1627" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1627" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1628" s="1" t="n">
+        <v>172240</v>
+      </c>
+      <c r="C1628" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1628" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1628" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1629" s="1" t="n">
+        <v>172218</v>
+      </c>
+      <c r="C1629" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1629" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1629" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1630" s="1" t="n">
+        <v>172211</v>
+      </c>
+      <c r="C1630" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1630" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1630" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1631" s="1" t="n">
+        <v>172186</v>
+      </c>
+      <c r="C1631" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1631" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1631" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1632" s="1" t="n">
+        <v>172165</v>
+      </c>
+      <c r="C1632" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1632" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1632" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1633" s="1" t="n">
+        <v>172151</v>
+      </c>
+      <c r="C1633" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1633" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1633" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1634" s="1" t="n">
+        <v>172138</v>
+      </c>
+      <c r="C1634" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1634" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1634" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1635" s="1" t="n">
+        <v>172127</v>
+      </c>
+      <c r="C1635" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1635" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1635" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1636" s="1" t="n">
+        <v>172037</v>
+      </c>
+      <c r="C1636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1636" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1636" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1637" s="1" t="n">
+        <v>172034</v>
+      </c>
+      <c r="C1637" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1637" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1637" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1638" s="1" t="n">
+        <v>172022</v>
+      </c>
+      <c r="C1638" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1638" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1638" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1639" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1639" s="1" t="n">
+        <v>172010</v>
+      </c>
+      <c r="C1639" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1639" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1639" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1640" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1640" s="1" t="n">
+        <v>172005</v>
+      </c>
+      <c r="C1640" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1640" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1640" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1641" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1641" s="1" t="n">
+        <v>171974</v>
+      </c>
+      <c r="C1641" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1641" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1641" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1642" s="1" t="n">
+        <v>172186</v>
+      </c>
+      <c r="C1642" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1642" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1642" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1643" s="1" t="n">
+        <v>149436</v>
+      </c>
+      <c r="C1643" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1643" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1643" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1644" s="1" t="n">
+        <v>102835</v>
+      </c>
+      <c r="C1644" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1644" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1644" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1645" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1645" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1645" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1645" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1646" s="1" t="n">
+        <v>128946</v>
+      </c>
+      <c r="C1646" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1646" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1646" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1647" s="1" t="n">
+        <v>172305</v>
+      </c>
+      <c r="C1647" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1647" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1647" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1648" s="1" t="n">
+        <v>149436</v>
+      </c>
+      <c r="C1648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1648" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1648" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1649" s="1" t="n">
+        <v>171613</v>
+      </c>
+      <c r="C1649" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1649" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1649" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1650" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C1650" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1650" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1650" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1651" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1651" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1651" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1651" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1652" s="1" t="n">
+        <v>128894</v>
+      </c>
+      <c r="C1652" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1652" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1652" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1653" s="1" t="n">
+        <v>128977</v>
+      </c>
+      <c r="C1653" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1653" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1653" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1654" s="1" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C1654" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1654" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1654" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1655" s="1" t="n">
+        <v>109869</v>
+      </c>
+      <c r="C1655" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1655" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1655" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1656" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C1656" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1656" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1656" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1657" s="1" t="n">
+        <v>66413</v>
+      </c>
+      <c r="C1657" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1657" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1657" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1658" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C1658" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1658" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1658" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1659" s="1" t="n">
+        <v>172138</v>
+      </c>
+      <c r="C1659" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1659" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1659" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1660" s="1" t="n">
+        <v>172151</v>
+      </c>
+      <c r="C1660" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1660" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1660" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1661" s="1" t="n">
+        <v>100365</v>
+      </c>
+      <c r="C1661" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1661" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1661" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1662" s="1" t="n">
+        <v>172538</v>
+      </c>
+      <c r="C1662" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1662" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1662" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1663" s="1" t="n">
+        <v>172517</v>
+      </c>
+      <c r="C1663" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1663" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1663" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1664" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C1664" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1664" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1664" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1665" s="1" t="n">
+        <v>172410</v>
+      </c>
+      <c r="C1665" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1665" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1665" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1666" s="1" t="n">
+        <v>172405</v>
+      </c>
+      <c r="C1666" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1666" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1666" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1667" s="1" t="n">
+        <v>172391</v>
+      </c>
+      <c r="C1667" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1667" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1667" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1668" s="1" t="n">
+        <v>172385</v>
+      </c>
+      <c r="C1668" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1668" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1668" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1669" s="1" t="n">
+        <v>172383</v>
+      </c>
+      <c r="C1669" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1669" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1669" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1670" s="1" t="n">
+        <v>172379</v>
+      </c>
+      <c r="C1670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1670" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1670" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1671" s="1" t="n">
+        <v>172378</v>
+      </c>
+      <c r="C1671" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1671" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1671" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1672" s="1" t="n">
+        <v>172373</v>
+      </c>
+      <c r="C1672" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1672" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1672" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1673" s="1" t="n">
+        <v>172368</v>
+      </c>
+      <c r="C1673" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1673" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1673" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1674" s="1" t="n">
+        <v>90924</v>
+      </c>
+      <c r="C1674" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1674" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1674" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1675" s="1" t="n">
+        <v>167683</v>
+      </c>
+      <c r="C1675" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1675" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1675" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1676" s="1" t="n">
+        <v>27499</v>
+      </c>
+      <c r="C1676" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1676" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1676" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1677" s="1" t="n">
+        <v>119838</v>
+      </c>
+      <c r="C1677" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1677" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1677" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1678" s="1" t="n">
+        <v>119939</v>
+      </c>
+      <c r="C1678" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1678" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1678" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1679" s="1" t="n">
+        <v>119971</v>
+      </c>
+      <c r="C1679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1679" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1679" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1680" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1680" s="1" t="n">
+        <v>119995</v>
+      </c>
+      <c r="C1680" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1680" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1680" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1681" s="1" t="n">
+        <v>120055</v>
+      </c>
+      <c r="C1681" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1681" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1681" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1682" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1682" s="1" t="n">
+        <v>120087</v>
+      </c>
+      <c r="C1682" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1682" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1682" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1683" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1683" s="1" t="n">
+        <v>120092</v>
+      </c>
+      <c r="C1683" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1683" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1683" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1684" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1684" s="1" t="n">
+        <v>120097</v>
+      </c>
+      <c r="C1684" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1684" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1684" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1685" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1685" s="1" t="n">
+        <v>120378</v>
+      </c>
+      <c r="C1685" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1685" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1685" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1686" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1686" s="1" t="n">
+        <v>120439</v>
+      </c>
+      <c r="C1686" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1686" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1686" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1687" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1687" s="1" t="n">
+        <v>120477</v>
+      </c>
+      <c r="C1687" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1687" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1687" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1688" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1688" s="1" t="n">
+        <v>121040</v>
+      </c>
+      <c r="C1688" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1688" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1688" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1689" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1689" s="1" t="n">
+        <v>121063</v>
+      </c>
+      <c r="C1689" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1689" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1689" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1690" s="1" t="n">
+        <v>121091</v>
+      </c>
+      <c r="C1690" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1690" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1690" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1691" s="1" t="n">
+        <v>121141</v>
+      </c>
+      <c r="C1691" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1691" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1691" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1692" s="1" t="n">
+        <v>121168</v>
+      </c>
+      <c r="C1692" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1692" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1692" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1693" s="1" t="n">
+        <v>172022</v>
+      </c>
+      <c r="C1693" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1693" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1693" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1694" s="1" t="n">
+        <v>121176</v>
+      </c>
+      <c r="C1694" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1694" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1694" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1695" s="1" t="n">
+        <v>121272</v>
+      </c>
+      <c r="C1695" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1695" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1695" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1696" s="1" t="n">
+        <v>121335</v>
+      </c>
+      <c r="C1696" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1696" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1696" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1697" s="1" t="n">
+        <v>121430</v>
+      </c>
+      <c r="C1697" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1697" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1697" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1698" s="1" t="n">
+        <v>121529</v>
+      </c>
+      <c r="C1698" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1698" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1698" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1699" s="1" t="n">
+        <v>121540</v>
+      </c>
+      <c r="C1699" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1699" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1699" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1700" s="1" t="n">
+        <v>121553</v>
+      </c>
+      <c r="C1700" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1700" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1700" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1701" s="1" t="n">
+        <v>117230</v>
+      </c>
+      <c r="C1701" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1701" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1701" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1702" s="1" t="n">
+        <v>117313</v>
+      </c>
+      <c r="C1702" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1702" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1702" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27495,18 +29429,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -27517,7 +29451,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -27528,7 +29462,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -27539,7 +29473,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -27550,7 +29484,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -27561,7 +29495,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -27572,32 +29506,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7064" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7308" uniqueCount="96">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -260,6 +260,12 @@
     <t xml:space="preserve">us offers</t>
   </si>
   <si>
+    <t xml:space="preserve">22.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdraw</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -411,15 +417,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -428,10 +425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1762"/>
+  <dimension ref="A1:G1823"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1749" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1763" activeCellId="0" sqref="A1763:E1763"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1805" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1829" activeCellId="0" sqref="D1829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11711,7 +11708,7 @@
         <v>7</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22693,7 +22690,7 @@
         <v>7</v>
       </c>
       <c r="E1309" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28762,7 +28759,7 @@
         <v>7</v>
       </c>
       <c r="E1666" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30394,6 +30391,1043 @@
         <v>7</v>
       </c>
       <c r="E1762" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1763" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1763" s="1" t="n">
+        <v>172378</v>
+      </c>
+      <c r="C1763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1763" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1763" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1764" s="1" t="n">
+        <v>76516</v>
+      </c>
+      <c r="C1764" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1764" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1764" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1765" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C1765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1765" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1765" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1766" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1766" s="1" t="n">
+        <v>168631</v>
+      </c>
+      <c r="C1766" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1766" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1766" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1767" s="1" t="n">
+        <v>172305</v>
+      </c>
+      <c r="C1767" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1767" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1767" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1768" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C1768" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1768" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1768" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1769" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C1769" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1769" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1769" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1770" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1770" s="1" t="n">
+        <v>172368</v>
+      </c>
+      <c r="C1770" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1770" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1770" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1771" s="1" t="n">
+        <v>60174</v>
+      </c>
+      <c r="C1771" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1771" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1771" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1772" s="1" t="n">
+        <v>172373</v>
+      </c>
+      <c r="C1772" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1772" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1772" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1773" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1773" s="1" t="n">
+        <v>172703</v>
+      </c>
+      <c r="C1773" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1773" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1773" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1774" s="1" t="n">
+        <v>172705</v>
+      </c>
+      <c r="C1774" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1774" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1774" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1775" s="1" t="n">
+        <v>172641</v>
+      </c>
+      <c r="C1775" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1775" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1775" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1776" s="1" t="n">
+        <v>163634</v>
+      </c>
+      <c r="C1776" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1776" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1776" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1777" s="1" t="n">
+        <v>172405</v>
+      </c>
+      <c r="C1777" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1777" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1777" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1778" s="1" t="n">
+        <v>172830</v>
+      </c>
+      <c r="C1778" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1778" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1778" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1779" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1779" s="1" t="n">
+        <v>172816</v>
+      </c>
+      <c r="C1779" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1779" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1779" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1780" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1780" s="1" t="n">
+        <v>172781</v>
+      </c>
+      <c r="C1780" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1780" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1780" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1781" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1781" s="1" t="n">
+        <v>172740</v>
+      </c>
+      <c r="C1781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1781" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1781" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1782" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1782" s="1" t="n">
+        <v>172732</v>
+      </c>
+      <c r="C1782" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1782" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1782" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1783" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1783" s="1" t="n">
+        <v>172713</v>
+      </c>
+      <c r="C1783" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1783" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1783" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1784" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1784" s="1" t="n">
+        <v>172712</v>
+      </c>
+      <c r="C1784" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1784" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1785" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1785" s="1" t="n">
+        <v>172631</v>
+      </c>
+      <c r="C1785" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1785" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1785" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1786" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1786" s="1" t="n">
+        <v>152072</v>
+      </c>
+      <c r="C1786" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1786" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1786" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1787" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1787" s="1" t="n">
+        <v>141533</v>
+      </c>
+      <c r="C1787" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1787" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1787" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1788" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1788" s="1" t="n">
+        <v>140618</v>
+      </c>
+      <c r="C1788" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1788" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1788" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1789" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1789" s="1" t="n">
+        <v>140694</v>
+      </c>
+      <c r="C1789" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1789" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1790" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1790" s="1" t="n">
+        <v>140702</v>
+      </c>
+      <c r="C1790" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1790" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1790" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1791" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1791" s="1" t="n">
+        <v>140799</v>
+      </c>
+      <c r="C1791" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1791" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1791" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1792" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1792" s="1" t="n">
+        <v>140854</v>
+      </c>
+      <c r="C1792" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1792" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1792" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1793" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1793" s="1" t="n">
+        <v>140864</v>
+      </c>
+      <c r="C1793" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1793" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1794" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1794" s="1" t="n">
+        <v>140868</v>
+      </c>
+      <c r="C1794" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1794" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1794" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1795" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1795" s="1" t="n">
+        <v>140924</v>
+      </c>
+      <c r="C1795" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1795" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1795" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1796" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1796" s="1" t="n">
+        <v>141000</v>
+      </c>
+      <c r="C1796" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1796" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1796" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1797" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1797" s="1" t="n">
+        <v>172816</v>
+      </c>
+      <c r="C1797" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1797" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1797" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1798" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1798" s="1" t="n">
+        <v>171910</v>
+      </c>
+      <c r="C1798" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1798" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1798" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1799" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1799" s="1" t="n">
+        <v>172830</v>
+      </c>
+      <c r="C1799" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1799" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1799" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1800" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1800" s="1" t="n">
+        <v>141089</v>
+      </c>
+      <c r="C1800" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1800" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1800" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1801" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1801" s="1" t="n">
+        <v>141103</v>
+      </c>
+      <c r="C1801" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1801" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1801" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1802" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1802" s="1" t="n">
+        <v>141143</v>
+      </c>
+      <c r="C1802" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1802" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1802" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1803" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1803" s="1" t="n">
+        <v>141147</v>
+      </c>
+      <c r="C1803" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1803" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1803" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1804" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1804" s="1" t="n">
+        <v>141153</v>
+      </c>
+      <c r="C1804" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1804" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1805" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1805" s="1" t="n">
+        <v>141201</v>
+      </c>
+      <c r="C1805" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1805" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1805" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1806" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1806" s="1" t="n">
+        <v>141259</v>
+      </c>
+      <c r="C1806" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1806" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1806" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1807" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1807" s="1" t="n">
+        <v>141280</v>
+      </c>
+      <c r="C1807" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1807" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1807" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1808" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1808" s="1" t="n">
+        <v>141322</v>
+      </c>
+      <c r="C1808" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1808" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1808" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1809" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1809" s="1" t="n">
+        <v>141333</v>
+      </c>
+      <c r="C1809" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1809" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1810" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1810" s="1" t="n">
+        <v>141454</v>
+      </c>
+      <c r="C1810" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1810" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1810" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1811" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1811" s="1" t="n">
+        <v>141475</v>
+      </c>
+      <c r="C1811" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1811" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1811" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1812" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1812" s="1" t="n">
+        <v>141478</v>
+      </c>
+      <c r="C1812" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1812" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1812" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1813" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1813" s="1" t="n">
+        <v>141481</v>
+      </c>
+      <c r="C1813" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1813" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1813" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1814" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1814" s="1" t="n">
+        <v>141482</v>
+      </c>
+      <c r="C1814" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1814" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1815" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1815" s="1" t="n">
+        <v>141485</v>
+      </c>
+      <c r="C1815" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1815" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1815" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1816" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1816" s="1" t="n">
+        <v>139213</v>
+      </c>
+      <c r="C1816" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1816" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1816" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1817" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1817" s="1" t="n">
+        <v>139244</v>
+      </c>
+      <c r="C1817" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1817" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1817" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1818" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1818" s="1" t="n">
+        <v>139253</v>
+      </c>
+      <c r="C1818" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1818" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1818" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1819" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1819" s="1" t="n">
+        <v>139364</v>
+      </c>
+      <c r="C1819" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1819" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1819" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1820" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1820" s="1" t="n">
+        <v>139391</v>
+      </c>
+      <c r="C1820" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1820" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1820" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1821" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1821" s="1" t="n">
+        <v>139393</v>
+      </c>
+      <c r="C1821" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1821" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1821" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1822" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1822" s="1" t="n">
+        <v>139463</v>
+      </c>
+      <c r="C1822" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1822" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1822" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1823" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1823" s="1" t="n">
+        <v>139527</v>
+      </c>
+      <c r="C1823" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1823" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1823" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -30416,25 +31450,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A1763:E1763 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -30445,7 +31479,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -30456,7 +31490,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -30467,7 +31501,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -30478,7 +31512,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -30489,7 +31523,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -30500,32 +31534,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7308" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="98">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -266,6 +266,12 @@
     <t xml:space="preserve">withdraw</t>
   </si>
   <si>
+    <t xml:space="preserve">23.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru speak</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -425,10 +431,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1823"/>
+  <dimension ref="A1:G1890"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1805" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1829" activeCellId="0" sqref="D1829"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1868" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1892" activeCellId="0" sqref="D1892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31429,6 +31435,1145 @@
       </c>
       <c r="E1823" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1824" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1824" s="1" t="n">
+        <v>46587</v>
+      </c>
+      <c r="C1824" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1824" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1824" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1825" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1825" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C1825" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1825" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1825" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1826" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1826" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C1826" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1826" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1826" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1827" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1827" s="1" t="n">
+        <v>58837</v>
+      </c>
+      <c r="C1827" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1827" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1827" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1828" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1828" s="1" t="n">
+        <v>163885</v>
+      </c>
+      <c r="C1828" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1828" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1828" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1829" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1829" s="1" t="n">
+        <v>108165</v>
+      </c>
+      <c r="C1829" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1829" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1829" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1830" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1830" s="1" t="n">
+        <v>168631</v>
+      </c>
+      <c r="C1830" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1830" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1830" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1831" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1831" s="1" t="n">
+        <v>172600</v>
+      </c>
+      <c r="C1831" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1831" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1831" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1832" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1832" s="1" t="n">
+        <v>172887</v>
+      </c>
+      <c r="C1832" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1832" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1832" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1833" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1833" s="1" t="n">
+        <v>168631</v>
+      </c>
+      <c r="C1833" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1833" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1833" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1834" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1834" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C1834" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1834" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1834" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1835" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1835" s="1" t="n">
+        <v>170126</v>
+      </c>
+      <c r="C1835" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1835" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1835" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1836" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1836" s="1" t="n">
+        <v>172405</v>
+      </c>
+      <c r="C1836" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1836" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1836" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1837" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1837" s="1" t="n">
+        <v>172816</v>
+      </c>
+      <c r="C1837" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1837" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1837" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1838" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1838" s="1" t="n">
+        <v>172278</v>
+      </c>
+      <c r="C1838" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1838" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1838" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1839" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1839" s="1" t="n">
+        <v>172842</v>
+      </c>
+      <c r="C1839" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1839" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1839" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1840" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1840" s="1" t="n">
+        <v>172631</v>
+      </c>
+      <c r="C1840" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1840" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1840" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1841" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1841" s="1" t="n">
+        <v>169504</v>
+      </c>
+      <c r="C1841" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1841" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1841" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1842" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1842" s="1" t="n">
+        <v>172732</v>
+      </c>
+      <c r="C1842" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1842" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1842" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1843" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1843" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C1843" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1843" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1843" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1844" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1844" s="1" t="n">
+        <v>172936</v>
+      </c>
+      <c r="C1844" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1844" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1844" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1845" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1845" s="1" t="n">
+        <v>172872</v>
+      </c>
+      <c r="C1845" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1845" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1845" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1846" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1846" s="1" t="n">
+        <v>171684</v>
+      </c>
+      <c r="C1846" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1846" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1846" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1847" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1847" s="1" t="n">
+        <v>172857</v>
+      </c>
+      <c r="C1847" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1847" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1847" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1848" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1848" s="1" t="n">
+        <v>172856</v>
+      </c>
+      <c r="C1848" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1848" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1848" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1849" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1849" s="1" t="n">
+        <v>172853</v>
+      </c>
+      <c r="C1849" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1849" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1849" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1850" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1850" s="1" t="n">
+        <v>101469</v>
+      </c>
+      <c r="C1850" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1850" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1850" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1851" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1851" s="1" t="n">
+        <v>45136</v>
+      </c>
+      <c r="C1851" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1851" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1851" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1852" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1852" s="1" t="n">
+        <v>17015</v>
+      </c>
+      <c r="C1852" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1852" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1852" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1853" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1853" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C1853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1853" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1853" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1854" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1854" s="1" t="n">
+        <v>142291</v>
+      </c>
+      <c r="C1854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1854" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1854" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1855" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1855" s="1" t="n">
+        <v>142327</v>
+      </c>
+      <c r="C1855" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1855" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1855" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1856" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1856" s="1" t="n">
+        <v>138907</v>
+      </c>
+      <c r="C1856" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1856" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1856" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1857" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1857" s="1" t="n">
+        <v>138954</v>
+      </c>
+      <c r="C1857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1857" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1857" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1858" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1858" s="1" t="n">
+        <v>138956</v>
+      </c>
+      <c r="C1858" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1858" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1858" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1859" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1859" s="1" t="n">
+        <v>139067</v>
+      </c>
+      <c r="C1859" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1859" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1859" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1860" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1860" s="1" t="n">
+        <v>139076</v>
+      </c>
+      <c r="C1860" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1860" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1860" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1861" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1861" s="1" t="n">
+        <v>139081</v>
+      </c>
+      <c r="C1861" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1861" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1861" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1862" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1862" s="1" t="n">
+        <v>139088</v>
+      </c>
+      <c r="C1862" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1862" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1862" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1863" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1863" s="1" t="n">
+        <v>139156</v>
+      </c>
+      <c r="C1863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1863" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1863" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1864" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1864" s="1" t="n">
+        <v>139171</v>
+      </c>
+      <c r="C1864" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1864" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1865" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1865" s="1" t="n">
+        <v>139209</v>
+      </c>
+      <c r="C1865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1865" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1865" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1866" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1866" s="1" t="n">
+        <v>139654</v>
+      </c>
+      <c r="C1866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1866" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1866" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1867" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1867" s="1" t="n">
+        <v>139668</v>
+      </c>
+      <c r="C1867" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1867" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1867" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1868" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1868" s="1" t="n">
+        <v>139685</v>
+      </c>
+      <c r="C1868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1868" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1868" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1869" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1869" s="1" t="n">
+        <v>139700</v>
+      </c>
+      <c r="C1869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1869" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1869" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1870" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1870" s="1" t="n">
+        <v>139707</v>
+      </c>
+      <c r="C1870" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1870" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1870" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1871" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1871" s="1" t="n">
+        <v>139714</v>
+      </c>
+      <c r="C1871" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1871" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1871" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1872" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1872" s="1" t="n">
+        <v>139719</v>
+      </c>
+      <c r="C1872" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1872" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1872" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1873" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1873" s="1" t="n">
+        <v>139774</v>
+      </c>
+      <c r="C1873" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1873" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1873" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1874" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1874" s="1" t="n">
+        <v>139775</v>
+      </c>
+      <c r="C1874" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1874" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1874" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1875" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1875" s="1" t="n">
+        <v>139793</v>
+      </c>
+      <c r="C1875" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1875" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1875" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1876" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1876" s="1" t="n">
+        <v>139814</v>
+      </c>
+      <c r="C1876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1876" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1876" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1877" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1877" s="1" t="n">
+        <v>139850</v>
+      </c>
+      <c r="C1877" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1877" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1878" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1878" s="1" t="n">
+        <v>139878</v>
+      </c>
+      <c r="C1878" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1878" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1878" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1879" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1879" s="1" t="n">
+        <v>139880</v>
+      </c>
+      <c r="C1879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1879" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1879" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1880" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1880" s="1" t="n">
+        <v>139934</v>
+      </c>
+      <c r="C1880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1880" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1880" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1881" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1881" s="1" t="n">
+        <v>139955</v>
+      </c>
+      <c r="C1881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1881" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1881" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1882" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1882" s="1" t="n">
+        <v>139957</v>
+      </c>
+      <c r="C1882" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1882" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1882" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1883" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1883" s="1" t="n">
+        <v>139967</v>
+      </c>
+      <c r="C1883" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1883" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1883" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1884" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1884" s="1" t="n">
+        <v>139970</v>
+      </c>
+      <c r="C1884" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1884" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1884" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1885" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1885" s="1" t="n">
+        <v>139971</v>
+      </c>
+      <c r="C1885" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1885" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1885" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1886" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1886" s="1" t="n">
+        <v>139973</v>
+      </c>
+      <c r="C1886" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1886" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1886" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1887" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1887" s="1" t="n">
+        <v>172853</v>
+      </c>
+      <c r="C1887" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1887" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1887" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1888" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1888" s="1" t="n">
+        <v>172712</v>
+      </c>
+      <c r="C1888" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1888" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1888" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1889" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1889" s="1" t="n">
+        <v>172712</v>
+      </c>
+      <c r="C1889" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1889" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1889" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1890" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1890" s="1" t="n">
+        <v>141089</v>
+      </c>
+      <c r="C1890" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1890" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1890" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -31457,18 +32602,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -31479,7 +32624,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -31490,7 +32635,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -31501,7 +32646,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -31512,7 +32657,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -31523,7 +32668,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -31534,32 +32679,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7820" uniqueCount="104">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -272,6 +272,24 @@
     <t xml:space="preserve">ru speak</t>
   </si>
   <si>
+    <t xml:space="preserve">26.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinho Gell Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landing prelanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bump</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -389,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,6 +432,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1890"/>
+  <dimension ref="A1:G1954"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1868" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1892" activeCellId="0" sqref="D1892"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1922" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1952" activeCellId="0" sqref="A1952:E1954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32575,6 +32597,1052 @@
       <c r="E1890" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="1891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1891" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1891" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C1891" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1891" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1891" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1892" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1892" s="1" t="n">
+        <v>103189</v>
+      </c>
+      <c r="C1892" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1892" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1892" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1893" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1893" s="1" t="n">
+        <v>80607</v>
+      </c>
+      <c r="C1893" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1893" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1893" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1894" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1894" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C1894" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1894" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1894" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1895" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1895" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="C1895" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1895" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1895" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1896" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1896" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C1896" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1896" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1896" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1897" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1897" s="1" t="n">
+        <v>171684</v>
+      </c>
+      <c r="C1897" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1897" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1897" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1898" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1898" s="1" t="n">
+        <v>162057</v>
+      </c>
+      <c r="C1898" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1898" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1898" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1899" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1899" s="1" t="n">
+        <v>156628</v>
+      </c>
+      <c r="C1899" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1899" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1899" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1900" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1900" s="1" t="n">
+        <v>98413</v>
+      </c>
+      <c r="C1900" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1900" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1900" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1901" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1901" s="1" t="n">
+        <v>96749</v>
+      </c>
+      <c r="C1901" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1901" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1901" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1902" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1902" s="1" t="n">
+        <v>172211</v>
+      </c>
+      <c r="C1902" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1902" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1902" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1903" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1903" s="1" t="n">
+        <v>139955</v>
+      </c>
+      <c r="C1903" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1903" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1903" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1904" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1904" s="1" t="n">
+        <v>170829</v>
+      </c>
+      <c r="C1904" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1904" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1904" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1905" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1905" s="1" t="n">
+        <v>172872</v>
+      </c>
+      <c r="C1905" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1905" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1905" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1906" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1906" s="6" t="n">
+        <v>121063</v>
+      </c>
+      <c r="C1906" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1906" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1906" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1907" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1907" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C1907" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1907" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1907" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1908" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1908" s="1" t="n">
+        <v>140868</v>
+      </c>
+      <c r="C1908" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1908" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1908" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1909" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1909" s="1" t="n">
+        <v>173604</v>
+      </c>
+      <c r="C1909" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1909" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1909" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1910" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1910" s="1" t="n">
+        <v>173588</v>
+      </c>
+      <c r="C1910" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1910" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1910" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1911" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1911" s="1" t="n">
+        <v>173583</v>
+      </c>
+      <c r="C1911" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1911" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1911" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1912" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1912" s="1" t="n">
+        <v>173566</v>
+      </c>
+      <c r="C1912" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1912" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1912" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1913" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1913" s="1" t="n">
+        <v>173565</v>
+      </c>
+      <c r="C1913" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1913" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1913" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1914" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1914" s="1" t="n">
+        <v>173553</v>
+      </c>
+      <c r="C1914" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1914" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1914" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1915" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1915" s="1" t="n">
+        <v>173454</v>
+      </c>
+      <c r="C1915" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1915" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1915" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1916" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1916" s="1" t="n">
+        <v>173396</v>
+      </c>
+      <c r="C1916" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1916" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1916" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1917" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1917" s="1" t="n">
+        <v>173293</v>
+      </c>
+      <c r="C1917" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1917" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1917" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1918" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1918" s="1" t="n">
+        <v>173191</v>
+      </c>
+      <c r="C1918" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1918" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1918" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1919" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1919" s="1" t="n">
+        <v>173169</v>
+      </c>
+      <c r="C1919" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1919" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1919" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1920" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1920" s="1" t="n">
+        <v>172993</v>
+      </c>
+      <c r="C1920" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1920" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1920" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1921" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1921" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C1921" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1921" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1921" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1922" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1922" s="1" t="n">
+        <v>90704</v>
+      </c>
+      <c r="C1922" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1922" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1922" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1923" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1923" s="1" t="n">
+        <v>90822</v>
+      </c>
+      <c r="C1923" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1923" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1923" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1924" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1924" s="1" t="n">
+        <v>91019</v>
+      </c>
+      <c r="C1924" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1924" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1924" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1925" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1925" s="1" t="n">
+        <v>91617</v>
+      </c>
+      <c r="C1925" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1925" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1925" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1926" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1926" s="1" t="n">
+        <v>91997</v>
+      </c>
+      <c r="C1926" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1926" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1926" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1927" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1927" s="1" t="n">
+        <v>92187</v>
+      </c>
+      <c r="C1927" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1927" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1927" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1928" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1928" s="1" t="n">
+        <v>92454</v>
+      </c>
+      <c r="C1928" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1928" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1928" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1929" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1929" s="1" t="n">
+        <v>92603</v>
+      </c>
+      <c r="C1929" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1929" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1929" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1930" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1930" s="1" t="n">
+        <v>92637</v>
+      </c>
+      <c r="C1930" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1930" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1930" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1931" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1931" s="1" t="n">
+        <v>92641</v>
+      </c>
+      <c r="C1931" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1931" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1931" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1932" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1932" s="1" t="n">
+        <v>92710</v>
+      </c>
+      <c r="C1932" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1932" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1932" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1933" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1933" s="1" t="n">
+        <v>93341</v>
+      </c>
+      <c r="C1933" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1933" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1933" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1934" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1934" s="1" t="n">
+        <v>93472</v>
+      </c>
+      <c r="C1934" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1934" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1934" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1935" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1935" s="1" t="n">
+        <v>93632</v>
+      </c>
+      <c r="C1935" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1935" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1935" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1936" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1936" s="1" t="n">
+        <v>94004</v>
+      </c>
+      <c r="C1936" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1936" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1936" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1937" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1937" s="1" t="n">
+        <v>94456</v>
+      </c>
+      <c r="C1937" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1937" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1937" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1938" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1938" s="1" t="n">
+        <v>94508</v>
+      </c>
+      <c r="C1938" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1938" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1938" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1939" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1939" s="1" t="n">
+        <v>94597</v>
+      </c>
+      <c r="C1939" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1939" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1939" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1940" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1940" s="1" t="n">
+        <v>94776</v>
+      </c>
+      <c r="C1940" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1940" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1940" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1941" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1941" s="1" t="n">
+        <v>94779</v>
+      </c>
+      <c r="C1941" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1941" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1941" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1942" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1942" s="1" t="n">
+        <v>94911</v>
+      </c>
+      <c r="C1942" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1942" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1942" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1943" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1943" s="1" t="n">
+        <v>94944</v>
+      </c>
+      <c r="C1943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1943" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1943" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1944" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1944" s="1" t="n">
+        <v>95148</v>
+      </c>
+      <c r="C1944" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1944" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1944" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1945" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1945" s="1" t="n">
+        <v>95240</v>
+      </c>
+      <c r="C1945" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1945" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1945" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1946" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1946" s="1" t="n">
+        <v>95277</v>
+      </c>
+      <c r="C1946" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1946" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1946" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1947" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1947" s="1" t="n">
+        <v>95364</v>
+      </c>
+      <c r="C1947" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1947" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1947" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1948" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1948" s="1" t="n">
+        <v>95420</v>
+      </c>
+      <c r="C1948" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1948" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1948" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1949" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1949" s="1" t="n">
+        <v>95483</v>
+      </c>
+      <c r="C1949" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1949" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1949" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1950" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1950" s="1" t="n">
+        <v>95502</v>
+      </c>
+      <c r="C1950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1950" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1950" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1951" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1951" s="1" t="n">
+        <v>95697</v>
+      </c>
+      <c r="C1951" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1951" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1951" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1952" s="4"/>
+    </row>
+    <row r="1953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1953" s="4"/>
+    </row>
+    <row r="1954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1954" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -32595,25 +33663,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A1952:E1954 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -32624,7 +33692,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -32635,7 +33703,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -32646,7 +33714,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -32657,7 +33725,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -32668,7 +33736,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -32679,32 +33747,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7820" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8304" uniqueCount="111">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -290,6 +290,27 @@
     <t xml:space="preserve">bump</t>
   </si>
   <si>
+    <t xml:space="preserve">27.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magicoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweepstakes</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -407,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,10 +453,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1954"/>
+  <dimension ref="A1:G2072"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1922" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1952" activeCellId="0" sqref="A1952:E1954"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1994" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2072" activeCellId="0" sqref="B2072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32857,7 +32874,7 @@
       <c r="A1906" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1906" s="6" t="n">
+      <c r="B1906" s="1" t="n">
         <v>121063</v>
       </c>
       <c r="C1906" s="1" t="s">
@@ -33636,13 +33653,2061 @@
       </c>
     </row>
     <row r="1952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1952" s="4"/>
+      <c r="A1952" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1952" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C1952" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1952" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1952" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1953" s="4"/>
+      <c r="A1953" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1953" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C1953" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1953" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1953" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1954" s="4"/>
+      <c r="A1954" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1954" s="1" t="n">
+        <v>20388</v>
+      </c>
+      <c r="C1954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1954" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1954" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1955" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1955" s="1" t="n">
+        <v>80607</v>
+      </c>
+      <c r="C1955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1955" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1955" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1956" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1956" s="1" t="n">
+        <v>173191</v>
+      </c>
+      <c r="C1956" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1956" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1956" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1957" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1957" s="1" t="n">
+        <v>149436</v>
+      </c>
+      <c r="C1957" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1957" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1957" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1958" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1958" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C1958" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1958" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1958" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1959" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1959" s="1" t="n">
+        <v>172608</v>
+      </c>
+      <c r="C1959" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1959" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1959" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1960" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1960" s="1" t="n">
+        <v>126556</v>
+      </c>
+      <c r="C1960" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1960" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1960" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1961" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1961" s="1" t="n">
+        <v>172842</v>
+      </c>
+      <c r="C1961" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1961" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1961" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1962" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1962" s="1" t="n">
+        <v>173675</v>
+      </c>
+      <c r="C1962" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1962" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1962" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1963" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1963" s="1" t="n">
+        <v>173535</v>
+      </c>
+      <c r="C1963" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1963" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1963" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1964" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1964" s="1" t="n">
+        <v>173618</v>
+      </c>
+      <c r="C1964" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1964" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1964" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1965" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1965" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C1965" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1965" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1965" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1966" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1966" s="1" t="n">
+        <v>167703</v>
+      </c>
+      <c r="C1966" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1966" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1966" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1967" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1967" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1967" s="1" t="n">
+        <v>37079</v>
+      </c>
+      <c r="C1967" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1967" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1967" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1968" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1968" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C1968" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1968" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1968" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1969" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1969" s="1" t="n">
+        <v>173396</v>
+      </c>
+      <c r="C1969" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1969" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1969" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1970" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1970" s="1" t="n">
+        <v>173695</v>
+      </c>
+      <c r="C1970" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1970" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1970" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1971" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1971" s="1" t="n">
+        <v>173604</v>
+      </c>
+      <c r="C1971" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1971" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1971" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1972" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1972" s="1" t="n">
+        <v>159056</v>
+      </c>
+      <c r="C1972" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1972" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1972" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1973" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1973" s="1" t="n">
+        <v>173169</v>
+      </c>
+      <c r="C1973" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1973" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1973" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1974" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1974" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C1974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1974" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1974" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1975" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1975" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C1975" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1975" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1975" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1976" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1976" s="1" t="n">
+        <v>173191</v>
+      </c>
+      <c r="C1976" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1976" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1976" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1977" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1977" s="1" t="n">
+        <v>173454</v>
+      </c>
+      <c r="C1977" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1977" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1977" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1978" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1978" s="1" t="n">
+        <v>173454</v>
+      </c>
+      <c r="C1978" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1978" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1978" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1979" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1979" s="1" t="n">
+        <v>159299</v>
+      </c>
+      <c r="C1979" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1979" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1979" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1980" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1980" s="1" t="n">
+        <v>173710</v>
+      </c>
+      <c r="C1980" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1980" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1980" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1981" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1981" s="1" t="n">
+        <v>173695</v>
+      </c>
+      <c r="C1981" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1981" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1981" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1982" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1982" s="1" t="n">
+        <v>124755</v>
+      </c>
+      <c r="C1982" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1982" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1982" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1983" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1983" s="1" t="n">
+        <v>124773</v>
+      </c>
+      <c r="C1983" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1983" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1983" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1984" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1984" s="1" t="n">
+        <v>124780</v>
+      </c>
+      <c r="C1984" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1984" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1984" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1985" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1985" s="1" t="n">
+        <v>124870</v>
+      </c>
+      <c r="C1985" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1985" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1985" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1986" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1986" s="1" t="n">
+        <v>124889</v>
+      </c>
+      <c r="C1986" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1986" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1986" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1987" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1987" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C1987" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1987" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1987" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1988" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1988" s="1" t="n">
+        <v>124904</v>
+      </c>
+      <c r="C1988" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1988" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1988" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1989" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1989" s="1" t="n">
+        <v>124919</v>
+      </c>
+      <c r="C1989" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1989" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1989" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1990" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1990" s="1" t="n">
+        <v>125070</v>
+      </c>
+      <c r="C1990" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1990" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1990" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1991" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1991" s="1" t="n">
+        <v>125159</v>
+      </c>
+      <c r="C1991" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1991" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1991" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1992" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1992" s="1" t="n">
+        <v>125225</v>
+      </c>
+      <c r="C1992" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1992" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1992" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1993" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1993" s="1" t="n">
+        <v>125236</v>
+      </c>
+      <c r="C1993" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1993" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1993" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1994" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1994" s="1" t="n">
+        <v>125248</v>
+      </c>
+      <c r="C1994" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1994" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1994" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1995" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1995" s="1" t="n">
+        <v>125289</v>
+      </c>
+      <c r="C1995" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1995" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1995" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1996" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1996" s="1" t="n">
+        <v>125292</v>
+      </c>
+      <c r="C1996" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1996" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1996" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1997" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1997" s="1" t="n">
+        <v>125304</v>
+      </c>
+      <c r="C1997" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1997" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1997" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1998" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1998" s="1" t="n">
+        <v>125342</v>
+      </c>
+      <c r="C1998" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1998" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1998" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1999" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1999" s="1" t="n">
+        <v>125357</v>
+      </c>
+      <c r="C1999" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1999" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1999" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2000" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2000" s="1" t="n">
+        <v>173733</v>
+      </c>
+      <c r="C2000" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2000" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2000" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2001" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2001" s="1" t="n">
+        <v>125361</v>
+      </c>
+      <c r="C2001" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2001" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2001" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2002" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2002" s="1" t="n">
+        <v>125362</v>
+      </c>
+      <c r="C2002" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2002" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2002" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2003" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2003" s="1" t="n">
+        <v>125365</v>
+      </c>
+      <c r="C2003" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2003" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2003" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2004" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2004" s="1" t="n">
+        <v>125374</v>
+      </c>
+      <c r="C2004" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2004" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2004" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2005" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2005" s="1" t="n">
+        <v>125387</v>
+      </c>
+      <c r="C2005" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2005" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2005" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2006" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2006" s="1" t="n">
+        <v>125414</v>
+      </c>
+      <c r="C2006" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2006" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2006" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2007" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2007" s="1" t="n">
+        <v>121702</v>
+      </c>
+      <c r="C2007" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2007" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2007" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2008" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2008" s="1" t="n">
+        <v>121739</v>
+      </c>
+      <c r="C2008" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2008" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2008" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2009" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2009" s="1" t="n">
+        <v>121776</v>
+      </c>
+      <c r="C2009" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2009" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2009" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2010" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2010" s="1" t="n">
+        <v>121814</v>
+      </c>
+      <c r="C2010" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2010" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2010" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2011" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2011" s="1" t="n">
+        <v>121830</v>
+      </c>
+      <c r="C2011" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2011" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2011" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2012" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2012" s="1" t="n">
+        <v>53294</v>
+      </c>
+      <c r="C2012" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2012" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2012" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2013" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2013" s="1" t="n">
+        <v>20388</v>
+      </c>
+      <c r="C2013" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2013" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2013" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2014" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2014" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2014" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2014" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2014" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2015" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2015" s="1" t="n">
+        <v>86852</v>
+      </c>
+      <c r="C2015" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2015" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2015" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2016" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2016" s="1" t="n">
+        <v>170190</v>
+      </c>
+      <c r="C2016" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2016" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2016" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2017" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2017" s="1" t="n">
+        <v>173140</v>
+      </c>
+      <c r="C2017" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2017" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2017" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2018" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2018" s="1" t="n">
+        <v>173699</v>
+      </c>
+      <c r="C2018" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2018" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2018" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2019" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2019" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C2019" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2019" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2019" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2020" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2020" s="1" t="n">
+        <v>173695</v>
+      </c>
+      <c r="C2020" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2020" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2020" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2021" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2021" s="1" t="n">
+        <v>173675</v>
+      </c>
+      <c r="C2021" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2021" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2021" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2022" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2022" s="1" t="n">
+        <v>173799</v>
+      </c>
+      <c r="C2022" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2022" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2022" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2023" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2023" s="1" t="n">
+        <v>171684</v>
+      </c>
+      <c r="C2023" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2023" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2023" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2024" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2024" s="1" t="n">
+        <v>173695</v>
+      </c>
+      <c r="C2024" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2024" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2024" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2025" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2025" s="1" t="n">
+        <v>173804</v>
+      </c>
+      <c r="C2025" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2025" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2025" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2026" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2026" s="1" t="n">
+        <v>52680</v>
+      </c>
+      <c r="C2026" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2026" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2026" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2027" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2027" s="1" t="n">
+        <v>139955</v>
+      </c>
+      <c r="C2027" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2027" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2027" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2028" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2028" s="1" t="n">
+        <v>173630</v>
+      </c>
+      <c r="C2028" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2028" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2028" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2029" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2029" s="1" t="n">
+        <v>172993</v>
+      </c>
+      <c r="C2029" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2029" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2029" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2030" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2030" s="1" t="n">
+        <v>91172</v>
+      </c>
+      <c r="C2030" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2030" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2030" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2031" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2031" s="1" t="n">
+        <v>173191</v>
+      </c>
+      <c r="C2031" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2031" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2031" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2032" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2032" s="1" t="n">
+        <v>29895</v>
+      </c>
+      <c r="C2032" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2032" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2032" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2033" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2033" s="1" t="n">
+        <v>43874</v>
+      </c>
+      <c r="C2033" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2033" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2033" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2034" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2034" s="1" t="n">
+        <v>173814</v>
+      </c>
+      <c r="C2034" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2034" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2034" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2035" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2035" s="1" t="n">
+        <v>173813</v>
+      </c>
+      <c r="C2035" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2035" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2035" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2036" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2036" s="1" t="n">
+        <v>173811</v>
+      </c>
+      <c r="C2036" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2036" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2036" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2037" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2037" s="1" t="n">
+        <v>173809</v>
+      </c>
+      <c r="C2037" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2037" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2037" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2038" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2038" s="1" t="n">
+        <v>173604</v>
+      </c>
+      <c r="C2038" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2038" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2038" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2039" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2039" s="1" t="n">
+        <v>173806</v>
+      </c>
+      <c r="C2039" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2039" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2039" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2040" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2040" s="1" t="n">
+        <v>173800</v>
+      </c>
+      <c r="C2040" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2040" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2040" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2041" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2041" s="1" t="n">
+        <v>173743</v>
+      </c>
+      <c r="C2041" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2041" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2041" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2042" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2042" s="1" t="n">
+        <v>173742</v>
+      </c>
+      <c r="C2042" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2042" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2042" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2043" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2043" s="1" t="n">
+        <v>173809</v>
+      </c>
+      <c r="C2043" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2043" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2043" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2044" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2044" s="1" t="n">
+        <v>130470</v>
+      </c>
+      <c r="C2044" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2044" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2044" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2045" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2045" s="1" t="n">
+        <v>130494</v>
+      </c>
+      <c r="C2045" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2045" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2045" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2046" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2046" s="1" t="n">
+        <v>130529</v>
+      </c>
+      <c r="C2046" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2046" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2046" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2047" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2047" s="1" t="n">
+        <v>98395</v>
+      </c>
+      <c r="C2047" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2047" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2047" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2048" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2048" s="1" t="n">
+        <v>98981</v>
+      </c>
+      <c r="C2048" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2048" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2048" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2049" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2049" s="1" t="n">
+        <v>99524</v>
+      </c>
+      <c r="C2049" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2049" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2049" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2050" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2050" s="1" t="n">
+        <v>99699</v>
+      </c>
+      <c r="C2050" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2050" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2050" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2051" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2051" s="1" t="n">
+        <v>100116</v>
+      </c>
+      <c r="C2051" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2051" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2051" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2052" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2052" s="1" t="n">
+        <v>100266</v>
+      </c>
+      <c r="C2052" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2052" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2052" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2053" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2053" s="1" t="n">
+        <v>100658</v>
+      </c>
+      <c r="C2053" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2053" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2053" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2054" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2054" s="1" t="n">
+        <v>101064</v>
+      </c>
+      <c r="C2054" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2054" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2054" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2055" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2055" s="1" t="n">
+        <v>101528</v>
+      </c>
+      <c r="C2055" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2055" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2055" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2056" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2056" s="1" t="n">
+        <v>101537</v>
+      </c>
+      <c r="C2056" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2056" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2056" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2057" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2057" s="1" t="n">
+        <v>102557</v>
+      </c>
+      <c r="C2057" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2057" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2057" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2058" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2058" s="1" t="n">
+        <v>102584</v>
+      </c>
+      <c r="C2058" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2058" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2058" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2059" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2059" s="1" t="n">
+        <v>102837</v>
+      </c>
+      <c r="C2059" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2059" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2059" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2060" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2060" s="1" t="n">
+        <v>102948</v>
+      </c>
+      <c r="C2060" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2060" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2060" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2061" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2061" s="1" t="n">
+        <v>103030</v>
+      </c>
+      <c r="C2061" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2061" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2061" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2062" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2062" s="1" t="n">
+        <v>103338</v>
+      </c>
+      <c r="C2062" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2062" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2062" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2063" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2063" s="1" t="n">
+        <v>103867</v>
+      </c>
+      <c r="C2063" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2063" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2063" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2064" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2064" s="1" t="n">
+        <v>103941</v>
+      </c>
+      <c r="C2064" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2064" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2064" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2065" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2065" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2065" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2065" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2065" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2066" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2066" s="1" t="n">
+        <v>104333</v>
+      </c>
+      <c r="C2066" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2066" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2066" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2067" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2067" s="1" t="n">
+        <v>104408</v>
+      </c>
+      <c r="C2067" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2067" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2067" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2068" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2068" s="1" t="n">
+        <v>104445</v>
+      </c>
+      <c r="C2068" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2068" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2068" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2069" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2069" s="1" t="n">
+        <v>104735</v>
+      </c>
+      <c r="C2069" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2069" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2069" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2070" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2070" s="1" t="n">
+        <v>105083</v>
+      </c>
+      <c r="C2070" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2070" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2070" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2071" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2071" s="1" t="n">
+        <v>105288</v>
+      </c>
+      <c r="C2071" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2071" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2071" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2072" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2072" s="1" t="n">
+        <v>105457</v>
+      </c>
+      <c r="C2072" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2072" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2072" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -33663,25 +35728,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A1952:E1954 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -33692,7 +35757,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -33703,7 +35768,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -33714,7 +35779,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -33725,7 +35790,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -33736,7 +35801,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -33747,32 +35812,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8560" uniqueCount="114">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -311,6 +311,15 @@
     <t xml:space="preserve">sweepstakes</t>
   </si>
   <si>
+    <t xml:space="preserve">29.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teamX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaconia</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,6 +462,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2072"/>
+  <dimension ref="A1:G2136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1994" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2072" activeCellId="0" sqref="B2072"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2136" activeCellId="0" sqref="B2136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35706,6 +35719,1094 @@
         <v>7</v>
       </c>
       <c r="E2072" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2073" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2073" s="1" t="n">
+        <v>80607</v>
+      </c>
+      <c r="C2073" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2073" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2073" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2074" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2074" s="1" t="n">
+        <v>159299</v>
+      </c>
+      <c r="C2074" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2074" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2074" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2075" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2075" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2075" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2075" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2075" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2076" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2076" s="1" t="n">
+        <v>69761</v>
+      </c>
+      <c r="C2076" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2076" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2076" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2077" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2077" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C2077" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2077" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2077" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2078" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2078" s="1" t="n">
+        <v>173809</v>
+      </c>
+      <c r="C2078" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2078" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2078" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2079" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2079" s="1" t="n">
+        <v>158743</v>
+      </c>
+      <c r="C2079" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2079" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2079" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2080" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2080" s="1" t="n">
+        <v>156628</v>
+      </c>
+      <c r="C2080" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2080" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2080" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2081" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2081" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2081" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2081" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2081" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2082" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2082" s="1" t="n">
+        <v>163223</v>
+      </c>
+      <c r="C2082" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2082" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2082" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2083" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2083" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C2083" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2083" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2083" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2084" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2084" s="1" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C2084" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2084" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2084" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2085" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2085" s="1" t="n">
+        <v>173746</v>
+      </c>
+      <c r="C2085" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2085" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2085" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2086" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2086" s="1" t="n">
+        <v>173834</v>
+      </c>
+      <c r="C2086" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2086" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2086" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2087" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2087" s="1" t="n">
+        <v>51482</v>
+      </c>
+      <c r="C2087" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2087" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2087" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2088" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2088" s="1" t="n">
+        <v>173834</v>
+      </c>
+      <c r="C2088" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2088" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2088" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2089" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2089" s="1" t="n">
+        <v>173799</v>
+      </c>
+      <c r="C2089" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2089" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2089" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2090" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2090" s="1" t="n">
+        <v>173802</v>
+      </c>
+      <c r="C2090" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2090" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2090" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2091" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2091" s="1" t="n">
+        <v>173801</v>
+      </c>
+      <c r="C2091" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2091" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2091" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2092" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2092" s="1" t="n">
+        <v>22126</v>
+      </c>
+      <c r="C2092" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2092" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2092" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2093" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2093" s="1" t="n">
+        <v>173744</v>
+      </c>
+      <c r="C2093" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2093" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2093" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2094" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2094" s="1" t="n">
+        <v>117771</v>
+      </c>
+      <c r="C2094" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2094" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2094" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2095" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2095" s="1" t="n">
+        <v>86852</v>
+      </c>
+      <c r="C2095" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2095" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2095" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2096" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2096" s="1" t="n">
+        <v>173743</v>
+      </c>
+      <c r="C2096" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2096" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2096" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2097" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2097" s="1" t="n">
+        <v>99524</v>
+      </c>
+      <c r="C2097" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2097" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2097" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2098" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2098" s="1" t="n">
+        <v>173811</v>
+      </c>
+      <c r="C2098" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2098" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2098" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2099" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2099" s="1" t="n">
+        <v>173800</v>
+      </c>
+      <c r="C2099" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2099" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2099" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2100" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2100" s="1" t="n">
+        <v>126824</v>
+      </c>
+      <c r="C2100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2101" s="1" t="n">
+        <v>173855</v>
+      </c>
+      <c r="C2101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2102" s="1" t="n">
+        <v>173828</v>
+      </c>
+      <c r="C2102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2103" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2103" s="1" t="n">
+        <v>173826</v>
+      </c>
+      <c r="C2103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2104" s="1" t="n">
+        <v>173821</v>
+      </c>
+      <c r="C2104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2105" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2105" s="1" t="n">
+        <v>173620</v>
+      </c>
+      <c r="C2105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2105" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2106" s="1" t="n">
+        <v>95056</v>
+      </c>
+      <c r="C2106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2107" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2107" s="1" t="n">
+        <v>95506</v>
+      </c>
+      <c r="C2107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2107" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2108" s="6" t="n">
+        <v>97624</v>
+      </c>
+      <c r="C2108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2109" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2109" s="1" t="n">
+        <v>98783</v>
+      </c>
+      <c r="C2109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2110" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2110" s="1" t="n">
+        <v>99591</v>
+      </c>
+      <c r="C2110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2111" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2111" s="1" t="n">
+        <v>99637</v>
+      </c>
+      <c r="C2111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2112" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2112" s="1" t="n">
+        <v>100095</v>
+      </c>
+      <c r="C2112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2112" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2113" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2113" s="1" t="n">
+        <v>102645</v>
+      </c>
+      <c r="C2113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2114" s="1" t="n">
+        <v>104978</v>
+      </c>
+      <c r="C2114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2115" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2115" s="1" t="n">
+        <v>127340</v>
+      </c>
+      <c r="C2115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2116" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2116" s="1" t="n">
+        <v>109004</v>
+      </c>
+      <c r="C2116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2116" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2117" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2117" s="1" t="n">
+        <v>110607</v>
+      </c>
+      <c r="C2117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2118" s="1" t="n">
+        <v>113336</v>
+      </c>
+      <c r="C2118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2118" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2119" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2119" s="1" t="n">
+        <v>114359</v>
+      </c>
+      <c r="C2119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2119" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2120" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2120" s="1" t="n">
+        <v>115621</v>
+      </c>
+      <c r="C2120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2120" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2121" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2121" s="1" t="n">
+        <v>118415</v>
+      </c>
+      <c r="C2121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2121" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2122" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2122" s="1" t="n">
+        <v>124419</v>
+      </c>
+      <c r="C2122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2122" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2123" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2123" s="1" t="n">
+        <v>125721</v>
+      </c>
+      <c r="C2123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2123" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2124" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2124" s="1" t="n">
+        <v>126138</v>
+      </c>
+      <c r="C2124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2124" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2125" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2125" s="1" t="n">
+        <v>126709</v>
+      </c>
+      <c r="C2125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2125" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2126" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2126" s="1" t="n">
+        <v>128042</v>
+      </c>
+      <c r="C2126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2126" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2127" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2127" s="1" t="n">
+        <v>173872</v>
+      </c>
+      <c r="C2127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2127" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2128" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2128" s="1" t="n">
+        <v>173870</v>
+      </c>
+      <c r="C2128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2129" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2129" s="1" t="n">
+        <v>173868</v>
+      </c>
+      <c r="C2129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2130" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2130" s="1" t="n">
+        <v>124195</v>
+      </c>
+      <c r="C2130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2130" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2131" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2131" s="1" t="n">
+        <v>105999</v>
+      </c>
+      <c r="C2131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2131" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2132" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2132" s="1" t="n">
+        <v>106076</v>
+      </c>
+      <c r="C2132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2132" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2133" s="1" t="n">
+        <v>106077</v>
+      </c>
+      <c r="C2133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2133" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2134" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2134" s="1" t="n">
+        <v>106117</v>
+      </c>
+      <c r="C2134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2134" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2135" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2135" s="1" t="n">
+        <v>106119</v>
+      </c>
+      <c r="C2135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2135" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2136" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2136" s="1" t="n">
+        <v>106320</v>
+      </c>
+      <c r="C2136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2136" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -35735,18 +36836,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -35757,7 +36858,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -35768,7 +36869,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -35779,7 +36880,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -35790,7 +36891,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -35801,7 +36902,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -35812,32 +36913,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8560" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8776" uniqueCount="118">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -320,6 +320,18 @@
     <t xml:space="preserve">Yaconia</t>
   </si>
   <si>
+    <t xml:space="preserve">30.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propeller ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omni chat start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xtrazex - NL, BE</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -437,7 +449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,10 +474,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2136"/>
+  <dimension ref="A1:G2200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2136" activeCellId="0" sqref="B2136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2191" activeCellId="0" sqref="A2191:C2200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36263,7 +36271,7 @@
         <v>7</v>
       </c>
       <c r="E2104" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36321,7 +36329,7 @@
       <c r="A2108" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B2108" s="6" t="n">
+      <c r="B2108" s="1" t="n">
         <v>97624</v>
       </c>
       <c r="C2108" s="1" t="s">
@@ -36809,6 +36817,954 @@
       <c r="E2136" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2137" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2137" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C2137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2138" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2138" s="1" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C2138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2139" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2139" s="1" t="n">
+        <v>159299</v>
+      </c>
+      <c r="C2139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2140" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2140" s="1" t="n">
+        <v>173743</v>
+      </c>
+      <c r="C2140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2141" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2141" s="1" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C2141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2142" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2142" s="1" t="n">
+        <v>173885</v>
+      </c>
+      <c r="C2142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2142" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2143" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2143" s="1" t="n">
+        <v>173803</v>
+      </c>
+      <c r="C2143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2143" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2144" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2144" s="1" t="n">
+        <v>57396</v>
+      </c>
+      <c r="C2144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2145" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2145" s="1" t="n">
+        <v>70299</v>
+      </c>
+      <c r="C2145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2145" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2146" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2146" s="1" t="n">
+        <v>173772</v>
+      </c>
+      <c r="C2146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2146" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2147" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2147" s="1" t="n">
+        <v>173732</v>
+      </c>
+      <c r="C2147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2147" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2148" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2148" s="1" t="n">
+        <v>172600</v>
+      </c>
+      <c r="C2148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2149" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2149" s="1" t="n">
+        <v>172507</v>
+      </c>
+      <c r="C2149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2149" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2150" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2150" s="1" t="n">
+        <v>172512</v>
+      </c>
+      <c r="C2150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2151" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2151" s="1" t="n">
+        <v>172472</v>
+      </c>
+      <c r="C2151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2151" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2152" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2152" s="1" t="n">
+        <v>172442</v>
+      </c>
+      <c r="C2152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2153" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2153" s="1" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C2153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2154" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2154" s="1" t="n">
+        <v>153358</v>
+      </c>
+      <c r="C2154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2154" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2155" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2155" s="1" t="n">
+        <v>97097</v>
+      </c>
+      <c r="C2155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2155" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2156" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2156" s="1" t="n">
+        <v>171985</v>
+      </c>
+      <c r="C2156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2156" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2157" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2157" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2158" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2158" s="1" t="n">
+        <v>173821</v>
+      </c>
+      <c r="C2158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2158" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2159" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2159" s="1" t="n">
+        <v>173828</v>
+      </c>
+      <c r="C2159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2159" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2160" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2160" s="1" t="n">
+        <v>173675</v>
+      </c>
+      <c r="C2160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2161" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2161" s="1" t="n">
+        <v>173803</v>
+      </c>
+      <c r="C2161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2162" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2162" s="1" t="n">
+        <v>171909</v>
+      </c>
+      <c r="C2162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2162" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2163" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2163" s="1" t="n">
+        <v>172120</v>
+      </c>
+      <c r="C2163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2163" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2164" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2164" s="1" t="n">
+        <v>134771</v>
+      </c>
+      <c r="C2164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2164" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2164" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2165" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2165" s="1" t="n">
+        <v>172107</v>
+      </c>
+      <c r="C2165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2165" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2165" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2166" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2166" s="1" t="n">
+        <v>172031</v>
+      </c>
+      <c r="C2166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2166" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2166" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2167" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2167" s="1" t="n">
+        <v>172033</v>
+      </c>
+      <c r="C2167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2167" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2167" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2168" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2168" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2168" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2169" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2169" s="1" t="n">
+        <v>117056</v>
+      </c>
+      <c r="C2169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2169" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2170" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2170" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2170" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2170" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2171" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2171" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2171" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2172" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2172" s="1" t="n">
+        <v>172368</v>
+      </c>
+      <c r="C2172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2172" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2173" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2173" s="1" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C2173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2173" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2174" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2174" s="1" t="n">
+        <v>151789</v>
+      </c>
+      <c r="C2174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2174" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2175" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2175" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C2175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2175" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2175" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2176" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2176" s="1" t="n">
+        <v>159299</v>
+      </c>
+      <c r="C2176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2176" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2176" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2177" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2177" s="1" t="n">
+        <v>158743</v>
+      </c>
+      <c r="C2177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2177" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2177" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2178" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2178" s="1" t="n">
+        <v>117056</v>
+      </c>
+      <c r="C2178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2179" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2179" s="1" t="n">
+        <v>134771</v>
+      </c>
+      <c r="C2179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2179" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2180" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2180" s="1" t="n">
+        <v>60461</v>
+      </c>
+      <c r="C2180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2180" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2181" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2181" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2181" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2182" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2182" s="1" t="n">
+        <v>173937</v>
+      </c>
+      <c r="C2182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2182" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2183" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2183" s="1" t="n">
+        <v>173915</v>
+      </c>
+      <c r="C2183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2184" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2184" s="1" t="n">
+        <v>173912</v>
+      </c>
+      <c r="C2184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2185" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2185" s="1" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C2185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2185" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2186" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2186" s="1" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C2186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2186" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2187" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2187" s="1" t="n">
+        <v>173880</v>
+      </c>
+      <c r="C2187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2188" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2188" s="1" t="n">
+        <v>173879</v>
+      </c>
+      <c r="C2188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2189" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2189" s="1" t="n">
+        <v>173878</v>
+      </c>
+      <c r="C2189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2189" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2190" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2190" s="1" t="n">
+        <v>173872</v>
+      </c>
+      <c r="C2190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2190" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2191" s="4"/>
+    </row>
+    <row r="2192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2192" s="4"/>
+    </row>
+    <row r="2193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2193" s="4"/>
+    </row>
+    <row r="2194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2194" s="4"/>
+    </row>
+    <row r="2195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2195" s="4"/>
+    </row>
+    <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2196" s="4"/>
+    </row>
+    <row r="2197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2197" s="4"/>
+    </row>
+    <row r="2198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2198" s="4"/>
+    </row>
+    <row r="2199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2199" s="4"/>
+    </row>
+    <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2200" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36829,25 +37785,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2191:C2200 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -36858,7 +37814,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -36869,7 +37825,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -36880,7 +37836,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -36891,7 +37847,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -36902,7 +37858,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -36913,32 +37869,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8776" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="120">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -332,6 +332,12 @@
     <t xml:space="preserve">Xtrazex - NL, BE</t>
   </si>
   <si>
+    <t xml:space="preserve">03.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpla 360</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -491,10 +497,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2200"/>
+  <dimension ref="A1:G2254"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2191" activeCellId="0" sqref="A2191:C2200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2207" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2231" activeCellId="0" sqref="D2231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37737,34 +37743,728 @@
       </c>
     </row>
     <row r="2191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2191" s="4"/>
+      <c r="A2191" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2191" s="1" t="n">
+        <v>80607</v>
+      </c>
+      <c r="C2191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2191" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2192" s="4"/>
+      <c r="A2192" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2192" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2192" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2193" s="4"/>
+      <c r="A2193" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2193" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2193" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2194" s="4"/>
+      <c r="A2194" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2194" s="1" t="n">
+        <v>69761</v>
+      </c>
+      <c r="C2194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2194" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2195" s="4"/>
+      <c r="A2195" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2195" s="1" t="n">
+        <v>168706</v>
+      </c>
+      <c r="C2195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2195" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2196" s="4"/>
+      <c r="A2196" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2196" s="1" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C2196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2196" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2197" s="4"/>
+      <c r="A2197" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2197" s="1" t="n">
+        <v>136514</v>
+      </c>
+      <c r="C2197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2197" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2198" s="4"/>
+      <c r="A2198" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2198" s="1" t="n">
+        <v>168410</v>
+      </c>
+      <c r="C2198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2198" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2199" s="4"/>
+      <c r="A2199" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2199" s="1" t="n">
+        <v>173814</v>
+      </c>
+      <c r="C2199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2199" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2199" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2200" s="4"/>
+      <c r="A2200" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2200" s="1" t="n">
+        <v>156628</v>
+      </c>
+      <c r="C2200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2200" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2200" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2201" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2201" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2201" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2201" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2202" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2202" s="1" t="n">
+        <v>38175</v>
+      </c>
+      <c r="C2202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2202" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2202" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2203" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2203" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2203" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2203" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2204" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2204" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2204" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2204" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2205" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2205" s="1" t="n">
+        <v>158743</v>
+      </c>
+      <c r="C2205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2205" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2205" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2206" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2206" s="1" t="n">
+        <v>171684</v>
+      </c>
+      <c r="C2206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2206" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2206" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2207" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2207" s="1" t="n">
+        <v>173878</v>
+      </c>
+      <c r="C2207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2207" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2208" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2208" s="1" t="n">
+        <v>173620</v>
+      </c>
+      <c r="C2208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2208" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2209" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2209" s="1" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C2209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2209" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2210" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2210" s="1" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C2210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2210" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2211" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2211" s="1" t="n">
+        <v>166333</v>
+      </c>
+      <c r="C2211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2211" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2212" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2212" s="1" t="n">
+        <v>173912</v>
+      </c>
+      <c r="C2212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2212" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2213" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2213" s="1" t="n">
+        <v>174130</v>
+      </c>
+      <c r="C2213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2214" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2214" s="1" t="n">
+        <v>174083</v>
+      </c>
+      <c r="C2214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2214" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2215" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2215" s="1" t="n">
+        <v>174076</v>
+      </c>
+      <c r="C2215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2216" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2216" s="1" t="n">
+        <v>174071</v>
+      </c>
+      <c r="C2216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2217" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2217" s="1" t="n">
+        <v>174052</v>
+      </c>
+      <c r="C2217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2217" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2218" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2218" s="1" t="n">
+        <v>174050</v>
+      </c>
+      <c r="C2218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2218" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2219" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2219" s="1" t="n">
+        <v>174049</v>
+      </c>
+      <c r="C2219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2220" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2220" s="1" t="n">
+        <v>174022</v>
+      </c>
+      <c r="C2220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2221" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2221" s="1" t="n">
+        <v>174020</v>
+      </c>
+      <c r="C2221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2222" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2222" s="1" t="n">
+        <v>174016</v>
+      </c>
+      <c r="C2222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2223" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2223" s="1" t="n">
+        <v>173976</v>
+      </c>
+      <c r="C2223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2223" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2224" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2224" s="1" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C2224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2224" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2225" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2225" s="1" t="n">
+        <v>60174</v>
+      </c>
+      <c r="C2225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2226" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2226" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C2226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2226" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2227" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2227" s="1" t="n">
+        <v>62956</v>
+      </c>
+      <c r="C2227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2227" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2227" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2228" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2228" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C2228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2228" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2228" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2229" s="4"/>
+    </row>
+    <row r="2230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2230" s="4"/>
+    </row>
+    <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2231" s="4"/>
+    </row>
+    <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2232" s="4"/>
+    </row>
+    <row r="2233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2233" s="4"/>
+    </row>
+    <row r="2234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2234" s="4"/>
+    </row>
+    <row r="2235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2235" s="4"/>
+    </row>
+    <row r="2236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2236" s="4"/>
+    </row>
+    <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2237" s="4"/>
+    </row>
+    <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2238" s="4"/>
+    </row>
+    <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2239" s="4"/>
+    </row>
+    <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2240" s="4"/>
+    </row>
+    <row r="2241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2241" s="4"/>
+    </row>
+    <row r="2242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2242" s="4"/>
+    </row>
+    <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2243" s="4"/>
+    </row>
+    <row r="2244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2244" s="4"/>
+    </row>
+    <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2245" s="4"/>
+    </row>
+    <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2246" s="4"/>
+    </row>
+    <row r="2247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2247" s="4"/>
+    </row>
+    <row r="2248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2248" s="4"/>
+    </row>
+    <row r="2249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2249" s="4"/>
+    </row>
+    <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2250" s="4"/>
+    </row>
+    <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2251" s="4"/>
+    </row>
+    <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2252" s="4"/>
+    </row>
+    <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2253" s="4"/>
+    </row>
+    <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2254" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -37785,25 +38485,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2191:C2200 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -37814,7 +38514,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -37825,7 +38525,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -37836,7 +38536,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -37847,7 +38547,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -37858,7 +38558,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -37869,32 +38569,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -332,7 +332,7 @@
     <t xml:space="preserve">Xtrazex - NL, BE</t>
   </si>
   <si>
-    <t xml:space="preserve">03.06.2023</t>
+    <t xml:space="preserve">03.07.2023</t>
   </si>
   <si>
     <t xml:space="preserve">Simpla 360</t>
@@ -499,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:G2254"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2207" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2231" activeCellId="0" sqref="D2231"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2203" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2191" activeCellId="0" sqref="A2191:A2228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38485,7 +38485,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2191:A2228 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9168" uniqueCount="121">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -338,6 +338,9 @@
     <t xml:space="preserve">Simpla 360</t>
   </si>
   <si>
+    <t xml:space="preserve">04.07.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -497,10 +500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2254"/>
+  <dimension ref="A1:G2288"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2203" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2191" activeCellId="0" sqref="A2191:A2228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2289" activeCellId="0" sqref="B2289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38389,82 +38392,1024 @@
       </c>
     </row>
     <row r="2229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2229" s="4"/>
+      <c r="A2229" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2229" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2229" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2229" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2230" s="4"/>
+      <c r="A2230" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2230" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2230" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2230" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2231" s="4"/>
+      <c r="A2231" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2231" s="1" t="n">
+        <v>116323</v>
+      </c>
+      <c r="C2231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2231" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2232" s="4"/>
+      <c r="A2232" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2232" s="1" t="n">
+        <v>125490</v>
+      </c>
+      <c r="C2232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2232" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2233" s="4"/>
+      <c r="A2233" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2233" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2233" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2233" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2234" s="4"/>
+      <c r="A2234" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2234" s="1" t="n">
+        <v>69761</v>
+      </c>
+      <c r="C2234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2234" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2234" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2235" s="4"/>
+      <c r="A2235" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2235" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C2235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2235" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2235" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2236" s="4"/>
+      <c r="A2236" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2236" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2236" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2236" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2237" s="4"/>
+      <c r="A2237" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2237" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C2237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2237" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2237" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2238" s="4"/>
+      <c r="A2238" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2238" s="1" t="n">
+        <v>156628</v>
+      </c>
+      <c r="C2238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2238" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2238" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2239" s="4"/>
+      <c r="A2239" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2239" s="1" t="n">
+        <v>96077</v>
+      </c>
+      <c r="C2239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2239" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2239" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2240" s="4"/>
+      <c r="A2240" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2240" s="1" t="n">
+        <v>172705</v>
+      </c>
+      <c r="C2240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2240" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2241" s="4"/>
+      <c r="A2241" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2241" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2241" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2241" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2242" s="4"/>
+      <c r="A2242" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2242" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2242" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2243" s="4"/>
+      <c r="A2243" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2243" s="1" t="n">
+        <v>174231</v>
+      </c>
+      <c r="C2243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2243" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2244" s="4"/>
+      <c r="A2244" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2244" s="1" t="n">
+        <v>174219</v>
+      </c>
+      <c r="C2244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2244" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2245" s="4"/>
+      <c r="A2245" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2245" s="1" t="n">
+        <v>174182</v>
+      </c>
+      <c r="C2245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2245" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2246" s="4"/>
+      <c r="A2246" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2246" s="1" t="n">
+        <v>174171</v>
+      </c>
+      <c r="C2246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2246" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2247" s="4"/>
+      <c r="A2247" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2247" s="1" t="n">
+        <v>174169</v>
+      </c>
+      <c r="C2247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2247" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2248" s="4"/>
+      <c r="A2248" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2248" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2248" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2249" s="4"/>
+      <c r="A2249" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2249" s="1" t="n">
+        <v>174160</v>
+      </c>
+      <c r="C2249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2249" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2250" s="4"/>
+      <c r="A2250" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2250" s="1" t="n">
+        <v>174145</v>
+      </c>
+      <c r="C2250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2250" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2251" s="4"/>
+      <c r="A2251" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2251" s="1" t="n">
+        <v>174138</v>
+      </c>
+      <c r="C2251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2251" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2252" s="4"/>
+      <c r="A2252" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2252" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2252" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2253" s="4"/>
+      <c r="A2253" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2253" s="1" t="n">
+        <v>174133</v>
+      </c>
+      <c r="C2253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2253" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2254" s="4"/>
+      <c r="A2254" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2254" s="1" t="n">
+        <v>174071</v>
+      </c>
+      <c r="C2254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2254" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2255" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2255" s="1" t="n">
+        <v>174020</v>
+      </c>
+      <c r="C2255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2255" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2256" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2256" s="1" t="n">
+        <v>174016</v>
+      </c>
+      <c r="C2256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2256" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2257" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2257" s="1" t="n">
+        <v>174219</v>
+      </c>
+      <c r="C2257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2257" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2258" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2258" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2258" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2259" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2259" s="1" t="n">
+        <v>163861</v>
+      </c>
+      <c r="C2259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2259" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2259" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2260" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2260" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C2260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2260" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2260" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2261" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2261" s="1" t="n">
+        <v>44096</v>
+      </c>
+      <c r="C2261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2261" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2261" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2262" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2262" s="1" t="n">
+        <v>105138</v>
+      </c>
+      <c r="C2262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2262" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2262" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2263" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2263" s="1" t="n">
+        <v>114986</v>
+      </c>
+      <c r="C2263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2263" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2264" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2264" s="1" t="n">
+        <v>115097</v>
+      </c>
+      <c r="C2264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2264" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2264" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2265" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2265" s="1" t="n">
+        <v>115137</v>
+      </c>
+      <c r="C2265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2265" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2265" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2266" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2266" s="1" t="n">
+        <v>115466</v>
+      </c>
+      <c r="C2266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2266" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2266" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2267" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2267" s="1" t="n">
+        <v>115627</v>
+      </c>
+      <c r="C2267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2267" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2267" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2268" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2268" s="1" t="n">
+        <v>115752</v>
+      </c>
+      <c r="C2268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2268" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2268" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2269" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2269" s="1" t="n">
+        <v>116098</v>
+      </c>
+      <c r="C2269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2269" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2269" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2270" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2270" s="1" t="n">
+        <v>116313</v>
+      </c>
+      <c r="C2270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2270" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2270" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2271" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2271" s="1" t="n">
+        <v>116330</v>
+      </c>
+      <c r="C2271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2271" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2271" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2272" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2272" s="1" t="n">
+        <v>116346</v>
+      </c>
+      <c r="C2272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2272" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2272" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2273" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2273" s="1" t="n">
+        <v>116791</v>
+      </c>
+      <c r="C2273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2273" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2273" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2274" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2274" s="1" t="n">
+        <v>116951</v>
+      </c>
+      <c r="C2274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2274" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2274" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2275" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2275" s="1" t="n">
+        <v>117027</v>
+      </c>
+      <c r="C2275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2275" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2275" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2276" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2276" s="1" t="n">
+        <v>117038</v>
+      </c>
+      <c r="C2276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2276" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2276" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2277" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2277" s="1" t="n">
+        <v>117129</v>
+      </c>
+      <c r="C2277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2277" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2277" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2278" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2278" s="1" t="n">
+        <v>117230</v>
+      </c>
+      <c r="C2278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2278" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2278" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2279" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2279" s="1" t="n">
+        <v>117313</v>
+      </c>
+      <c r="C2279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2279" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2279" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2280" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2280" s="1" t="n">
+        <v>117315</v>
+      </c>
+      <c r="C2280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2280" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2280" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2281" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2281" s="1" t="n">
+        <v>117351</v>
+      </c>
+      <c r="C2281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2281" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2281" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2282" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2282" s="1" t="n">
+        <v>117362</v>
+      </c>
+      <c r="C2282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2282" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2282" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2283" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2283" s="1" t="n">
+        <v>117522</v>
+      </c>
+      <c r="C2283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2283" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2283" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2284" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2284" s="1" t="n">
+        <v>117561</v>
+      </c>
+      <c r="C2284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2284" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2284" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2285" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2285" s="1" t="n">
+        <v>117849</v>
+      </c>
+      <c r="C2285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2285" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2285" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2286" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2286" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2286" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2287" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2287" s="1" t="n">
+        <v>174133</v>
+      </c>
+      <c r="C2287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2287" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2288" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2288" s="1" t="n">
+        <v>163665</v>
+      </c>
+      <c r="C2288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2288" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -38485,25 +39430,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2191:A2228 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -38514,7 +39459,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -38525,7 +39470,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -38536,7 +39481,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -38547,7 +39492,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -38558,7 +39503,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -38569,32 +39514,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9412" uniqueCount="125">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -341,6 +341,18 @@
     <t xml:space="preserve">04.07.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">05.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gambling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiktok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dating</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -458,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,6 +495,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2288"/>
+  <dimension ref="A1:G2349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2289" activeCellId="0" sqref="B2289"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2351" activeCellId="0" sqref="B2351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39409,6 +39425,1043 @@
       </c>
       <c r="E2288" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2289" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2289" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2289" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2289" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2290" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2290" s="1" t="n">
+        <v>54695</v>
+      </c>
+      <c r="C2290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2290" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2291" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2291" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C2291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2291" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2291" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2292" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2292" s="1" t="n">
+        <v>161182</v>
+      </c>
+      <c r="C2292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2292" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2292" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2293" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2293" s="1" t="n">
+        <v>91759</v>
+      </c>
+      <c r="C2293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2293" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2293" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2294" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2294" s="1" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C2294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2294" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2294" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2295" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2295" s="1" t="n">
+        <v>174020</v>
+      </c>
+      <c r="C2295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2295" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2295" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2296" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2296" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C2296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2296" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2296" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2297" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2297" s="1" t="n">
+        <v>125490</v>
+      </c>
+      <c r="C2297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2297" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2297" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2298" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2298" s="1" t="n">
+        <v>68330</v>
+      </c>
+      <c r="C2298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2298" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2298" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2299" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2299" s="1" t="n">
+        <v>173623</v>
+      </c>
+      <c r="C2299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2299" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2299" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2300" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2300" s="1" t="n">
+        <v>173716</v>
+      </c>
+      <c r="C2300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2300" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2301" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2301" s="1" t="n">
+        <v>172368</v>
+      </c>
+      <c r="C2301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2301" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2302" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2302" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2302" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2303" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2303" s="6" t="n">
+        <v>173883</v>
+      </c>
+      <c r="C2303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2303" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2304" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2304" s="1" t="n">
+        <v>173910</v>
+      </c>
+      <c r="C2304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2304" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2305" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2305" s="1" t="n">
+        <v>173675</v>
+      </c>
+      <c r="C2305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2305" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2305" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2306" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2306" s="1" t="n">
+        <v>173927</v>
+      </c>
+      <c r="C2306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2306" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2306" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2307" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2307" s="1" t="n">
+        <v>170337</v>
+      </c>
+      <c r="C2307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2307" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2308" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2308" s="1" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C2308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2308" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2308" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2309" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2309" s="1" t="n">
+        <v>171283</v>
+      </c>
+      <c r="C2309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2309" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2310" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2310" s="1" t="n">
+        <v>164450</v>
+      </c>
+      <c r="C2310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2310" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2310" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2311" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2311" s="1" t="n">
+        <v>112847</v>
+      </c>
+      <c r="C2311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2311" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2311" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2312" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2312" s="1" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C2312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2312" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2312" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2313" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2313" s="1" t="n">
+        <v>4259</v>
+      </c>
+      <c r="C2313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2313" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2313" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2314" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2314" s="1" t="n">
+        <v>33575</v>
+      </c>
+      <c r="C2314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2314" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2314" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2315" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2315" s="1" t="n">
+        <v>174145</v>
+      </c>
+      <c r="C2315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2315" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2316" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2316" s="1" t="n">
+        <v>163665</v>
+      </c>
+      <c r="C2316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2316" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2317" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2317" s="1" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C2317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2317" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2318" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2318" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2318" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2319" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2319" s="1" t="n">
+        <v>172856</v>
+      </c>
+      <c r="C2319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2319" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2320" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2320" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2320" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2321" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2321" s="1" t="n">
+        <v>174345</v>
+      </c>
+      <c r="C2321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2321" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2322" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2322" s="1" t="n">
+        <v>174271</v>
+      </c>
+      <c r="C2322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2322" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2323" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2323" s="1" t="n">
+        <v>174266</v>
+      </c>
+      <c r="C2323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2323" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2324" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2324" s="1" t="n">
+        <v>174259</v>
+      </c>
+      <c r="C2324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2324" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2325" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2325" s="1" t="n">
+        <v>174258</v>
+      </c>
+      <c r="C2325" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2325" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2326" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2326" s="1" t="n">
+        <v>174256</v>
+      </c>
+      <c r="C2326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2326" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2326" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2327" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2327" s="1" t="n">
+        <v>174254</v>
+      </c>
+      <c r="C2327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2327" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2328" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2328" s="1" t="n">
+        <v>174244</v>
+      </c>
+      <c r="C2328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2328" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2329" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2329" s="1" t="n">
+        <v>62580</v>
+      </c>
+      <c r="C2329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2329" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2329" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2330" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2330" s="1" t="n">
+        <v>62623</v>
+      </c>
+      <c r="C2330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2330" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2330" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2331" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2331" s="1" t="n">
+        <v>62664</v>
+      </c>
+      <c r="C2331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2331" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2331" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2332" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2332" s="1" t="n">
+        <v>63090</v>
+      </c>
+      <c r="C2332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2332" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2332" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2333" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2333" s="1" t="n">
+        <v>63400</v>
+      </c>
+      <c r="C2333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2333" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2333" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2334" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2334" s="1" t="n">
+        <v>66182</v>
+      </c>
+      <c r="C2334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2334" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2334" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2335" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2335" s="1" t="n">
+        <v>67090</v>
+      </c>
+      <c r="C2335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2335" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2335" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2336" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2336" s="1" t="n">
+        <v>67349</v>
+      </c>
+      <c r="C2336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2336" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2336" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2337" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2337" s="1" t="n">
+        <v>67777</v>
+      </c>
+      <c r="C2337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2337" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2337" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2338" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2338" s="1" t="n">
+        <v>68866</v>
+      </c>
+      <c r="C2338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2338" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2338" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2339" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2339" s="1" t="n">
+        <v>69296</v>
+      </c>
+      <c r="C2339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2339" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2339" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2340" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2340" s="1" t="n">
+        <v>69694</v>
+      </c>
+      <c r="C2340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2340" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2340" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2341" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2341" s="1" t="n">
+        <v>69722</v>
+      </c>
+      <c r="C2341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2341" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2341" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2342" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2342" s="1" t="n">
+        <v>70229</v>
+      </c>
+      <c r="C2342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2342" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2342" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2343" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2343" s="1" t="n">
+        <v>70473</v>
+      </c>
+      <c r="C2343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2343" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2343" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2344" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2344" s="1" t="n">
+        <v>70985</v>
+      </c>
+      <c r="C2344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2344" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2344" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2345" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2345" s="1" t="n">
+        <v>71667</v>
+      </c>
+      <c r="C2345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2345" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2345" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2346" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2346" s="1" t="n">
+        <v>72178</v>
+      </c>
+      <c r="C2346" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2346" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2346" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2347" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2347" s="1" t="n">
+        <v>72223</v>
+      </c>
+      <c r="C2347" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2347" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2347" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2348" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2348" s="1" t="n">
+        <v>72476</v>
+      </c>
+      <c r="C2348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2348" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2348" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2349" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2349" s="1" t="n">
+        <v>72731</v>
+      </c>
+      <c r="C2349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2349" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2349" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -39437,18 +40490,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -39459,7 +40512,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -39470,7 +40523,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -39481,7 +40534,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -39492,7 +40545,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -39503,7 +40556,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -39514,32 +40567,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9584" uniqueCount="130">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -353,6 +353,21 @@
     <t xml:space="preserve">dating</t>
   </si>
   <si>
+    <t xml:space="preserve">06.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chekbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple vision</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -470,7 +485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,10 +510,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +527,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2349"/>
+  <dimension ref="A1:G2405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2351" activeCellId="0" sqref="B2351"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2364" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2388" activeCellId="0" sqref="I2388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39669,7 +39680,7 @@
       <c r="A2303" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B2303" s="6" t="n">
+      <c r="B2303" s="5" t="n">
         <v>173883</v>
       </c>
       <c r="C2303" s="1" t="s">
@@ -40463,6 +40474,776 @@
       <c r="E2349" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2350" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2350" s="1" t="n">
+        <v>60461</v>
+      </c>
+      <c r="C2350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2350" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2350" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2351" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2351" s="1" t="n">
+        <v>171568</v>
+      </c>
+      <c r="C2351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2351" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2351" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2352" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2352" s="1" t="n">
+        <v>132591</v>
+      </c>
+      <c r="C2352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2352" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2352" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2353" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2353" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C2353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2353" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2353" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2354" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2354" s="1" t="n">
+        <v>125490</v>
+      </c>
+      <c r="C2354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2354" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2354" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2355" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2355" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C2355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2355" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2355" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2356" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2356" s="1" t="n">
+        <v>66344</v>
+      </c>
+      <c r="C2356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2356" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2356" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2357" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2357" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2357" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2357" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2358" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2358" s="1" t="n">
+        <v>167955</v>
+      </c>
+      <c r="C2358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2358" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2358" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2359" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2359" s="1" t="n">
+        <v>153272</v>
+      </c>
+      <c r="C2359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2359" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2359" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2360" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2360" s="1" t="n">
+        <v>153394</v>
+      </c>
+      <c r="C2360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2360" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2360" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2361" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2361" s="1" t="n">
+        <v>171568</v>
+      </c>
+      <c r="C2361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2361" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2361" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2362" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2362" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2362" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2362" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2363" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2363" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2363" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2363" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2364" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2364" s="1" t="n">
+        <v>142612</v>
+      </c>
+      <c r="C2364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2364" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2364" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2365" s="1" t="n">
+        <v>46587</v>
+      </c>
+      <c r="C2365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2365" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2365" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2366" s="1" t="n">
+        <v>60461</v>
+      </c>
+      <c r="C2366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2366" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2366" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2367" s="1" t="n">
+        <v>127343</v>
+      </c>
+      <c r="C2367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2367" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2367" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2368" s="1" t="n">
+        <v>174258</v>
+      </c>
+      <c r="C2368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2368" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2368" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2369" s="1" t="n">
+        <v>174338</v>
+      </c>
+      <c r="C2369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2369" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2369" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2370" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2370" s="1" t="n">
+        <v>79230</v>
+      </c>
+      <c r="C2370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2370" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2370" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2371" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2371" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2371" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2371" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2372" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2372" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C2372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2372" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2372" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2373" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2373" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C2373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2373" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2373" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2374" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2374" s="1" t="n">
+        <v>31760</v>
+      </c>
+      <c r="C2374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2374" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2374" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2375" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2375" s="1" t="n">
+        <v>173951</v>
+      </c>
+      <c r="C2375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2375" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2375" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2376" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2376" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C2376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2376" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2376" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2377" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2377" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C2377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2377" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2377" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2378" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2378" s="1" t="n">
+        <v>167955</v>
+      </c>
+      <c r="C2378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2378" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2378" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2379" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2379" s="1" t="n">
+        <v>124696</v>
+      </c>
+      <c r="C2379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2379" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2379" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2380" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2380" s="1" t="n">
+        <v>174393</v>
+      </c>
+      <c r="C2380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2380" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2380" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2381" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2381" s="1" t="n">
+        <v>174440</v>
+      </c>
+      <c r="C2381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2381" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2381" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2382" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2382" s="1" t="n">
+        <v>174440</v>
+      </c>
+      <c r="C2382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2382" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2382" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2383" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2383" s="1" t="n">
+        <v>173944</v>
+      </c>
+      <c r="C2383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2383" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2383" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2384" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2384" s="1" t="n">
+        <v>174474</v>
+      </c>
+      <c r="C2384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2384" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2384" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2385" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2385" s="1" t="n">
+        <v>174473</v>
+      </c>
+      <c r="C2385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2385" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2385" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2386" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2386" s="1" t="n">
+        <v>174471</v>
+      </c>
+      <c r="C2386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2386" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2386" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2387" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2387" s="1" t="n">
+        <v>174460</v>
+      </c>
+      <c r="C2387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2387" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2387" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2388" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2388" s="1" t="n">
+        <v>174423</v>
+      </c>
+      <c r="C2388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2388" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2388" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2389" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2389" s="1" t="n">
+        <v>174393</v>
+      </c>
+      <c r="C2389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2389" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2389" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2390" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2390" s="1" t="n">
+        <v>174383</v>
+      </c>
+      <c r="C2390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2390" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2390" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2391" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2391" s="1" t="n">
+        <v>174377</v>
+      </c>
+      <c r="C2391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2391" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2391" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2392" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2392" s="1" t="n">
+        <v>174376</v>
+      </c>
+      <c r="C2392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2392" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2392" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2393" s="4"/>
+    </row>
+    <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2394" s="4"/>
+    </row>
+    <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2395" s="4"/>
+    </row>
+    <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2396" s="4"/>
+    </row>
+    <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2397" s="4"/>
+    </row>
+    <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2398" s="4"/>
+    </row>
+    <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2399" s="4"/>
+    </row>
+    <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2400" s="4"/>
+    </row>
+    <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2401" s="4"/>
+    </row>
+    <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2402" s="4"/>
+    </row>
+    <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2403" s="4"/>
+    </row>
+    <row r="2404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2404" s="4"/>
+    </row>
+    <row r="2405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2405" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -40490,18 +41271,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -40512,7 +41293,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -40523,7 +41304,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -40534,7 +41315,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -40545,7 +41326,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -40556,7 +41337,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -40567,32 +41348,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9584" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9764" uniqueCount="137">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -368,6 +368,27 @@
     <t xml:space="preserve">apple vision</t>
   </si>
   <si>
+    <t xml:space="preserve">07.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dionica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psorilax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betting</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -485,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,6 +531,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +552,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2405"/>
+  <dimension ref="A1:G2442"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2364" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2388" activeCellId="0" sqref="I2388"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2442" activeCellId="0" sqref="E2442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41207,43 +41232,784 @@
       </c>
     </row>
     <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2393" s="4"/>
+      <c r="A2393" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2393" s="1" t="n">
+        <v>66344</v>
+      </c>
+      <c r="C2393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2393" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2393" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2394" s="4"/>
+      <c r="A2394" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2394" s="1" t="n">
+        <v>7043</v>
+      </c>
+      <c r="C2394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2394" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2394" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2395" s="4"/>
+      <c r="A2395" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2395" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C2395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2395" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2395" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2396" s="4"/>
+      <c r="A2396" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2396" s="1" t="n">
+        <v>128946</v>
+      </c>
+      <c r="C2396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2396" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2396" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2397" s="4"/>
+      <c r="A2397" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2397" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2397" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2397" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2398" s="4"/>
+      <c r="A2398" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2398" s="1" t="n">
+        <v>54695</v>
+      </c>
+      <c r="C2398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2398" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2398" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2399" s="4"/>
+      <c r="A2399" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2399" s="1" t="n">
+        <v>131953</v>
+      </c>
+      <c r="C2399" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2399" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2399" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2400" s="4"/>
+      <c r="A2400" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2400" s="1" t="n">
+        <v>86852</v>
+      </c>
+      <c r="C2400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2400" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2400" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2401" s="4"/>
+      <c r="A2401" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2401" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C2401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2401" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2401" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2402" s="4"/>
+      <c r="A2402" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2402" s="1" t="n">
+        <v>136824</v>
+      </c>
+      <c r="C2402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2402" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2402" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2403" s="4"/>
+      <c r="A2403" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2403" s="1" t="n">
+        <v>173675</v>
+      </c>
+      <c r="C2403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2403" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2403" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2404" s="4"/>
+      <c r="A2404" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2404" s="1" t="n">
+        <v>174512</v>
+      </c>
+      <c r="C2404" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2404" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2404" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2405" s="4"/>
+      <c r="A2405" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2405" s="1" t="n">
+        <v>174516</v>
+      </c>
+      <c r="C2405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2405" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2405" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2406" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2406" s="1" t="n">
+        <v>162217</v>
+      </c>
+      <c r="C2406" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2406" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2406" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2407" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2407" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2407" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2407" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2407" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2408" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2408" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2408" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2408" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2409" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2409" s="1" t="n">
+        <v>4259</v>
+      </c>
+      <c r="C2409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2409" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2409" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2410" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2410" s="1" t="n">
+        <v>174479</v>
+      </c>
+      <c r="C2410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2410" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2410" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2411" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2411" s="1" t="n">
+        <v>98513</v>
+      </c>
+      <c r="C2411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2411" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2411" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2412" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2412" s="1" t="n">
+        <v>174348</v>
+      </c>
+      <c r="C2412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2412" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2412" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2413" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2413" s="1" t="n">
+        <v>174369</v>
+      </c>
+      <c r="C2413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2413" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2413" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2414" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2414" s="1" t="n">
+        <v>174311</v>
+      </c>
+      <c r="C2414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2414" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2415" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2415" s="1" t="n">
+        <v>174205</v>
+      </c>
+      <c r="C2415" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2415" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2415" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2416" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2416" s="1" t="n">
+        <v>174228</v>
+      </c>
+      <c r="C2416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2416" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2416" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2417" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2417" s="1" t="n">
+        <v>174456</v>
+      </c>
+      <c r="C2417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2417" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2417" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2418" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2418" s="1" t="n">
+        <v>174453</v>
+      </c>
+      <c r="C2418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2418" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2419" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2419" s="1" t="n">
+        <v>174443</v>
+      </c>
+      <c r="C2419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2419" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2419" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2420" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2420" s="1" t="n">
+        <v>174439</v>
+      </c>
+      <c r="C2420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2420" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2420" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2421" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2421" s="1" t="n">
+        <v>117351</v>
+      </c>
+      <c r="C2421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2421" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2421" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2422" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2422" s="1" t="n">
+        <v>7482</v>
+      </c>
+      <c r="C2422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2422" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2422" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2423" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2423" s="1" t="n">
+        <v>131953</v>
+      </c>
+      <c r="C2423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2423" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2424" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2424" s="1" t="n">
+        <v>131953</v>
+      </c>
+      <c r="C2424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2424" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2425" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2425" s="1" t="n">
+        <v>103040</v>
+      </c>
+      <c r="C2425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2425" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2425" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2426" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2426" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2426" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2426" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2427" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2427" s="1" t="n">
+        <v>174345</v>
+      </c>
+      <c r="C2427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2427" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2427" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2428" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2428" s="1" t="n">
+        <v>174254</v>
+      </c>
+      <c r="C2428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2428" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2428" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2429" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2429" s="1" t="n">
+        <v>174393</v>
+      </c>
+      <c r="C2429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2429" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2429" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2430" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2430" s="1" t="n">
+        <v>174393</v>
+      </c>
+      <c r="C2430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2430" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2430" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2431" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2431" s="1" t="n">
+        <v>174423</v>
+      </c>
+      <c r="C2431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2431" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2431" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2432" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2432" s="1" t="n">
+        <v>174440</v>
+      </c>
+      <c r="C2432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2432" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2432" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2433" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2433" s="1" t="n">
+        <v>174377</v>
+      </c>
+      <c r="C2433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2433" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2433" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2434" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2434" s="6" t="n">
+        <v>124696</v>
+      </c>
+      <c r="C2434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2434" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2434" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2435" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2435" s="1" t="n">
+        <v>117561</v>
+      </c>
+      <c r="C2435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2435" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2435" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2436" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2436" s="1" t="n">
+        <v>174484</v>
+      </c>
+      <c r="C2436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2436" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2436" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2437" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2437" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C2437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2437" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2437" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2438" s="4"/>
+    </row>
+    <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2439" s="4"/>
+    </row>
+    <row r="2440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2440" s="4"/>
+    </row>
+    <row r="2441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2441" s="4"/>
+    </row>
+    <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2442" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -41271,18 +42037,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -41293,7 +42059,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -41304,7 +42070,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -41315,7 +42081,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -41326,7 +42092,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -41337,7 +42103,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -41348,32 +42114,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9764" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10060" uniqueCount="144">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -389,6 +389,27 @@
     <t xml:space="preserve">Betting</t>
   </si>
   <si>
+    <t xml:space="preserve">10.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leadgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPhone 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiting AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand-bidding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -506,7 +527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -531,10 +552,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2442"/>
+  <dimension ref="A1:G2517"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2442" activeCellId="0" sqref="E2442"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2500" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2519" activeCellId="0" sqref="G2519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41932,7 +41949,7 @@
       <c r="A2434" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B2434" s="6" t="n">
+      <c r="B2434" s="1" t="n">
         <v>124696</v>
       </c>
       <c r="C2434" s="1" t="s">
@@ -41997,19 +42014,1280 @@
       </c>
     </row>
     <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2438" s="4"/>
+      <c r="A2438" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2438" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2438" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2438" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2439" s="4"/>
+      <c r="A2439" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2439" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2439" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2439" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2440" s="4"/>
+      <c r="A2440" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2440" s="1" t="n">
+        <v>91172</v>
+      </c>
+      <c r="C2440" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2440" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2440" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2441" s="4"/>
+      <c r="A2441" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2441" s="1" t="n">
+        <v>69761</v>
+      </c>
+      <c r="C2441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2441" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2441" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2442" s="4"/>
+      <c r="A2442" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2442" s="1" t="n">
+        <v>90924</v>
+      </c>
+      <c r="C2442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2442" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2442" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2443" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2443" s="1" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C2443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2443" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2443" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2444" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2444" s="1" t="n">
+        <v>26239</v>
+      </c>
+      <c r="C2444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2444" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2444" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2445" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2445" s="1" t="n">
+        <v>174484</v>
+      </c>
+      <c r="C2445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2445" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2445" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2446" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2446" s="1" t="n">
+        <v>144791</v>
+      </c>
+      <c r="C2446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2446" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2446" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2447" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2447" s="1" t="n">
+        <v>145633</v>
+      </c>
+      <c r="C2447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2447" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2447" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2448" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2448" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2448" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2448" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2449" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2449" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C2449" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2449" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2449" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2450" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2450" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2450" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2450" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2450" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2451" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2451" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2451" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2451" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2452" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2452" s="1" t="n">
+        <v>38175</v>
+      </c>
+      <c r="C2452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2452" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2452" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2453" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2453" s="1" t="n">
+        <v>174484</v>
+      </c>
+      <c r="C2453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2453" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2453" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2454" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2454" s="1" t="n">
+        <v>137832</v>
+      </c>
+      <c r="C2454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2454" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2454" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2455" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2455" s="1" t="n">
+        <v>174258</v>
+      </c>
+      <c r="C2455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2455" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2455" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2456" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2456" s="1" t="n">
+        <v>174423</v>
+      </c>
+      <c r="C2456" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2456" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2456" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2457" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2457" s="1" t="n">
+        <v>171568</v>
+      </c>
+      <c r="C2457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2457" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2457" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2458" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2458" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C2458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2458" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2458" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2459" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2459" s="1" t="n">
+        <v>163644</v>
+      </c>
+      <c r="C2459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2459" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2459" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2460" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2460" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C2460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2460" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2460" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2461" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2461" s="1" t="n">
+        <v>174504</v>
+      </c>
+      <c r="C2461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2461" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2462" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2462" s="1" t="n">
+        <v>104865</v>
+      </c>
+      <c r="C2462" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2462" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2462" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2463" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2463" s="1" t="n">
+        <v>116392</v>
+      </c>
+      <c r="C2463" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2463" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2463" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2464" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2464" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C2464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2464" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2464" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2465" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2465" s="1" t="n">
+        <v>174553</v>
+      </c>
+      <c r="C2465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2465" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2465" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2466" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2466" s="1" t="n">
+        <v>174783</v>
+      </c>
+      <c r="C2466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2466" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2466" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2467" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2467" s="1" t="n">
+        <v>173693</v>
+      </c>
+      <c r="C2467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2467" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2467" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2468" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2468" s="1" t="n">
+        <v>23949</v>
+      </c>
+      <c r="C2468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2468" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2468" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2469" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2469" s="1" t="n">
+        <v>174254</v>
+      </c>
+      <c r="C2469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2469" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2469" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2470" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2470" s="1" t="n">
+        <v>140263</v>
+      </c>
+      <c r="C2470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2470" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2470" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2471" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2471" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2471" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2471" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2472" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2472" s="1" t="n">
+        <v>117561</v>
+      </c>
+      <c r="C2472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2472" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2472" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2473" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2473" s="1" t="n">
+        <v>174783</v>
+      </c>
+      <c r="C2473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2473" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2473" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2474" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2474" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C2474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2474" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2474" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2475" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2475" s="1" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C2475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2475" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2475" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2476" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2476" s="1" t="n">
+        <v>174783</v>
+      </c>
+      <c r="C2476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2476" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2476" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2477" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2477" s="1" t="n">
+        <v>174266</v>
+      </c>
+      <c r="C2477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2477" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2477" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2478" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2478" s="1" t="n">
+        <v>139955</v>
+      </c>
+      <c r="C2478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2478" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2478" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2479" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2479" s="1" t="n">
+        <v>139955</v>
+      </c>
+      <c r="C2479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2479" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2479" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2480" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2480" s="1" t="n">
+        <v>174557</v>
+      </c>
+      <c r="C2480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2480" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2480" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2481" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2481" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C2481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2481" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2481" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2482" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2482" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C2482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2482" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2482" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2483" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2483" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C2483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2483" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2483" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2484" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2484" s="1" t="n">
+        <v>63005</v>
+      </c>
+      <c r="C2484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2484" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2484" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2485" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2485" s="1" t="n">
+        <v>106387</v>
+      </c>
+      <c r="C2485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2485" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2485" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2486" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2486" s="1" t="n">
+        <v>106387</v>
+      </c>
+      <c r="C2486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2486" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2486" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2487" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2487" s="1" t="n">
+        <v>53578</v>
+      </c>
+      <c r="C2487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2487" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2487" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2488" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2488" s="1" t="n">
+        <v>7043</v>
+      </c>
+      <c r="C2488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2488" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2488" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2489" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2489" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2489" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2489" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2490" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2490" s="1" t="n">
+        <v>174960</v>
+      </c>
+      <c r="C2490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2490" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2490" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2491" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2491" s="1" t="n">
+        <v>174956</v>
+      </c>
+      <c r="C2491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2491" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2491" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2492" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2492" s="1" t="n">
+        <v>174876</v>
+      </c>
+      <c r="C2492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2492" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2492" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2493" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2493" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2493" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2493" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2494" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2494" s="1" t="n">
+        <v>174816</v>
+      </c>
+      <c r="C2494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2494" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2494" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2495" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2495" s="1" t="n">
+        <v>174805</v>
+      </c>
+      <c r="C2495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2495" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2495" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2496" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2496" s="1" t="n">
+        <v>174803</v>
+      </c>
+      <c r="C2496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2496" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2496" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2497" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2497" s="1" t="n">
+        <v>174802</v>
+      </c>
+      <c r="C2497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2497" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2497" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2498" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2498" s="1" t="n">
+        <v>174798</v>
+      </c>
+      <c r="C2498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2498" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2498" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2499" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2499" s="1" t="n">
+        <v>174746</v>
+      </c>
+      <c r="C2499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2499" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2499" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2500" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2500" s="1" t="n">
+        <v>174703</v>
+      </c>
+      <c r="C2500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2500" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2500" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2501" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2501" s="1" t="n">
+        <v>174700</v>
+      </c>
+      <c r="C2501" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2501" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2501" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2502" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2502" s="1" t="n">
+        <v>174695</v>
+      </c>
+      <c r="C2502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2502" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2502" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2503" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2503" s="1" t="n">
+        <v>174694</v>
+      </c>
+      <c r="C2503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2503" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2503" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2504" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2504" s="1" t="n">
+        <v>174629</v>
+      </c>
+      <c r="C2504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2504" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2504" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2505" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2505" s="1" t="n">
+        <v>174618</v>
+      </c>
+      <c r="C2505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2505" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2506" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2506" s="1" t="n">
+        <v>174571</v>
+      </c>
+      <c r="C2506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2506" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2507" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2507" s="1" t="n">
+        <v>174568</v>
+      </c>
+      <c r="C2507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2507" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2507" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2508" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2508" s="1" t="n">
+        <v>174556</v>
+      </c>
+      <c r="C2508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2508" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2508" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2509" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2509" s="1" t="n">
+        <v>174547</v>
+      </c>
+      <c r="C2509" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2509" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2509" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2510" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2510" s="1" t="n">
+        <v>174497</v>
+      </c>
+      <c r="C2510" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2510" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2510" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2511" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2511" s="1" t="n">
+        <v>174492</v>
+      </c>
+      <c r="C2511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2511" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2511" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2512" s="4"/>
+    </row>
+    <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2513" s="4"/>
+    </row>
+    <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2514" s="4"/>
+    </row>
+    <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2515" s="4"/>
+    </row>
+    <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2516" s="4"/>
+    </row>
+    <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2517" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -42037,18 +43315,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -42059,7 +43337,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -42070,7 +43348,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -42081,7 +43359,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -42092,7 +43370,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -42103,7 +43381,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -42114,32 +43392,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10060" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10260" uniqueCount="146">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -410,6 +410,12 @@
     <t xml:space="preserve">bitcoin</t>
   </si>
   <si>
+    <t xml:space="preserve">11.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matcha suri</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -569,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2517"/>
+  <dimension ref="A1:G2561"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2500" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2519" activeCellId="0" sqref="G2519"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2539" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2561" activeCellId="0" sqref="B2561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43272,22 +43278,854 @@
       </c>
     </row>
     <row r="2512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2512" s="4"/>
+      <c r="A2512" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2512" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C2512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2512" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2512" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2513" s="4"/>
+      <c r="A2513" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2513" s="1" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C2513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2513" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2513" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2514" s="4"/>
+      <c r="A2514" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2514" s="1" t="n">
+        <v>153933</v>
+      </c>
+      <c r="C2514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2514" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2514" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2515" s="4"/>
+      <c r="A2515" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2515" s="1" t="n">
+        <v>167562</v>
+      </c>
+      <c r="C2515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2515" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2515" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2516" s="4"/>
+      <c r="A2516" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2516" s="1" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C2516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2516" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2516" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2517" s="4"/>
+      <c r="A2517" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2517" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C2517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2517" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2517" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2518" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2518" s="1" t="n">
+        <v>60174</v>
+      </c>
+      <c r="C2518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2518" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2518" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2519" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2519" s="1" t="n">
+        <v>100438</v>
+      </c>
+      <c r="C2519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2519" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2519" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2520" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2520" s="1" t="n">
+        <v>122547</v>
+      </c>
+      <c r="C2520" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2520" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2520" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2521" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2521" s="1" t="n">
+        <v>23949</v>
+      </c>
+      <c r="C2521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2521" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2521" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2522" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2522" s="1" t="n">
+        <v>174960</v>
+      </c>
+      <c r="C2522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2522" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2522" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2523" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2523" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C2523" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2523" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2523" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2524" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2524" s="1" t="n">
+        <v>174557</v>
+      </c>
+      <c r="C2524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2524" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2524" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2525" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2525" s="1" t="n">
+        <v>174703</v>
+      </c>
+      <c r="C2525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2525" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2525" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2526" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2526" s="1" t="n">
+        <v>174816</v>
+      </c>
+      <c r="C2526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2526" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2526" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2527" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2527" s="1" t="n">
+        <v>174803</v>
+      </c>
+      <c r="C2527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2527" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2527" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2528" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2528" s="1" t="n">
+        <v>174960</v>
+      </c>
+      <c r="C2528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2528" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2528" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2529" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2529" s="1" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C2529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2529" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2529" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2530" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2530" s="1" t="n">
+        <v>174695</v>
+      </c>
+      <c r="C2530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2530" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2530" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2531" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2531" s="1" t="n">
+        <v>174492</v>
+      </c>
+      <c r="C2531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2531" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2531" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2532" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2532" s="1" t="n">
+        <v>174618</v>
+      </c>
+      <c r="C2532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2532" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2532" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2533" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2533" s="1" t="n">
+        <v>163861</v>
+      </c>
+      <c r="C2533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2533" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2533" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2534" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2534" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C2534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2534" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2534" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2535" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2535" s="1" t="n">
+        <v>106950</v>
+      </c>
+      <c r="C2535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2535" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2535" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2536" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2536" s="1" t="n">
+        <v>102909</v>
+      </c>
+      <c r="C2536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2536" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2536" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2537" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2537" s="1" t="n">
+        <v>43463</v>
+      </c>
+      <c r="C2537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2537" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2537" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2538" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2538" s="1" t="n">
+        <v>175263</v>
+      </c>
+      <c r="C2538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2538" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2538" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2539" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2539" s="1" t="n">
+        <v>175242</v>
+      </c>
+      <c r="C2539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2539" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2539" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2540" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2540" s="1" t="n">
+        <v>175041</v>
+      </c>
+      <c r="C2540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2540" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2540" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2541" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2541" s="1" t="n">
+        <v>175025</v>
+      </c>
+      <c r="C2541" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2541" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2541" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2542" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2542" s="1" t="n">
+        <v>124139</v>
+      </c>
+      <c r="C2542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2542" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2542" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2543" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2543" s="1" t="n">
+        <v>124145</v>
+      </c>
+      <c r="C2543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2543" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2543" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2544" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2544" s="1" t="n">
+        <v>124193</v>
+      </c>
+      <c r="C2544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2544" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2544" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2545" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2545" s="1" t="n">
+        <v>108946</v>
+      </c>
+      <c r="C2545" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2545" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2545" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2546" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2546" s="1" t="n">
+        <v>109480</v>
+      </c>
+      <c r="C2546" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2546" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2546" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2547" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2547" s="1" t="n">
+        <v>109485</v>
+      </c>
+      <c r="C2547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2547" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2547" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2548" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2548" s="1" t="n">
+        <v>109894</v>
+      </c>
+      <c r="C2548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2548" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2548" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2549" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2549" s="1" t="n">
+        <v>109950</v>
+      </c>
+      <c r="C2549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2549" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2549" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2550" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2550" s="1" t="n">
+        <v>110100</v>
+      </c>
+      <c r="C2550" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2550" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2550" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2551" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2551" s="1" t="n">
+        <v>110162</v>
+      </c>
+      <c r="C2551" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2551" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2551" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2552" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2552" s="1" t="n">
+        <v>110195</v>
+      </c>
+      <c r="C2552" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2552" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2552" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2553" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2553" s="1" t="n">
+        <v>110691</v>
+      </c>
+      <c r="C2553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2553" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2553" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2554" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2554" s="1" t="n">
+        <v>111011</v>
+      </c>
+      <c r="C2554" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2554" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2554" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2555" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2555" s="1" t="n">
+        <v>111053</v>
+      </c>
+      <c r="C2555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2555" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2555" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2556" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2556" s="1" t="n">
+        <v>111054</v>
+      </c>
+      <c r="C2556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2556" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2556" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2557" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2557" s="1" t="n">
+        <v>111075</v>
+      </c>
+      <c r="C2557" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2557" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2557" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2558" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2558" s="1" t="n">
+        <v>111331</v>
+      </c>
+      <c r="C2558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2558" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2558" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2559" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2559" s="1" t="n">
+        <v>111676</v>
+      </c>
+      <c r="C2559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2559" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2559" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2560" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2560" s="1" t="n">
+        <v>112348</v>
+      </c>
+      <c r="C2560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2560" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2560" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2561" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2561" s="1" t="n">
+        <v>112420</v>
+      </c>
+      <c r="C2561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2561" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2561" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -43315,18 +44153,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -43337,7 +44175,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -43348,7 +44186,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -43359,7 +44197,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -43370,7 +44208,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -43381,7 +44219,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -43392,32 +44230,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10260" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10400" uniqueCount="149">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -416,6 +416,15 @@
     <t xml:space="preserve">matcha suri</t>
   </si>
   <si>
+    <t xml:space="preserve">12.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wallet confirmation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafic source</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -533,7 +542,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,6 +567,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2561"/>
+  <dimension ref="A1:G2597"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2539" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2561" activeCellId="0" sqref="B2561"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2578" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2599" activeCellId="0" sqref="B2599:C2599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44126,6 +44139,604 @@
       <c r="E2561" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2562" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2562" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C2562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2562" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2562" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2563" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2563" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2563" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2563" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2564" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2564" s="1" t="n">
+        <v>127343</v>
+      </c>
+      <c r="C2564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2564" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2564" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2565" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2565" s="1" t="n">
+        <v>174492</v>
+      </c>
+      <c r="C2565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2565" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2565" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2566" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2566" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C2566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2566" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2566" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2567" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2567" s="1" t="n">
+        <v>174700</v>
+      </c>
+      <c r="C2567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2567" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2567" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2568" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2568" s="1" t="n">
+        <v>124736</v>
+      </c>
+      <c r="C2568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2568" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2568" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2569" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2569" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C2569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2569" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2569" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2570" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2570" s="1" t="n">
+        <v>175242</v>
+      </c>
+      <c r="C2570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2570" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2570" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2571" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2571" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2571" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2571" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2572" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2572" s="1" t="n">
+        <v>175025</v>
+      </c>
+      <c r="C2572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2572" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2572" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2573" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2573" s="6" t="n">
+        <v>167799</v>
+      </c>
+      <c r="C2573" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2573" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2573" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2574" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2574" s="1" t="n">
+        <v>153358</v>
+      </c>
+      <c r="C2574" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2574" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2574" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2575" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2575" s="1" t="n">
+        <v>174479</v>
+      </c>
+      <c r="C2575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2575" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2575" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2576" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2576" s="1" t="n">
+        <v>174443</v>
+      </c>
+      <c r="C2576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2576" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2576" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2577" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2577" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2577" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2577" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2577" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2578" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2578" s="1" t="n">
+        <v>175380</v>
+      </c>
+      <c r="C2578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2578" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2578" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2579" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2579" s="1" t="n">
+        <v>175263</v>
+      </c>
+      <c r="C2579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2579" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2579" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2580" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2580" s="1" t="n">
+        <v>174830</v>
+      </c>
+      <c r="C2580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2580" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2580" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2581" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2581" s="1" t="n">
+        <v>173955</v>
+      </c>
+      <c r="C2581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2581" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2581" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2582" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2582" s="1" t="n">
+        <v>174973</v>
+      </c>
+      <c r="C2582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2582" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2582" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2583" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2583" s="1" t="n">
+        <v>174846</v>
+      </c>
+      <c r="C2583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2583" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2583" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2584" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2584" s="1" t="n">
+        <v>174904</v>
+      </c>
+      <c r="C2584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2584" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2584" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2585" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2585" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C2585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2585" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2585" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2586" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2586" s="1" t="n">
+        <v>157746</v>
+      </c>
+      <c r="C2586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2586" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2586" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2587" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2587" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2587" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2587" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2588" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2588" s="1" t="n">
+        <v>174618</v>
+      </c>
+      <c r="C2588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2588" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2588" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2589" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2589" s="1" t="n">
+        <v>127340</v>
+      </c>
+      <c r="C2589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2589" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2589" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2590" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2590" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C2590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2590" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2590" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2591" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2591" s="1" t="n">
+        <v>117561</v>
+      </c>
+      <c r="C2591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2591" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2591" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2592" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2592" s="1" t="n">
+        <v>175435</v>
+      </c>
+      <c r="C2592" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2592" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2592" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2593" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2593" s="1" t="n">
+        <v>175425</v>
+      </c>
+      <c r="C2593" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2593" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2593" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2594" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2594" s="1" t="n">
+        <v>175306</v>
+      </c>
+      <c r="C2594" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2594" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2594" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2595" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2595" s="1" t="n">
+        <v>174964</v>
+      </c>
+      <c r="C2595" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2595" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2595" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2596" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2596" s="1" t="n">
+        <v>147563</v>
+      </c>
+      <c r="C2596" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2596" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2596" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2597" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -44146,25 +44757,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2599:C2599 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -44175,7 +44786,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -44186,7 +44797,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -44197,7 +44808,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -44208,7 +44819,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -44219,7 +44830,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -44230,32 +44841,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10400" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10600" uniqueCount="151">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -425,6 +425,12 @@
     <t xml:space="preserve">trafic source</t>
   </si>
   <si>
+    <t xml:space="preserve">13.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -588,10 +594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2597"/>
+  <dimension ref="A1:G2646"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2578" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2599" activeCellId="0" sqref="B2599:C2599"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2621" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2647" activeCellId="0" sqref="B2647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44331,7 +44337,7 @@
       <c r="A2573" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B2573" s="6" t="n">
+      <c r="B2573" s="1" t="n">
         <v>167799</v>
       </c>
       <c r="C2573" s="1" t="s">
@@ -44736,7 +44742,854 @@
       </c>
     </row>
     <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2597" s="4"/>
+      <c r="A2597" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2597" s="1" t="n">
+        <v>144179</v>
+      </c>
+      <c r="C2597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2597" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2597" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2598" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2598" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C2598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2598" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2598" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2599" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2599" s="1" t="n">
+        <v>102835</v>
+      </c>
+      <c r="C2599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2599" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2599" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2600" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2600" s="1" t="n">
+        <v>150570</v>
+      </c>
+      <c r="C2600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2600" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2600" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2601" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2601" s="1" t="n">
+        <v>62748</v>
+      </c>
+      <c r="C2601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2601" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2601" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2602" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2602" s="1" t="n">
+        <v>41937</v>
+      </c>
+      <c r="C2602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2602" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2602" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2603" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2603" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2603" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2603" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2604" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2604" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2604" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2604" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2605" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2605" s="1" t="n">
+        <v>50996</v>
+      </c>
+      <c r="C2605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2605" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2605" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2606" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2606" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2606" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2606" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2606" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2607" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2607" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C2607" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2607" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2607" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2608" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2608" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2608" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2608" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2609" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2609" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2609" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2609" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2610" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2610" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C2610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2610" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2610" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2611" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2611" s="1" t="n">
+        <v>175470</v>
+      </c>
+      <c r="C2611" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2611" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2611" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2612" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2612" s="1" t="n">
+        <v>175451</v>
+      </c>
+      <c r="C2612" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2612" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2612" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2613" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2613" s="1" t="n">
+        <v>166440</v>
+      </c>
+      <c r="C2613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2613" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2614" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2614" s="6" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C2614" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2614" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2614" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2615" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2615" s="1" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C2615" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2615" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2615" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2616" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2616" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C2616" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2616" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2616" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2617" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2617" s="1" t="n">
+        <v>10404</v>
+      </c>
+      <c r="C2617" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2617" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2617" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2618" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2618" s="1" t="n">
+        <v>156459</v>
+      </c>
+      <c r="C2618" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2618" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2618" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2619" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2619" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2619" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2619" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2619" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2620" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2620" s="1" t="n">
+        <v>167181</v>
+      </c>
+      <c r="C2620" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2620" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2620" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2621" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2621" s="1" t="n">
+        <v>127340</v>
+      </c>
+      <c r="C2621" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2621" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2621" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2622" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2622" s="1" t="n">
+        <v>163930</v>
+      </c>
+      <c r="C2622" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2622" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2622" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2623" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2623" s="1" t="n">
+        <v>96733</v>
+      </c>
+      <c r="C2623" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2623" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2623" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2624" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2624" s="1" t="n">
+        <v>175587</v>
+      </c>
+      <c r="C2624" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2624" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2624" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2625" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2625" s="1" t="n">
+        <v>175543</v>
+      </c>
+      <c r="C2625" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2625" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2625" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2626" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2626" s="1" t="n">
+        <v>175510</v>
+      </c>
+      <c r="C2626" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2626" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2626" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2627" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2627" s="1" t="n">
+        <v>175460</v>
+      </c>
+      <c r="C2627" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2627" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2627" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2628" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2628" s="1" t="n">
+        <v>175456</v>
+      </c>
+      <c r="C2628" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2628" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2628" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2629" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2629" s="1" t="n">
+        <v>175448</v>
+      </c>
+      <c r="C2629" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2629" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2629" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2630" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2630" s="1" t="n">
+        <v>175447</v>
+      </c>
+      <c r="C2630" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2630" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2630" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2631" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2631" s="1" t="n">
+        <v>175446</v>
+      </c>
+      <c r="C2631" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2631" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2631" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2632" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2632" s="1" t="n">
+        <v>175445</v>
+      </c>
+      <c r="C2632" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2632" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2632" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2633" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2633" s="1" t="n">
+        <v>175442</v>
+      </c>
+      <c r="C2633" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2633" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2633" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2634" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2634" s="1" t="n">
+        <v>81228</v>
+      </c>
+      <c r="C2634" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2634" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2634" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2635" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2635" s="1" t="n">
+        <v>82685</v>
+      </c>
+      <c r="C2635" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2635" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2635" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2636" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2636" s="1" t="n">
+        <v>82712</v>
+      </c>
+      <c r="C2636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2636" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2636" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2637" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2637" s="1" t="n">
+        <v>83146</v>
+      </c>
+      <c r="C2637" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2637" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2637" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2638" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2638" s="1" t="n">
+        <v>83557</v>
+      </c>
+      <c r="C2638" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2638" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2638" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2639" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2639" s="1" t="n">
+        <v>83691</v>
+      </c>
+      <c r="C2639" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2639" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2639" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2640" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2640" s="1" t="n">
+        <v>84640</v>
+      </c>
+      <c r="C2640" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2640" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2640" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2641" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2641" s="1" t="n">
+        <v>84711</v>
+      </c>
+      <c r="C2641" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2641" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2641" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2642" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2642" s="1" t="n">
+        <v>86312</v>
+      </c>
+      <c r="C2642" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2642" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2642" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2643" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2643" s="1" t="n">
+        <v>87844</v>
+      </c>
+      <c r="C2643" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2643" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2643" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2644" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2644" s="1" t="n">
+        <v>88076</v>
+      </c>
+      <c r="C2644" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2644" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2644" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2645" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2645" s="1" t="n">
+        <v>88126</v>
+      </c>
+      <c r="C2645" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2645" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2645" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2646" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2646" s="1" t="n">
+        <v>88162</v>
+      </c>
+      <c r="C2646" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2646" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2646" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -44757,25 +45610,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2599:C2599 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -44786,7 +45639,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -44797,7 +45650,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -44808,7 +45661,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -44819,7 +45672,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -44830,7 +45683,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -44841,32 +45694,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10600" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10796" uniqueCount="151">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -594,10 +594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2646"/>
+  <dimension ref="A1:G2695"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2621" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2647" activeCellId="0" sqref="B2647"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2669" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2695" activeCellId="0" sqref="B2695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45034,7 +45034,7 @@
       <c r="A2614" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2614" s="6" t="n">
+      <c r="B2614" s="1" t="n">
         <v>154228</v>
       </c>
       <c r="C2614" s="1" t="s">
@@ -45588,6 +45588,839 @@
         <v>61</v>
       </c>
       <c r="E2646" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2647" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2647" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2647" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2647" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2647" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2648" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2648" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2648" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2648" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2649" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2649" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C2649" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2649" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2649" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2650" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2650" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2650" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2650" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2650" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2651" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2651" s="1" t="n">
+        <v>50996</v>
+      </c>
+      <c r="C2651" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2651" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2651" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2652" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2652" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2652" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2652" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2652" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2653" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2653" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2653" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2653" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2653" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2654" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2654" s="1" t="n">
+        <v>175543</v>
+      </c>
+      <c r="C2654" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2654" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2654" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2655" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2655" s="1" t="n">
+        <v>150570</v>
+      </c>
+      <c r="C2655" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2655" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2655" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2656" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2656" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2656" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2656" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2656" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2657" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2657" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2657" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2657" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2657" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2658" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2658" s="1" t="n">
+        <v>54051</v>
+      </c>
+      <c r="C2658" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2658" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2658" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2659" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2659" s="1" t="n">
+        <v>171985</v>
+      </c>
+      <c r="C2659" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2659" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2659" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2660" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2660" s="6" t="n">
+        <v>98629</v>
+      </c>
+      <c r="C2660" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2660" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2660" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2661" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2661" s="1" t="n">
+        <v>175617</v>
+      </c>
+      <c r="C2661" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2661" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2661" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2662" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2662" s="1" t="n">
+        <v>174779</v>
+      </c>
+      <c r="C2662" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2662" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2662" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2663" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2663" s="1" t="n">
+        <v>174603</v>
+      </c>
+      <c r="C2663" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2663" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2663" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2664" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2664" s="1" t="n">
+        <v>92060</v>
+      </c>
+      <c r="C2664" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2664" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2664" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2665" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2665" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2665" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2665" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2665" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2666" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2666" s="1" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C2666" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2666" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2666" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2667" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2667" s="1" t="n">
+        <v>168706</v>
+      </c>
+      <c r="C2667" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2667" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2667" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2668" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2668" s="1" t="n">
+        <v>153394</v>
+      </c>
+      <c r="C2668" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2668" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2668" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2669" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2669" s="1" t="n">
+        <v>57392</v>
+      </c>
+      <c r="C2669" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2669" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2669" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2670" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2670" s="1" t="n">
+        <v>167181</v>
+      </c>
+      <c r="C2670" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2670" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2670" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2671" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2671" s="1" t="n">
+        <v>127340</v>
+      </c>
+      <c r="C2671" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2671" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2671" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2672" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2672" s="1" t="n">
+        <v>146759</v>
+      </c>
+      <c r="C2672" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2672" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2672" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2673" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2673" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C2673" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2673" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2673" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2674" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2674" s="1" t="n">
+        <v>175306</v>
+      </c>
+      <c r="C2674" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2674" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2674" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2675" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2675" s="1" t="n">
+        <v>166440</v>
+      </c>
+      <c r="C2675" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2675" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2675" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2676" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2676" s="1" t="n">
+        <v>175442</v>
+      </c>
+      <c r="C2676" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2676" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2676" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2677" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2677" s="1" t="n">
+        <v>175510</v>
+      </c>
+      <c r="C2677" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2677" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2677" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2678" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2678" s="1" t="n">
+        <v>175510</v>
+      </c>
+      <c r="C2678" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2678" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2678" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2679" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2679" s="1" t="n">
+        <v>175711</v>
+      </c>
+      <c r="C2679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2679" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2679" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2680" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2680" s="1" t="n">
+        <v>15126</v>
+      </c>
+      <c r="C2680" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2680" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2680" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2681" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2681" s="1" t="n">
+        <v>15175</v>
+      </c>
+      <c r="C2681" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2681" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2681" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2682" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2682" s="1" t="n">
+        <v>15271</v>
+      </c>
+      <c r="C2682" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2682" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2682" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2683" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2683" s="1" t="n">
+        <v>15680</v>
+      </c>
+      <c r="C2683" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2683" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2683" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2684" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2684" s="1" t="n">
+        <v>15787</v>
+      </c>
+      <c r="C2684" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2684" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2684" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2685" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2685" s="1" t="n">
+        <v>15891</v>
+      </c>
+      <c r="C2685" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2685" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2685" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2686" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2686" s="1" t="n">
+        <v>16181</v>
+      </c>
+      <c r="C2686" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2686" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2686" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2687" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2687" s="1" t="n">
+        <v>16326</v>
+      </c>
+      <c r="C2687" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2687" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2687" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2688" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2688" s="1" t="n">
+        <v>16328</v>
+      </c>
+      <c r="C2688" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2688" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2688" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2689" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2689" s="1" t="n">
+        <v>16475</v>
+      </c>
+      <c r="C2689" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2689" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2689" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2690" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2690" s="1" t="n">
+        <v>16796</v>
+      </c>
+      <c r="C2690" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2690" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2690" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2691" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2691" s="1" t="n">
+        <v>16879</v>
+      </c>
+      <c r="C2691" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2691" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2691" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2692" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2692" s="1" t="n">
+        <v>16992</v>
+      </c>
+      <c r="C2692" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2692" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2692" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2693" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2693" s="1" t="n">
+        <v>17172</v>
+      </c>
+      <c r="C2693" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2693" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2693" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2694" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2694" s="1" t="n">
+        <v>17190</v>
+      </c>
+      <c r="C2694" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2694" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2694" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2695" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2695" s="1" t="n">
+        <v>17700</v>
+      </c>
+      <c r="C2695" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2695" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2695" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10796" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10796" uniqueCount="152">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -431,6 +431,9 @@
     <t xml:space="preserve">domain</t>
   </si>
   <si>
+    <t xml:space="preserve">14.07.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -548,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,10 +576,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:G2695"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2669" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2695" activeCellId="0" sqref="B2695"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2674" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2647" activeCellId="0" sqref="A2647:A2695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45592,8 +45591,8 @@
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2647" s="0" t="s">
-        <v>66</v>
+      <c r="A2647" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2647" s="1" t="n">
         <v>98967</v>
@@ -45609,8 +45608,8 @@
       </c>
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2648" s="0" t="s">
-        <v>66</v>
+      <c r="A2648" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2648" s="1" t="n">
         <v>172978</v>
@@ -45626,8 +45625,8 @@
       </c>
     </row>
     <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2649" s="0" t="s">
-        <v>66</v>
+      <c r="A2649" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2649" s="1" t="n">
         <v>168801</v>
@@ -45643,8 +45642,8 @@
       </c>
     </row>
     <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2650" s="0" t="s">
-        <v>66</v>
+      <c r="A2650" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2650" s="1" t="n">
         <v>162119</v>
@@ -45660,8 +45659,8 @@
       </c>
     </row>
     <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2651" s="0" t="s">
-        <v>66</v>
+      <c r="A2651" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2651" s="1" t="n">
         <v>50996</v>
@@ -45677,8 +45676,8 @@
       </c>
     </row>
     <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2652" s="0" t="s">
-        <v>66</v>
+      <c r="A2652" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2652" s="1" t="n">
         <v>113278</v>
@@ -45694,8 +45693,8 @@
       </c>
     </row>
     <row r="2653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2653" s="0" t="s">
-        <v>66</v>
+      <c r="A2653" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2653" s="1" t="n">
         <v>155731</v>
@@ -45711,8 +45710,8 @@
       </c>
     </row>
     <row r="2654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2654" s="0" t="s">
-        <v>66</v>
+      <c r="A2654" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2654" s="1" t="n">
         <v>175543</v>
@@ -45728,8 +45727,8 @@
       </c>
     </row>
     <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2655" s="0" t="s">
-        <v>66</v>
+      <c r="A2655" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2655" s="1" t="n">
         <v>150570</v>
@@ -45745,8 +45744,8 @@
       </c>
     </row>
     <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2656" s="0" t="s">
-        <v>66</v>
+      <c r="A2656" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2656" s="1" t="n">
         <v>172978</v>
@@ -45762,8 +45761,8 @@
       </c>
     </row>
     <row r="2657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2657" s="0" t="s">
-        <v>66</v>
+      <c r="A2657" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2657" s="1" t="n">
         <v>158887</v>
@@ -45779,8 +45778,8 @@
       </c>
     </row>
     <row r="2658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2658" s="0" t="s">
-        <v>66</v>
+      <c r="A2658" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2658" s="1" t="n">
         <v>54051</v>
@@ -45796,8 +45795,8 @@
       </c>
     </row>
     <row r="2659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2659" s="0" t="s">
-        <v>66</v>
+      <c r="A2659" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2659" s="1" t="n">
         <v>171985</v>
@@ -45813,10 +45812,10 @@
       </c>
     </row>
     <row r="2660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2660" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2660" s="6" t="n">
+      <c r="A2660" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2660" s="1" t="n">
         <v>98629</v>
       </c>
       <c r="C2660" s="1" t="s">
@@ -45830,8 +45829,8 @@
       </c>
     </row>
     <row r="2661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2661" s="0" t="s">
-        <v>66</v>
+      <c r="A2661" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2661" s="1" t="n">
         <v>175617</v>
@@ -45847,8 +45846,8 @@
       </c>
     </row>
     <row r="2662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2662" s="0" t="s">
-        <v>66</v>
+      <c r="A2662" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2662" s="1" t="n">
         <v>174779</v>
@@ -45864,8 +45863,8 @@
       </c>
     </row>
     <row r="2663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2663" s="0" t="s">
-        <v>66</v>
+      <c r="A2663" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2663" s="1" t="n">
         <v>174603</v>
@@ -45881,8 +45880,8 @@
       </c>
     </row>
     <row r="2664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2664" s="0" t="s">
-        <v>66</v>
+      <c r="A2664" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2664" s="1" t="n">
         <v>92060</v>
@@ -45898,8 +45897,8 @@
       </c>
     </row>
     <row r="2665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2665" s="0" t="s">
-        <v>66</v>
+      <c r="A2665" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2665" s="1" t="n">
         <v>164718</v>
@@ -45915,8 +45914,8 @@
       </c>
     </row>
     <row r="2666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2666" s="0" t="s">
-        <v>66</v>
+      <c r="A2666" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2666" s="1" t="n">
         <v>146759</v>
@@ -45932,8 +45931,8 @@
       </c>
     </row>
     <row r="2667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2667" s="0" t="s">
-        <v>66</v>
+      <c r="A2667" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2667" s="1" t="n">
         <v>168706</v>
@@ -45949,8 +45948,8 @@
       </c>
     </row>
     <row r="2668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2668" s="0" t="s">
-        <v>66</v>
+      <c r="A2668" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2668" s="1" t="n">
         <v>153394</v>
@@ -45966,8 +45965,8 @@
       </c>
     </row>
     <row r="2669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2669" s="0" t="s">
-        <v>66</v>
+      <c r="A2669" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2669" s="1" t="n">
         <v>57392</v>
@@ -45983,8 +45982,8 @@
       </c>
     </row>
     <row r="2670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2670" s="0" t="s">
-        <v>66</v>
+      <c r="A2670" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2670" s="1" t="n">
         <v>167181</v>
@@ -46000,8 +45999,8 @@
       </c>
     </row>
     <row r="2671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2671" s="0" t="s">
-        <v>66</v>
+      <c r="A2671" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2671" s="1" t="n">
         <v>127340</v>
@@ -46017,8 +46016,8 @@
       </c>
     </row>
     <row r="2672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2672" s="0" t="s">
-        <v>66</v>
+      <c r="A2672" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2672" s="1" t="n">
         <v>146759</v>
@@ -46034,8 +46033,8 @@
       </c>
     </row>
     <row r="2673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2673" s="0" t="s">
-        <v>66</v>
+      <c r="A2673" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2673" s="1" t="n">
         <v>167403</v>
@@ -46051,8 +46050,8 @@
       </c>
     </row>
     <row r="2674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2674" s="0" t="s">
-        <v>66</v>
+      <c r="A2674" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2674" s="1" t="n">
         <v>175306</v>
@@ -46068,8 +46067,8 @@
       </c>
     </row>
     <row r="2675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2675" s="0" t="s">
-        <v>66</v>
+      <c r="A2675" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2675" s="1" t="n">
         <v>166440</v>
@@ -46085,8 +46084,8 @@
       </c>
     </row>
     <row r="2676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2676" s="0" t="s">
-        <v>66</v>
+      <c r="A2676" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2676" s="1" t="n">
         <v>175442</v>
@@ -46102,8 +46101,8 @@
       </c>
     </row>
     <row r="2677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2677" s="0" t="s">
-        <v>66</v>
+      <c r="A2677" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2677" s="1" t="n">
         <v>175510</v>
@@ -46119,8 +46118,8 @@
       </c>
     </row>
     <row r="2678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2678" s="0" t="s">
-        <v>66</v>
+      <c r="A2678" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2678" s="1" t="n">
         <v>175510</v>
@@ -46136,8 +46135,8 @@
       </c>
     </row>
     <row r="2679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2679" s="0" t="s">
-        <v>66</v>
+      <c r="A2679" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2679" s="1" t="n">
         <v>175711</v>
@@ -46153,8 +46152,8 @@
       </c>
     </row>
     <row r="2680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2680" s="0" t="s">
-        <v>66</v>
+      <c r="A2680" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2680" s="1" t="n">
         <v>15126</v>
@@ -46170,8 +46169,8 @@
       </c>
     </row>
     <row r="2681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2681" s="0" t="s">
-        <v>66</v>
+      <c r="A2681" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2681" s="1" t="n">
         <v>15175</v>
@@ -46187,8 +46186,8 @@
       </c>
     </row>
     <row r="2682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2682" s="0" t="s">
-        <v>66</v>
+      <c r="A2682" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2682" s="1" t="n">
         <v>15271</v>
@@ -46204,8 +46203,8 @@
       </c>
     </row>
     <row r="2683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2683" s="0" t="s">
-        <v>66</v>
+      <c r="A2683" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2683" s="1" t="n">
         <v>15680</v>
@@ -46221,8 +46220,8 @@
       </c>
     </row>
     <row r="2684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2684" s="0" t="s">
-        <v>66</v>
+      <c r="A2684" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2684" s="1" t="n">
         <v>15787</v>
@@ -46238,8 +46237,8 @@
       </c>
     </row>
     <row r="2685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2685" s="0" t="s">
-        <v>66</v>
+      <c r="A2685" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2685" s="1" t="n">
         <v>15891</v>
@@ -46255,8 +46254,8 @@
       </c>
     </row>
     <row r="2686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2686" s="0" t="s">
-        <v>66</v>
+      <c r="A2686" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2686" s="1" t="n">
         <v>16181</v>
@@ -46272,8 +46271,8 @@
       </c>
     </row>
     <row r="2687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2687" s="0" t="s">
-        <v>66</v>
+      <c r="A2687" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2687" s="1" t="n">
         <v>16326</v>
@@ -46289,8 +46288,8 @@
       </c>
     </row>
     <row r="2688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2688" s="0" t="s">
-        <v>66</v>
+      <c r="A2688" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2688" s="1" t="n">
         <v>16328</v>
@@ -46306,8 +46305,8 @@
       </c>
     </row>
     <row r="2689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2689" s="0" t="s">
-        <v>66</v>
+      <c r="A2689" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2689" s="1" t="n">
         <v>16475</v>
@@ -46323,8 +46322,8 @@
       </c>
     </row>
     <row r="2690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2690" s="0" t="s">
-        <v>66</v>
+      <c r="A2690" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2690" s="1" t="n">
         <v>16796</v>
@@ -46340,8 +46339,8 @@
       </c>
     </row>
     <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2691" s="0" t="s">
-        <v>66</v>
+      <c r="A2691" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2691" s="1" t="n">
         <v>16879</v>
@@ -46357,8 +46356,8 @@
       </c>
     </row>
     <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2692" s="0" t="s">
-        <v>66</v>
+      <c r="A2692" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2692" s="1" t="n">
         <v>16992</v>
@@ -46374,8 +46373,8 @@
       </c>
     </row>
     <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2693" s="0" t="s">
-        <v>66</v>
+      <c r="A2693" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2693" s="1" t="n">
         <v>17172</v>
@@ -46391,8 +46390,8 @@
       </c>
     </row>
     <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2694" s="0" t="s">
-        <v>66</v>
+      <c r="A2694" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2694" s="1" t="n">
         <v>17190</v>
@@ -46408,8 +46407,8 @@
       </c>
     </row>
     <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2695" s="0" t="s">
-        <v>66</v>
+      <c r="A2695" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2695" s="1" t="n">
         <v>17700</v>
@@ -46443,25 +46442,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2647:A2695 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -46472,7 +46471,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -46483,7 +46482,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -46494,7 +46493,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -46505,7 +46504,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -46516,7 +46515,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -46527,32 +46526,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10796" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11048" uniqueCount="160">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -434,6 +434,30 @@
     <t xml:space="preserve">14.07.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">17.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexgod ME Gummies – US</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -593,10 +617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2695"/>
+  <dimension ref="A1:G2762"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2674" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2647" activeCellId="0" sqref="A2647:A2695"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2738" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2760" activeCellId="0" sqref="B2760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46422,6 +46446,1089 @@
       <c r="E2695" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2696" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2696" s="1" t="n">
+        <v>92060</v>
+      </c>
+      <c r="C2696" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2696" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2696" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2697" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2697" s="1" t="n">
+        <v>37490</v>
+      </c>
+      <c r="C2697" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2697" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2697" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2698" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2698" s="1" t="n">
+        <v>167403</v>
+      </c>
+      <c r="C2698" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2698" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2698" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2699" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2699" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2699" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2699" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2699" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2700" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2700" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C2700" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2700" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2700" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2701" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2701" s="1" t="n">
+        <v>172151</v>
+      </c>
+      <c r="C2701" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2701" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2701" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2702" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2702" s="1" t="n">
+        <v>90924</v>
+      </c>
+      <c r="C2702" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2702" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2702" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2703" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2703" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2703" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2703" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2703" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2704" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2704" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="C2704" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2704" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2704" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2705" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2705" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2705" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2705" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2705" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2706" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2706" s="1" t="n">
+        <v>136824</v>
+      </c>
+      <c r="C2706" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2706" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2706" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2707" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2707" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C2707" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2707" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2707" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2708" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2708" s="1" t="n">
+        <v>107433</v>
+      </c>
+      <c r="C2708" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2708" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2708" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2709" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2709" s="1" t="n">
+        <v>136824</v>
+      </c>
+      <c r="C2709" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2709" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2709" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2710" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2710" s="1" t="n">
+        <v>120061</v>
+      </c>
+      <c r="C2710" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2710" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2710" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2711" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2711" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C2711" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2711" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2711" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2712" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2712" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C2712" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2712" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2712" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2713" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2713" s="1" t="n">
+        <v>29893</v>
+      </c>
+      <c r="C2713" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2713" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2713" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2714" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2714" s="1" t="n">
+        <v>121817</v>
+      </c>
+      <c r="C2714" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2714" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2714" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2715" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2715" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C2715" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2715" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2715" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2716" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2716" s="1" t="n">
+        <v>144179</v>
+      </c>
+      <c r="C2716" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2716" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2716" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2717" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2717" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C2717" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2717" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2717" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2718" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2718" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2718" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2718" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2718" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2719" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2719" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C2719" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2719" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2719" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2720" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2720" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C2720" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2720" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2720" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2721" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2721" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2721" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2721" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2721" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2722" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2722" s="1" t="n">
+        <v>26633</v>
+      </c>
+      <c r="C2722" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2722" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2722" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2723" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2723" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2723" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2723" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2723" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2724" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2724" s="1" t="n">
+        <v>38175</v>
+      </c>
+      <c r="C2724" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2724" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2724" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2725" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2725" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C2725" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2725" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2725" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2726" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2726" s="1" t="n">
+        <v>161289</v>
+      </c>
+      <c r="C2726" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2726" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2726" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2727" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2727" s="1" t="n">
+        <v>115947</v>
+      </c>
+      <c r="C2727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2727" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2727" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2728" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2728" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2728" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2728" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2728" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2729" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2729" s="1" t="n">
+        <v>172151</v>
+      </c>
+      <c r="C2729" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2729" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2729" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2730" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2730" s="1" t="n">
+        <v>167181</v>
+      </c>
+      <c r="C2730" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2730" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2730" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2731" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2731" s="1" t="n">
+        <v>174703</v>
+      </c>
+      <c r="C2731" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2731" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2731" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2732" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2732" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2732" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2732" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2732" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2733" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2733" s="1" t="n">
+        <v>96077</v>
+      </c>
+      <c r="C2733" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2733" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2733" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2734" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2734" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C2734" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2734" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2734" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2735" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2735" s="1" t="n">
+        <v>166440</v>
+      </c>
+      <c r="C2735" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2735" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2735" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2736" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2736" s="1" t="n">
+        <v>175442</v>
+      </c>
+      <c r="C2736" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2736" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2736" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2737" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2737" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2737" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2737" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2737" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2738" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2738" s="1" t="n">
+        <v>176279</v>
+      </c>
+      <c r="C2738" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2738" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2738" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2739" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2739" s="1" t="n">
+        <v>176251</v>
+      </c>
+      <c r="C2739" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2739" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2739" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2740" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2740" s="1" t="n">
+        <v>176243</v>
+      </c>
+      <c r="C2740" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2740" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2740" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2741" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2741" s="1" t="n">
+        <v>176239</v>
+      </c>
+      <c r="C2741" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2741" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2741" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2742" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2742" s="1" t="n">
+        <v>176105</v>
+      </c>
+      <c r="C2742" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2742" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2742" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2743" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2743" s="1" t="n">
+        <v>176095</v>
+      </c>
+      <c r="C2743" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2743" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2743" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2744" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2744" s="1" t="n">
+        <v>176090</v>
+      </c>
+      <c r="C2744" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2744" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2744" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2745" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2745" s="1" t="n">
+        <v>176079</v>
+      </c>
+      <c r="C2745" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2745" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2745" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2746" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2746" s="1" t="n">
+        <v>176063</v>
+      </c>
+      <c r="C2746" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2746" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2746" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2747" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2747" s="1" t="n">
+        <v>176041</v>
+      </c>
+      <c r="C2747" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2747" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2747" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2748" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2748" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2748" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2748" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2748" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2749" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2749" s="1" t="n">
+        <v>175942</v>
+      </c>
+      <c r="C2749" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2749" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2749" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2750" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2750" s="1" t="n">
+        <v>175935</v>
+      </c>
+      <c r="C2750" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2750" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2750" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2751" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2751" s="1" t="n">
+        <v>175841</v>
+      </c>
+      <c r="C2751" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2751" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2751" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2752" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2752" s="1" t="n">
+        <v>175780</v>
+      </c>
+      <c r="C2752" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2752" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2752" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2753" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2753" s="1" t="n">
+        <v>175777</v>
+      </c>
+      <c r="C2753" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2753" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2753" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2754" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2754" s="1" t="n">
+        <v>175774</v>
+      </c>
+      <c r="C2754" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2754" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2754" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2755" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2755" s="1" t="n">
+        <v>175772</v>
+      </c>
+      <c r="C2755" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2755" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2755" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2756" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2756" s="1" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C2756" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2756" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2756" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2757" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2757" s="1" t="n">
+        <v>175761</v>
+      </c>
+      <c r="C2757" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2757" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2757" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2758" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2758" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C2758" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2758" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2758" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2759" s="2"/>
+    </row>
+    <row r="2760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2760" s="2"/>
+    </row>
+    <row r="2761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2761" s="2"/>
+    </row>
+    <row r="2762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2762" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -46442,25 +47549,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2647:A2695 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -46471,7 +47578,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -46482,7 +47589,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -46493,7 +47600,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -46504,7 +47611,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -46515,7 +47622,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -46526,32 +47633,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11048" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11240" uniqueCount="166">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -458,6 +458,24 @@
     <t xml:space="preserve">Sexgod ME Gummies – US</t>
   </si>
   <si>
+    <t xml:space="preserve">18.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slim Labs ACV + KETO Gummies – US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toxic off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop offer for italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payoneer</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -617,10 +635,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2762"/>
+  <dimension ref="A1:G2811"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2738" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2760" activeCellId="0" sqref="B2760"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2786" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2807" activeCellId="0" sqref="A2807:E2811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47519,16 +47537,835 @@
       </c>
     </row>
     <row r="2759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2759" s="2"/>
+      <c r="A2759" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2759" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C2759" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2759" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2759" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2760" s="2"/>
+      <c r="A2760" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2760" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C2760" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2760" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2760" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2761" s="2"/>
+      <c r="A2761" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2761" s="1" t="n">
+        <v>163930</v>
+      </c>
+      <c r="C2761" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2761" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2761" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2762" s="2"/>
+      <c r="A2762" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2762" s="1" t="n">
+        <v>60746</v>
+      </c>
+      <c r="C2762" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2762" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2762" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2763" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2763" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C2763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2763" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2763" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2764" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2764" s="1" t="n">
+        <v>164385</v>
+      </c>
+      <c r="C2764" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2764" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2764" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2765" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2765" s="1" t="n">
+        <v>121817</v>
+      </c>
+      <c r="C2765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2765" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2765" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2766" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2766" s="1" t="n">
+        <v>172978</v>
+      </c>
+      <c r="C2766" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2766" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2766" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2767" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2767" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2767" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2767" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2767" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2768" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2768" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2768" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2768" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2768" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2769" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2769" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2769" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2769" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2769" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2770" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2770" s="1" t="n">
+        <v>128946</v>
+      </c>
+      <c r="C2770" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2770" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2770" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2771" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2771" s="1" t="n">
+        <v>60461</v>
+      </c>
+      <c r="C2771" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2771" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2771" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2772" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2772" s="1" t="n">
+        <v>57264</v>
+      </c>
+      <c r="C2772" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2772" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2772" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2773" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2773" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C2773" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2773" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2773" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2774" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2774" s="1" t="n">
+        <v>169155</v>
+      </c>
+      <c r="C2774" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2774" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2774" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2775" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2775" s="1" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C2775" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2775" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2775" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2776" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2776" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C2776" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2776" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2776" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2777" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2777" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2777" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2777" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2777" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2778" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2778" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2778" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2778" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2778" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2779" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2779" s="1" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C2779" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2779" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2779" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2780" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2780" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2780" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2780" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2780" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2781" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2781" s="1" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C2781" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2781" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2781" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2782" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2782" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C2782" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2782" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2782" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2783" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2783" s="1" t="n">
+        <v>96077</v>
+      </c>
+      <c r="C2783" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2783" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2783" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2784" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2784" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2784" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2784" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2785" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2785" s="1" t="n">
+        <v>174162</v>
+      </c>
+      <c r="C2785" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2785" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2785" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2786" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2786" s="1" t="n">
+        <v>26633</v>
+      </c>
+      <c r="C2786" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2786" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2786" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2787" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2787" s="1" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C2787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2787" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2787" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2788" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2788" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2788" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2788" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2788" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2789" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2789" s="1" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C2789" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2789" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2789" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2790" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2790" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2790" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2790" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2790" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2791" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2791" s="1" t="n">
+        <v>167181</v>
+      </c>
+      <c r="C2791" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2791" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2791" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2792" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2792" s="1" t="n">
+        <v>159261</v>
+      </c>
+      <c r="C2792" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2792" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2792" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2793" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2793" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2793" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2793" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2793" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2794" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2794" s="1" t="n">
+        <v>176041</v>
+      </c>
+      <c r="C2794" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2794" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2794" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2795" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2795" s="1" t="n">
+        <v>176079</v>
+      </c>
+      <c r="C2795" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2795" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2795" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2796" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2796" s="1" t="n">
+        <v>176105</v>
+      </c>
+      <c r="C2796" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2796" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2796" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2797" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2797" s="1" t="n">
+        <v>176279</v>
+      </c>
+      <c r="C2797" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2797" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2797" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2798" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2798" s="1" t="n">
+        <v>176251</v>
+      </c>
+      <c r="C2798" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2798" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2798" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2799" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2799" s="1" t="n">
+        <v>176095</v>
+      </c>
+      <c r="C2799" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2799" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2799" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2800" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2800" s="1" t="n">
+        <v>175306</v>
+      </c>
+      <c r="C2800" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2800" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2800" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2801" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2801" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2801" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2801" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2801" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2802" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2802" s="1" t="n">
+        <v>156596</v>
+      </c>
+      <c r="C2802" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2802" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2802" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2803" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2803" s="1" t="n">
+        <v>175841</v>
+      </c>
+      <c r="C2803" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2803" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2803" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2804" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2804" s="1" t="n">
+        <v>176322</v>
+      </c>
+      <c r="C2804" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2804" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2804" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2805" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2805" s="1" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C2805" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2805" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2805" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2806" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2806" s="1" t="n">
+        <v>176389</v>
+      </c>
+      <c r="C2806" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2806" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2806" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2807" s="2"/>
+    </row>
+    <row r="2808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2808" s="2"/>
+    </row>
+    <row r="2809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2809" s="2"/>
+    </row>
+    <row r="2810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2810" s="2"/>
+    </row>
+    <row r="2811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2811" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -47549,25 +48386,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2807:E2811 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -47578,7 +48415,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -47589,7 +48426,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -47600,7 +48437,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -47611,7 +48448,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -47622,7 +48459,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -47633,32 +48470,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11240" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11376" uniqueCount="172">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -476,6 +476,24 @@
     <t xml:space="preserve">payoneer</t>
   </si>
   <si>
+    <t xml:space="preserve">19.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reject reazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">influencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin-submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add LP</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -635,10 +653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2811"/>
+  <dimension ref="A1:G2841"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2786" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2807" activeCellId="0" sqref="A2807:E2811"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2815" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2844" activeCellId="0" sqref="D2844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48353,19 +48371,585 @@
       </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2807" s="2"/>
+      <c r="A2807" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2807" s="1" t="n">
+        <v>60746</v>
+      </c>
+      <c r="C2807" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2807" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2807" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2808" s="2"/>
+      <c r="A2808" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2808" s="1" t="n">
+        <v>121817</v>
+      </c>
+      <c r="C2808" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2808" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2808" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2809" s="2"/>
+      <c r="A2809" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2809" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C2809" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2809" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2809" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2810" s="2"/>
+      <c r="A2810" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2810" s="1" t="n">
+        <v>145948</v>
+      </c>
+      <c r="C2810" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2810" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2810" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2811" s="2"/>
+      <c r="A2811" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2811" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2811" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2811" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2811" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2812" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2812" s="1" t="n">
+        <v>130432</v>
+      </c>
+      <c r="C2812" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2812" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2812" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2813" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2813" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C2813" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2813" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2813" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2814" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2814" s="1" t="n">
+        <v>29635</v>
+      </c>
+      <c r="C2814" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2814" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2814" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2815" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2815" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C2815" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2815" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2815" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2816" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2816" s="1" t="n">
+        <v>142502</v>
+      </c>
+      <c r="C2816" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2816" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2816" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2817" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2817" s="1" t="n">
+        <v>163885</v>
+      </c>
+      <c r="C2817" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2817" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2817" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2818" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2818" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2818" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2818" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2818" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2819" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2819" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C2819" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2819" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2819" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2820" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2820" s="1" t="n">
+        <v>92060</v>
+      </c>
+      <c r="C2820" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2820" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2820" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2821" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2821" s="1" t="n">
+        <v>159261</v>
+      </c>
+      <c r="C2821" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2821" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2821" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2822" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2822" s="1" t="n">
+        <v>96077</v>
+      </c>
+      <c r="C2822" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2822" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2822" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2823" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2823" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2823" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2823" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2823" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2824" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2824" s="1" t="n">
+        <v>174869</v>
+      </c>
+      <c r="C2824" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2824" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2824" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2825" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2825" s="1" t="n">
+        <v>166440</v>
+      </c>
+      <c r="C2825" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2825" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2825" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2826" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2826" s="1" t="n">
+        <v>144179</v>
+      </c>
+      <c r="C2826" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2826" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2826" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2827" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2827" s="1" t="n">
+        <v>171796</v>
+      </c>
+      <c r="C2827" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2827" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2827" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2828" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2828" s="1" t="n">
+        <v>176041</v>
+      </c>
+      <c r="C2828" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2828" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2828" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2829" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2829" s="1" t="n">
+        <v>35148</v>
+      </c>
+      <c r="C2829" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2829" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2829" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2830" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2830" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C2830" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2830" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2830" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2831" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2831" s="1" t="n">
+        <v>167741</v>
+      </c>
+      <c r="C2831" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2831" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2831" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2832" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2832" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C2832" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2832" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2832" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2833" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2833" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C2833" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2833" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2833" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2834" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2834" s="1" t="n">
+        <v>124736</v>
+      </c>
+      <c r="C2834" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2834" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2834" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2835" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2835" s="1" t="n">
+        <v>176322</v>
+      </c>
+      <c r="C2835" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2835" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2835" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2836" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2836" s="1" t="n">
+        <v>176389</v>
+      </c>
+      <c r="C2836" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2836" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2836" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2837" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2837" s="1" t="n">
+        <v>176090</v>
+      </c>
+      <c r="C2837" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2837" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2837" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2838" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2838" s="1" t="n">
+        <v>35148</v>
+      </c>
+      <c r="C2838" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2838" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2838" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2839" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2839" s="1" t="n">
+        <v>129902</v>
+      </c>
+      <c r="C2839" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2839" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2839" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2840" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2840" s="1" t="n">
+        <v>175456</v>
+      </c>
+      <c r="C2840" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2840" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2840" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2841" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -48386,25 +48970,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2807:E2811 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -48415,7 +48999,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -48426,7 +49010,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -48437,7 +49021,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -48448,7 +49032,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -48459,7 +49043,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -48470,32 +49054,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11376" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="174">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -494,6 +494,12 @@
     <t xml:space="preserve">add LP</t>
   </si>
   <si>
+    <t xml:space="preserve">20.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paypal</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -653,10 +659,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2841"/>
+  <dimension ref="A1:G2881"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2815" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2844" activeCellId="0" sqref="D2844"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2863" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2882" activeCellId="0" sqref="A2882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48949,7 +48955,701 @@
       </c>
     </row>
     <row r="2841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2841" s="2"/>
+      <c r="A2841" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2841" s="1" t="n">
+        <v>130432</v>
+      </c>
+      <c r="C2841" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2841" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2841" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2842" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2842" s="1" t="n">
+        <v>176105</v>
+      </c>
+      <c r="C2842" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2842" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2842" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2843" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2843" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C2843" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2843" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2843" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2844" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2844" s="1" t="n">
+        <v>142502</v>
+      </c>
+      <c r="C2844" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2844" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2844" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2845" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2845" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C2845" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2845" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2845" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2846" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2846" s="1" t="n">
+        <v>107433</v>
+      </c>
+      <c r="C2846" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2846" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2846" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2847" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2847" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2847" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2847" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2847" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2848" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2848" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2848" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2848" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2848" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2849" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2849" s="1" t="n">
+        <v>16733</v>
+      </c>
+      <c r="C2849" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2849" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2849" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2850" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2850" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C2850" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2850" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2850" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2851" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2851" s="1" t="n">
+        <v>20722</v>
+      </c>
+      <c r="C2851" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2851" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2851" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2852" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2852" s="1" t="n">
+        <v>124696</v>
+      </c>
+      <c r="C2852" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2852" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2852" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2853" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2853" s="1" t="n">
+        <v>163930</v>
+      </c>
+      <c r="C2853" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2853" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2853" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2854" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2854" s="1" t="n">
+        <v>66413</v>
+      </c>
+      <c r="C2854" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2854" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2854" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2855" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2855" s="1" t="n">
+        <v>116462</v>
+      </c>
+      <c r="C2855" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2855" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2855" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2856" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2856" s="1" t="n">
+        <v>129902</v>
+      </c>
+      <c r="C2856" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2856" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2856" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2857" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2857" s="1" t="n">
+        <v>176692</v>
+      </c>
+      <c r="C2857" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2857" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2857" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2858" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2858" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2858" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2858" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2858" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2859" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2859" s="1" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C2859" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2859" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2859" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2860" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2860" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2860" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2860" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2860" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2861" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2861" s="1" t="n">
+        <v>168800</v>
+      </c>
+      <c r="C2861" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2861" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2861" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2862" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2862" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2862" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2862" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2862" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2863" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2863" s="1" t="n">
+        <v>176703</v>
+      </c>
+      <c r="C2863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2863" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2863" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2864" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2864" s="1" t="n">
+        <v>176691</v>
+      </c>
+      <c r="C2864" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2864" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2864" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2865" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2865" s="1" t="n">
+        <v>176656</v>
+      </c>
+      <c r="C2865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2865" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2865" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2866" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2866" s="1" t="n">
+        <v>176638</v>
+      </c>
+      <c r="C2866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2866" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2866" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2867" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2867" s="1" t="n">
+        <v>176634</v>
+      </c>
+      <c r="C2867" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2867" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2867" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2868" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2868" s="1" t="n">
+        <v>176633</v>
+      </c>
+      <c r="C2868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2868" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2868" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2869" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2869" s="1" t="n">
+        <v>176632</v>
+      </c>
+      <c r="C2869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2869" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2869" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2870" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2870" s="1" t="n">
+        <v>176631</v>
+      </c>
+      <c r="C2870" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2870" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2870" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2871" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2871" s="1" t="n">
+        <v>176629</v>
+      </c>
+      <c r="C2871" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2871" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2871" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2872" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2872" s="1" t="n">
+        <v>176620</v>
+      </c>
+      <c r="C2872" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2872" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2872" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2873" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2873" s="1" t="n">
+        <v>176614</v>
+      </c>
+      <c r="C2873" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2873" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2873" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2874" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2874" s="1" t="n">
+        <v>176577</v>
+      </c>
+      <c r="C2874" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2874" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2874" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2875" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2875" s="1" t="n">
+        <v>176503</v>
+      </c>
+      <c r="C2875" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2875" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2875" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2876" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2876" s="1" t="n">
+        <v>176495</v>
+      </c>
+      <c r="C2876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2876" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2876" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2877" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2877" s="1" t="n">
+        <v>176488</v>
+      </c>
+      <c r="C2877" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2877" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2878" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2878" s="1" t="n">
+        <v>176482</v>
+      </c>
+      <c r="C2878" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2878" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2878" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2879" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2879" s="1" t="n">
+        <v>176451</v>
+      </c>
+      <c r="C2879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2879" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2879" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2880" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2880" s="1" t="n">
+        <v>176447</v>
+      </c>
+      <c r="C2880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2880" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2880" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2881" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2881" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C2881" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2881" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2881" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -48977,18 +49677,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -48999,7 +49699,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -49010,7 +49710,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -49021,7 +49721,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -49032,7 +49732,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -49043,7 +49743,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -49054,32 +49754,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11720" uniqueCount="178">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -500,6 +500,18 @@
     <t xml:space="preserve">paypal</t>
   </si>
   <si>
+    <t xml:space="preserve">21.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referal link</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -659,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2881"/>
+  <dimension ref="A1:G2937"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2863" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2882" activeCellId="0" sqref="A2882"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2907" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2927" activeCellId="0" sqref="H2927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49650,6 +49662,804 @@
       <c r="E2881" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2882" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2882" s="1" t="n">
+        <v>175589</v>
+      </c>
+      <c r="C2882" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2882" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2882" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2883" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2883" s="1" t="n">
+        <v>175442</v>
+      </c>
+      <c r="C2883" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2883" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2883" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2884" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2884" s="1" t="n">
+        <v>175809</v>
+      </c>
+      <c r="C2884" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2884" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2884" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2885" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2885" s="1" t="n">
+        <v>176719</v>
+      </c>
+      <c r="C2885" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2885" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2885" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2886" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2886" s="1" t="n">
+        <v>175552</v>
+      </c>
+      <c r="C2886" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2886" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2886" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2887" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2887" s="1" t="n">
+        <v>176710</v>
+      </c>
+      <c r="C2887" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2887" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2887" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2888" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2888" s="1" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C2888" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2888" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2888" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2889" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2889" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2889" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2889" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2889" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2890" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2890" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2890" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2890" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2890" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2891" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2891" s="1" t="n">
+        <v>57264</v>
+      </c>
+      <c r="C2891" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2891" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2891" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2892" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2892" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C2892" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2892" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2892" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2893" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2893" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2893" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2893" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2893" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2894" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2894" s="1" t="n">
+        <v>142502</v>
+      </c>
+      <c r="C2894" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2894" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2894" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2895" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2895" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C2895" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2895" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2895" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2896" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2896" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2896" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2896" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2896" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2897" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2897" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2897" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2897" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2897" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2898" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2898" s="1" t="n">
+        <v>148995</v>
+      </c>
+      <c r="C2898" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2898" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2898" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2899" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2899" s="1" t="n">
+        <v>176635</v>
+      </c>
+      <c r="C2899" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2899" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2899" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2900" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2900" s="1" t="n">
+        <v>176041</v>
+      </c>
+      <c r="C2900" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2900" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2900" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2901" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2901" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C2901" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2901" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2901" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2902" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2902" s="1" t="n">
+        <v>140619</v>
+      </c>
+      <c r="C2902" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2902" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2902" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2903" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2903" s="1" t="n">
+        <v>159261</v>
+      </c>
+      <c r="C2903" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2903" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2903" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2904" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2904" s="1" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C2904" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2904" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2904" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2905" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2905" s="1" t="n">
+        <v>124696</v>
+      </c>
+      <c r="C2905" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2905" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2905" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2906" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2906" s="1" t="n">
+        <v>176488</v>
+      </c>
+      <c r="C2906" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2906" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2906" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2907" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2907" s="1" t="n">
+        <v>176703</v>
+      </c>
+      <c r="C2907" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2907" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2907" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2908" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2908" s="1" t="n">
+        <v>176447</v>
+      </c>
+      <c r="C2908" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2908" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2908" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2909" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2909" s="1" t="n">
+        <v>176614</v>
+      </c>
+      <c r="C2909" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2909" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2909" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2910" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2910" s="1" t="n">
+        <v>176632</v>
+      </c>
+      <c r="C2910" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2910" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2910" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2911" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2911" s="1" t="n">
+        <v>176638</v>
+      </c>
+      <c r="C2911" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2911" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2911" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2912" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2912" s="1" t="n">
+        <v>169651</v>
+      </c>
+      <c r="C2912" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2912" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2912" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2913" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2913" s="1" t="n">
+        <v>176495</v>
+      </c>
+      <c r="C2913" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2913" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2913" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2914" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2914" s="1" t="n">
+        <v>176482</v>
+      </c>
+      <c r="C2914" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2914" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2914" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2915" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2915" s="1" t="n">
+        <v>176451</v>
+      </c>
+      <c r="C2915" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2915" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2915" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2916" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2916" s="1" t="n">
+        <v>174049</v>
+      </c>
+      <c r="C2916" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2916" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2916" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2917" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2917" s="1" t="n">
+        <v>175772</v>
+      </c>
+      <c r="C2917" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2917" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2917" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2918" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2918" s="1" t="n">
+        <v>107433</v>
+      </c>
+      <c r="C2918" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2918" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2918" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2919" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2919" s="1" t="n">
+        <v>142502</v>
+      </c>
+      <c r="C2919" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2919" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2919" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2920" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2920" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2920" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2920" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2920" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2921" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2921" s="1" t="n">
+        <v>127455</v>
+      </c>
+      <c r="C2921" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2921" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2921" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2922" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2922" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C2922" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2922" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2922" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2923" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2923" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C2923" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2923" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2923" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2924" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2924" s="1" t="n">
+        <v>148995</v>
+      </c>
+      <c r="C2924" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2924" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2924" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2925" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2925" s="1" t="n">
+        <v>122547</v>
+      </c>
+      <c r="C2925" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2925" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2925" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2926" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2926" s="1" t="n">
+        <v>109246</v>
+      </c>
+      <c r="C2926" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2926" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2926" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2927" s="2"/>
+    </row>
+    <row r="2928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2928" s="2"/>
+    </row>
+    <row r="2929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2929" s="2"/>
+    </row>
+    <row r="2930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2930" s="2"/>
+    </row>
+    <row r="2931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2931" s="2"/>
+    </row>
+    <row r="2932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2932" s="2"/>
+    </row>
+    <row r="2933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2933" s="2"/>
+    </row>
+    <row r="2934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2934" s="2"/>
+    </row>
+    <row r="2935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2935" s="2"/>
+    </row>
+    <row r="2936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2936" s="2"/>
+    </row>
+    <row r="2937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2937" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -49677,18 +50487,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -49699,7 +50509,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -49710,7 +50520,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -49721,7 +50531,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -49732,7 +50542,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -49743,7 +50553,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -49754,32 +50564,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11720" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11980" uniqueCount="179">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -512,6 +512,9 @@
     <t xml:space="preserve">referal link</t>
   </si>
   <si>
+    <t xml:space="preserve">alinas web</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -564,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -585,6 +588,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +662,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2937"/>
+  <dimension ref="A1:G3006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2907" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2927" activeCellId="0" sqref="H2927"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2970" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2992" activeCellId="0" sqref="C2992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50429,37 +50441,1154 @@
       </c>
     </row>
     <row r="2927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2927" s="2"/>
+      <c r="A2927" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2927" s="1" t="n">
+        <v>107130</v>
+      </c>
+      <c r="C2927" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2927" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2927" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2928" s="2"/>
+      <c r="A2928" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2928" s="6" t="n">
+        <v>97392</v>
+      </c>
+      <c r="C2928" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2928" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2928" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2929" s="2"/>
+      <c r="A2929" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2929" s="1" t="n">
+        <v>110028</v>
+      </c>
+      <c r="C2929" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2929" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2929" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2930" s="2"/>
+      <c r="A2930" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2930" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C2930" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2930" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2930" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2931" s="2"/>
+      <c r="A2931" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2931" s="1" t="n">
+        <v>126993</v>
+      </c>
+      <c r="C2931" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2931" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2931" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2932" s="2"/>
+      <c r="A2932" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2932" s="1" t="n">
+        <v>149411</v>
+      </c>
+      <c r="C2932" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2932" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2932" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2933" s="2"/>
+      <c r="A2933" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2933" s="1" t="n">
+        <v>153766</v>
+      </c>
+      <c r="C2933" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2933" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2933" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2934" s="2"/>
+      <c r="A2934" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2934" s="1" t="n">
+        <v>83976</v>
+      </c>
+      <c r="C2934" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2934" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2934" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2935" s="2"/>
+      <c r="A2935" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2935" s="1" t="n">
+        <v>72324</v>
+      </c>
+      <c r="C2935" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2935" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2935" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2936" s="2"/>
+      <c r="A2936" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2936" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C2936" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2936" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2936" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2937" s="2"/>
+      <c r="A2937" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2937" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C2937" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2937" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2937" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2938" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2938" s="1" t="n">
+        <v>135217</v>
+      </c>
+      <c r="C2938" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2938" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2938" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2939" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2939" s="1" t="n">
+        <v>132772</v>
+      </c>
+      <c r="C2939" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2939" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2939" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2940" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2940" s="1" t="n">
+        <v>74665</v>
+      </c>
+      <c r="C2940" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2940" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2940" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2941" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2941" s="1" t="n">
+        <v>106698</v>
+      </c>
+      <c r="C2941" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2941" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2941" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2942" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2942" s="6" t="n">
+        <v>138730</v>
+      </c>
+      <c r="C2942" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2942" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2942" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2943" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2943" s="6" t="n">
+        <v>60543</v>
+      </c>
+      <c r="C2943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2943" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2943" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2944" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2944" s="6" t="n">
+        <v>97616</v>
+      </c>
+      <c r="C2944" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2944" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2944" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2945" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2945" s="6" t="n">
+        <v>127959</v>
+      </c>
+      <c r="C2945" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2945" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2945" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2946" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2946" s="6" t="n">
+        <v>116208</v>
+      </c>
+      <c r="C2946" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2946" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2946" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2947" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2947" s="6" t="n">
+        <v>125554</v>
+      </c>
+      <c r="C2947" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2947" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2947" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2948" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2948" s="6" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C2948" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2948" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2948" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2949" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2949" s="6" t="n">
+        <v>154730</v>
+      </c>
+      <c r="C2949" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2949" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2949" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2950" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2950" s="6" t="n">
+        <v>57617</v>
+      </c>
+      <c r="C2950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2950" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2950" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2951" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2951" s="6" t="n">
+        <v>102759</v>
+      </c>
+      <c r="C2951" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2951" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2951" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2952" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2952" s="1" t="n">
+        <v>90924</v>
+      </c>
+      <c r="C2952" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2952" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2952" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2953" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2953" s="1" t="n">
+        <v>176451</v>
+      </c>
+      <c r="C2953" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2953" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2953" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2954" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2954" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2954" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2954" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2955" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2955" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C2955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2955" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2955" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2956" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2956" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2956" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2956" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2956" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2957" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2957" s="1" t="n">
+        <v>176614</v>
+      </c>
+      <c r="C2957" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2957" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2957" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2958" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2958" s="1" t="n">
+        <v>176632</v>
+      </c>
+      <c r="C2958" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2958" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2958" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2959" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2959" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C2959" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2959" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2959" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2960" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2960" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C2960" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2960" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2960" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2961" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2961" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2961" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2961" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2961" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2962" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2962" s="1" t="n">
+        <v>106698</v>
+      </c>
+      <c r="C2962" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2962" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2962" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2963" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2963" s="1" t="n">
+        <v>176451</v>
+      </c>
+      <c r="C2963" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2963" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2963" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2964" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2964" s="1" t="n">
+        <v>174245</v>
+      </c>
+      <c r="C2964" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2964" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2964" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2965" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2965" s="1" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C2965" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2965" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2965" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2966" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2966" s="1" t="n">
+        <v>172378</v>
+      </c>
+      <c r="C2966" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2966" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2966" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2967" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2967" s="1" t="n">
+        <v>172378</v>
+      </c>
+      <c r="C2967" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2967" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2967" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2968" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2968" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C2968" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2968" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2968" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2969" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2969" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C2969" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2969" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2969" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2970" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2970" s="1" t="n">
+        <v>108107</v>
+      </c>
+      <c r="C2970" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2970" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2970" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2971" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2971" s="1" t="n">
+        <v>175451</v>
+      </c>
+      <c r="C2971" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2971" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2971" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2972" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2972" s="1" t="n">
+        <v>132772</v>
+      </c>
+      <c r="C2972" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2972" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2972" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2973" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2973" s="1" t="n">
+        <v>176721</v>
+      </c>
+      <c r="C2973" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2973" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2973" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2974" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2974" s="1" t="n">
+        <v>176718</v>
+      </c>
+      <c r="C2974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2974" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2974" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2975" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2975" s="1" t="n">
+        <v>60746</v>
+      </c>
+      <c r="C2975" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2975" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2975" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2976" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2976" s="1" t="n">
+        <v>177183</v>
+      </c>
+      <c r="C2976" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2976" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2976" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2977" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2977" s="1" t="n">
+        <v>177168</v>
+      </c>
+      <c r="C2977" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2977" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2977" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2978" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2978" s="1" t="n">
+        <v>177128</v>
+      </c>
+      <c r="C2978" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2978" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2978" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2979" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2979" s="1" t="n">
+        <v>177084</v>
+      </c>
+      <c r="C2979" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2979" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2979" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2980" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2980" s="1" t="n">
+        <v>177074</v>
+      </c>
+      <c r="C2980" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2980" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2980" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2981" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2981" s="1" t="n">
+        <v>177071</v>
+      </c>
+      <c r="C2981" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2981" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2981" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2982" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2982" s="1" t="n">
+        <v>176940</v>
+      </c>
+      <c r="C2982" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2982" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2982" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2983" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2983" s="3" t="n">
+        <v>176825</v>
+      </c>
+      <c r="C2983" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2983" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2983" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2984" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2984" s="1" t="n">
+        <v>176823</v>
+      </c>
+      <c r="C2984" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2984" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2984" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2985" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2985" s="1" t="n">
+        <v>176806</v>
+      </c>
+      <c r="C2985" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2985" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2985" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2986" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2986" s="1" t="n">
+        <v>176725</v>
+      </c>
+      <c r="C2986" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2986" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2986" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2987" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2987" s="1" t="n">
+        <v>176717</v>
+      </c>
+      <c r="C2987" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2987" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2987" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2988" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2988" s="1" t="n">
+        <v>176712</v>
+      </c>
+      <c r="C2988" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2988" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2988" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2989" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2989" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C2989" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2989" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2989" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2990" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2990" s="1" t="n">
+        <v>177128</v>
+      </c>
+      <c r="C2990" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2990" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2990" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2991" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2991" s="1" t="n">
+        <v>177183</v>
+      </c>
+      <c r="C2991" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2991" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2991" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2992" s="2"/>
+    </row>
+    <row r="2993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2993" s="2"/>
+    </row>
+    <row r="2994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2994" s="2"/>
+    </row>
+    <row r="2995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2995" s="2"/>
+    </row>
+    <row r="2996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2996" s="2"/>
+    </row>
+    <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2997" s="2"/>
+    </row>
+    <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2998" s="2"/>
+    </row>
+    <row r="2999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2999" s="2"/>
+    </row>
+    <row r="3000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3000" s="2"/>
+    </row>
+    <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3001" s="2"/>
+    </row>
+    <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3002" s="2"/>
+    </row>
+    <row r="3003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3003" s="2"/>
+    </row>
+    <row r="3004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3004" s="2"/>
+    </row>
+    <row r="3005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3005" s="2"/>
+    </row>
+    <row r="3006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3006" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -50487,18 +51616,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -50509,7 +51638,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -50520,7 +51649,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -50531,7 +51660,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -50542,7 +51671,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -50553,7 +51682,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -50564,32 +51693,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11980" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12176" uniqueCount="180">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -515,6 +515,9 @@
     <t xml:space="preserve">alinas web</t>
   </si>
   <si>
+    <t xml:space="preserve">25.07.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -567,7 +570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -588,11 +591,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,7 +635,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,10 +660,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +677,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3006"/>
+  <dimension ref="A1:G3045"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2970" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2992" activeCellId="0" sqref="C2992"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2973" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3040" activeCellId="0" sqref="A3040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50461,7 +50455,7 @@
       <c r="A2928" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2928" s="6" t="n">
+      <c r="B2928" s="3" t="n">
         <v>97392</v>
       </c>
       <c r="C2928" s="1" t="s">
@@ -50699,7 +50693,7 @@
       <c r="A2942" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2942" s="6" t="n">
+      <c r="B2942" s="3" t="n">
         <v>138730</v>
       </c>
       <c r="C2942" s="1" t="s">
@@ -50716,7 +50710,7 @@
       <c r="A2943" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2943" s="6" t="n">
+      <c r="B2943" s="3" t="n">
         <v>60543</v>
       </c>
       <c r="C2943" s="1" t="s">
@@ -50733,7 +50727,7 @@
       <c r="A2944" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2944" s="6" t="n">
+      <c r="B2944" s="3" t="n">
         <v>97616</v>
       </c>
       <c r="C2944" s="1" t="s">
@@ -50750,7 +50744,7 @@
       <c r="A2945" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2945" s="6" t="n">
+      <c r="B2945" s="3" t="n">
         <v>127959</v>
       </c>
       <c r="C2945" s="1" t="s">
@@ -50767,7 +50761,7 @@
       <c r="A2946" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2946" s="6" t="n">
+      <c r="B2946" s="3" t="n">
         <v>116208</v>
       </c>
       <c r="C2946" s="1" t="s">
@@ -50784,7 +50778,7 @@
       <c r="A2947" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2947" s="6" t="n">
+      <c r="B2947" s="3" t="n">
         <v>125554</v>
       </c>
       <c r="C2947" s="1" t="s">
@@ -50801,7 +50795,7 @@
       <c r="A2948" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2948" s="6" t="n">
+      <c r="B2948" s="3" t="n">
         <v>130577</v>
       </c>
       <c r="C2948" s="1" t="s">
@@ -50818,7 +50812,7 @@
       <c r="A2949" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2949" s="6" t="n">
+      <c r="B2949" s="3" t="n">
         <v>154730</v>
       </c>
       <c r="C2949" s="1" t="s">
@@ -50835,7 +50829,7 @@
       <c r="A2950" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2950" s="6" t="n">
+      <c r="B2950" s="3" t="n">
         <v>57617</v>
       </c>
       <c r="C2950" s="1" t="s">
@@ -50852,7 +50846,7 @@
       <c r="A2951" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2951" s="6" t="n">
+      <c r="B2951" s="3" t="n">
         <v>102759</v>
       </c>
       <c r="C2951" s="1" t="s">
@@ -51546,49 +51540,852 @@
       </c>
     </row>
     <row r="2992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2992" s="2"/>
+      <c r="A2992" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2992" s="1" t="n">
+        <v>60746</v>
+      </c>
+      <c r="C2992" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2992" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2992" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2993" s="2"/>
+      <c r="A2993" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2993" s="1" t="n">
+        <v>148995</v>
+      </c>
+      <c r="C2993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2993" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2993" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2994" s="2"/>
+      <c r="A2994" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2994" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C2994" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2994" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2994" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2995" s="2"/>
+      <c r="A2995" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2995" s="1" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C2995" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2995" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2995" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2996" s="2"/>
+      <c r="A2996" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2996" s="1" t="n">
+        <v>107486</v>
+      </c>
+      <c r="C2996" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2996" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2996" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2997" s="2"/>
+      <c r="A2997" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2997" s="1" t="n">
+        <v>36483</v>
+      </c>
+      <c r="C2997" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2997" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2997" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2998" s="2"/>
+      <c r="A2998" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2998" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C2998" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2998" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2998" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2999" s="2"/>
+      <c r="A2999" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2999" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C2999" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2999" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2999" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3000" s="2"/>
+      <c r="A3000" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3000" s="1" t="n">
+        <v>177128</v>
+      </c>
+      <c r="C3000" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3000" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3000" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3001" s="2"/>
+      <c r="A3001" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3001" s="1" t="n">
+        <v>121744</v>
+      </c>
+      <c r="C3001" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3001" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3001" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3002" s="2"/>
+      <c r="A3002" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3002" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3002" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3002" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3002" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3003" s="2"/>
+      <c r="A3003" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3003" s="1" t="n">
+        <v>135217</v>
+      </c>
+      <c r="C3003" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3003" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3003" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3004" s="2"/>
+      <c r="A3004" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3004" s="1" t="n">
+        <v>107130</v>
+      </c>
+      <c r="C3004" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3004" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3004" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3005" s="2"/>
+      <c r="A3005" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3005" s="1" t="n">
+        <v>177128</v>
+      </c>
+      <c r="C3005" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3005" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3005" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3006" s="2"/>
+      <c r="A3006" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3006" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3006" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3006" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3006" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3007" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3007" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3007" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3007" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3007" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3008" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3008" s="1" t="n">
+        <v>169729</v>
+      </c>
+      <c r="C3008" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3008" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3008" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3009" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3009" s="1" t="n">
+        <v>66344</v>
+      </c>
+      <c r="C3009" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3009" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3009" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3010" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3010" s="1" t="n">
+        <v>177071</v>
+      </c>
+      <c r="C3010" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3010" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3010" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3011" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3011" s="1" t="n">
+        <v>177207</v>
+      </c>
+      <c r="C3011" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3011" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3011" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3012" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3012" s="1" t="n">
+        <v>177086</v>
+      </c>
+      <c r="C3012" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3012" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3012" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3013" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3013" s="1" t="n">
+        <v>168410</v>
+      </c>
+      <c r="C3013" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3013" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3013" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3014" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3014" s="1" t="n">
+        <v>72324</v>
+      </c>
+      <c r="C3014" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3014" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3014" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3015" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3015" s="1" t="n">
+        <v>163861</v>
+      </c>
+      <c r="C3015" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3015" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3015" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3016" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3016" s="1" t="n">
+        <v>35637</v>
+      </c>
+      <c r="C3016" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3016" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3016" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3017" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3017" s="1" t="n">
+        <v>24841</v>
+      </c>
+      <c r="C3017" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3017" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3017" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3018" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3018" s="1" t="n">
+        <v>102245</v>
+      </c>
+      <c r="C3018" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3018" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3018" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3019" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3019" s="1" t="n">
+        <v>177168</v>
+      </c>
+      <c r="C3019" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3019" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3019" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3020" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3020" s="1" t="n">
+        <v>177207</v>
+      </c>
+      <c r="C3020" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3020" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3020" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3021" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3021" s="1" t="n">
+        <v>177084</v>
+      </c>
+      <c r="C3021" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3021" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3021" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3022" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3022" s="1" t="n">
+        <v>177260</v>
+      </c>
+      <c r="C3022" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3022" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3022" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3023" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3023" s="1" t="n">
+        <v>177233</v>
+      </c>
+      <c r="C3023" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3023" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3023" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3024" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3024" s="1" t="n">
+        <v>177222</v>
+      </c>
+      <c r="C3024" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3024" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3024" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3025" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3025" s="1" t="n">
+        <v>177220</v>
+      </c>
+      <c r="C3025" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3025" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3025" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3026" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3026" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3026" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3026" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3026" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3027" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3027" s="1" t="n">
+        <v>126105</v>
+      </c>
+      <c r="C3027" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3027" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3027" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3028" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3028" s="1" t="n">
+        <v>126170</v>
+      </c>
+      <c r="C3028" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3028" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3028" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3029" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3029" s="1" t="n">
+        <v>126281</v>
+      </c>
+      <c r="C3029" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3029" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3029" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3030" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3030" s="1" t="n">
+        <v>126304</v>
+      </c>
+      <c r="C3030" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3030" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3030" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3031" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3031" s="1" t="n">
+        <v>126306</v>
+      </c>
+      <c r="C3031" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3031" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3031" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3032" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3032" s="1" t="n">
+        <v>126313</v>
+      </c>
+      <c r="C3032" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3032" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3032" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3033" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3033" s="1" t="n">
+        <v>126322</v>
+      </c>
+      <c r="C3033" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3033" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3033" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3034" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3034" s="1" t="n">
+        <v>126410</v>
+      </c>
+      <c r="C3034" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3034" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3034" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3035" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3035" s="1" t="n">
+        <v>126412</v>
+      </c>
+      <c r="C3035" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3035" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3035" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3036" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3036" s="1" t="n">
+        <v>126417</v>
+      </c>
+      <c r="C3036" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3036" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3036" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3037" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3037" s="1" t="n">
+        <v>126420</v>
+      </c>
+      <c r="C3037" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3037" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3037" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3038" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3038" s="1" t="n">
+        <v>175795</v>
+      </c>
+      <c r="C3038" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3038" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3038" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3039" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3039" s="1" t="n">
+        <v>174964</v>
+      </c>
+      <c r="C3039" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3039" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3039" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3040" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3040" s="1" t="n">
+        <v>163885</v>
+      </c>
+      <c r="C3040" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3040" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3040" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3041" s="2"/>
+    </row>
+    <row r="3042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3042" s="2"/>
+    </row>
+    <row r="3043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3043" s="2"/>
+    </row>
+    <row r="3044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3044" s="2"/>
+    </row>
+    <row r="3045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3045" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -51609,25 +52406,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3040 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -51638,7 +52435,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -51649,7 +52446,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -51660,7 +52457,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -51671,7 +52468,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -51682,7 +52479,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -51693,32 +52490,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12176" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12324" uniqueCount="181">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -518,6 +518,9 @@
     <t xml:space="preserve">25.07.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">26.07.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -635,7 +638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -660,6 +663,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3045"/>
+  <dimension ref="A1:G3081"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2973" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3040" activeCellId="0" sqref="A3040"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3078" activeCellId="0" sqref="A3078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52373,19 +52380,645 @@
       </c>
     </row>
     <row r="3041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3041" s="2"/>
+      <c r="A3041" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3041" s="1" t="n">
+        <v>121744</v>
+      </c>
+      <c r="C3041" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3041" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3041" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3042" s="2"/>
+      <c r="A3042" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3042" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="C3042" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3042" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3042" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3043" s="2"/>
+      <c r="A3043" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3043" s="1" t="n">
+        <v>177084</v>
+      </c>
+      <c r="C3043" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3043" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3043" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3044" s="2"/>
+      <c r="A3044" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3044" s="1" t="n">
+        <v>146188</v>
+      </c>
+      <c r="C3044" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3044" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3044" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3045" s="2"/>
+      <c r="A3045" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3045" s="1" t="n">
+        <v>118257</v>
+      </c>
+      <c r="C3045" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3045" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3045" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3046" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3046" s="1" t="n">
+        <v>176708</v>
+      </c>
+      <c r="C3046" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3046" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3046" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3047" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3047" s="1" t="n">
+        <v>176719</v>
+      </c>
+      <c r="C3047" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3047" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3047" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3048" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3048" s="1" t="n">
+        <v>176635</v>
+      </c>
+      <c r="C3048" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3048" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3048" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3049" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3049" s="1" t="n">
+        <v>132772</v>
+      </c>
+      <c r="C3049" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3049" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3049" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3050" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3050" s="6" t="n">
+        <v>58837</v>
+      </c>
+      <c r="C3050" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3050" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3050" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3051" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3051" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C3051" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3051" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3051" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3052" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3052" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3052" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3052" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3052" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3053" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3053" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C3053" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3053" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3053" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3054" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3054" s="6" t="n">
+        <v>176761</v>
+      </c>
+      <c r="C3054" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3054" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3054" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3055" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3055" s="1" t="n">
+        <v>110101</v>
+      </c>
+      <c r="C3055" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3055" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3055" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3056" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3056" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3056" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3056" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3056" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3057" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3057" s="1" t="n">
+        <v>177546</v>
+      </c>
+      <c r="C3057" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3057" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3057" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3058" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3058" s="1" t="n">
+        <v>177537</v>
+      </c>
+      <c r="C3058" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3058" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3058" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3059" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3059" s="1" t="n">
+        <v>177534</v>
+      </c>
+      <c r="C3059" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3059" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3059" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3060" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3060" s="3" t="n">
+        <v>177448</v>
+      </c>
+      <c r="C3060" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3060" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3060" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3061" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3061" s="1" t="n">
+        <v>177451</v>
+      </c>
+      <c r="C3061" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3061" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3061" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3062" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3062" s="3" t="n">
+        <v>177423</v>
+      </c>
+      <c r="C3062" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3062" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3062" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3063" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3063" s="1" t="n">
+        <v>177395</v>
+      </c>
+      <c r="C3063" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3063" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3063" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3064" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3064" s="1" t="n">
+        <v>177187</v>
+      </c>
+      <c r="C3064" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3064" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3064" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3065" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3065" s="1" t="n">
+        <v>176820</v>
+      </c>
+      <c r="C3065" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3065" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3065" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3066" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3066" s="1" t="n">
+        <v>176772</v>
+      </c>
+      <c r="C3066" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3066" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3066" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3067" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3067" s="1" t="n">
+        <v>176816</v>
+      </c>
+      <c r="C3067" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3067" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3067" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3068" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3068" s="1" t="n">
+        <v>177411</v>
+      </c>
+      <c r="C3068" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3068" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3068" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3069" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3069" s="1" t="n">
+        <v>177077</v>
+      </c>
+      <c r="C3069" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3069" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3069" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3070" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3070" s="1" t="n">
+        <v>88873</v>
+      </c>
+      <c r="C3070" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3070" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3070" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3071" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3071" s="1" t="n">
+        <v>72324</v>
+      </c>
+      <c r="C3071" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3071" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3071" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3072" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3072" s="1" t="n">
+        <v>7043</v>
+      </c>
+      <c r="C3072" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3072" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3072" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3073" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3073" s="1" t="n">
+        <v>57264</v>
+      </c>
+      <c r="C3073" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3073" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3073" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3074" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3074" s="1" t="n">
+        <v>97382</v>
+      </c>
+      <c r="C3074" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3074" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3074" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3075" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3075" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C3075" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3075" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3075" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3076" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3076" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C3076" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3076" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3076" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3077" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3077" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C3077" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3077" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3077" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3078" s="2"/>
+    </row>
+    <row r="3079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3079" s="2"/>
+    </row>
+    <row r="3080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3080" s="2"/>
+    </row>
+    <row r="3081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3081" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -52406,25 +53039,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3040 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -52435,7 +53068,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -52446,7 +53079,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -52457,7 +53090,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -52468,7 +53101,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -52479,7 +53112,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -52490,32 +53123,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12324" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12340" uniqueCount="181">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -638,7 +638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,10 +663,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +680,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3081"/>
+  <dimension ref="A1:G3090"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3078" activeCellId="0" sqref="A3078"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3082" activeCellId="0" sqref="C3082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52536,7 +52532,7 @@
       <c r="A3050" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B3050" s="6" t="n">
+      <c r="B3050" s="1" t="n">
         <v>58837</v>
       </c>
       <c r="C3050" s="1" t="s">
@@ -52604,7 +52600,7 @@
       <c r="A3054" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B3054" s="6" t="n">
+      <c r="B3054" s="1" t="n">
         <v>176761</v>
       </c>
       <c r="C3054" s="1" t="s">
@@ -53009,16 +53005,99 @@
       </c>
     </row>
     <row r="3078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3078" s="2"/>
+      <c r="A3078" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3078" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3078" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3078" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3078" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3079" s="2"/>
+      <c r="A3079" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3079" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C3079" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3079" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3079" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3080" s="2"/>
+      <c r="A3080" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3080" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3080" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3080" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3080" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3081" s="2"/>
+      <c r="A3081" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3081" s="1" t="n">
+        <v>172705</v>
+      </c>
+      <c r="C3081" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3081" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3081" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3082" s="2"/>
+    </row>
+    <row r="3083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3083" s="2"/>
+    </row>
+    <row r="3084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3084" s="2"/>
+    </row>
+    <row r="3085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3085" s="2"/>
+    </row>
+    <row r="3086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3086" s="2"/>
+    </row>
+    <row r="3087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3087" s="2"/>
+    </row>
+    <row r="3088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3088" s="2"/>
+    </row>
+    <row r="3089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3089" s="2"/>
+    </row>
+    <row r="3090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3090" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12340" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12460" uniqueCount="182">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -521,6 +521,9 @@
     <t xml:space="preserve">26.07.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">27.07.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -680,10 +683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3090"/>
+  <dimension ref="A1:G3111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3082" activeCellId="0" sqref="C3082"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3097" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3111" activeCellId="0" sqref="E3111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53073,31 +53076,514 @@
       </c>
     </row>
     <row r="3082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3082" s="2"/>
+      <c r="A3082" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3082" s="1" t="n">
+        <v>50812</v>
+      </c>
+      <c r="C3082" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3082" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3082" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3083" s="2"/>
+      <c r="A3083" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3083" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C3083" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3083" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3083" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3084" s="2"/>
+      <c r="A3084" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3084" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3084" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3084" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3084" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3085" s="2"/>
+      <c r="A3085" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3085" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="C3085" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3085" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3085" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3086" s="2"/>
+      <c r="A3086" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3086" s="1" t="n">
+        <v>148813</v>
+      </c>
+      <c r="C3086" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3086" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3086" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3087" s="2"/>
+      <c r="A3087" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3087" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3087" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3087" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3087" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3088" s="2"/>
+      <c r="A3088" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3088" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3088" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3088" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3088" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3089" s="2"/>
+      <c r="A3089" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3089" s="1" t="n">
+        <v>60746</v>
+      </c>
+      <c r="C3089" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3089" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3089" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3090" s="2"/>
+      <c r="A3090" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3090" s="1" t="n">
+        <v>121884</v>
+      </c>
+      <c r="C3090" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3090" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3090" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3091" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3091" s="1" t="n">
+        <v>121884</v>
+      </c>
+      <c r="C3091" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3091" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3091" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3092" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3092" s="1" t="n">
+        <v>166117</v>
+      </c>
+      <c r="C3092" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3092" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3092" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3093" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3093" s="1" t="n">
+        <v>88873</v>
+      </c>
+      <c r="C3093" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3093" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3093" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3094" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3094" s="1" t="n">
+        <v>86792</v>
+      </c>
+      <c r="C3094" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3094" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3094" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3095" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3095" s="1" t="n">
+        <v>175768</v>
+      </c>
+      <c r="C3095" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3095" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3095" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3096" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3096" s="1" t="n">
+        <v>177777</v>
+      </c>
+      <c r="C3096" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3096" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3096" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3097" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3097" s="1" t="n">
+        <v>177701</v>
+      </c>
+      <c r="C3097" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3097" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3097" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3098" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3098" s="1" t="n">
+        <v>177651</v>
+      </c>
+      <c r="C3098" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3098" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3098" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3099" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3099" s="1" t="n">
+        <v>177651</v>
+      </c>
+      <c r="C3099" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3099" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3099" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3100" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3100" s="1" t="n">
+        <v>177605</v>
+      </c>
+      <c r="C3100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3101" s="1" t="n">
+        <v>177572</v>
+      </c>
+      <c r="C3101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3102" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3102" s="1" t="n">
+        <v>177563</v>
+      </c>
+      <c r="C3102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3103" s="1" t="n">
+        <v>177516</v>
+      </c>
+      <c r="C3103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3104" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3104" s="1" t="n">
+        <v>177504</v>
+      </c>
+      <c r="C3104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3105" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3105" s="1" t="n">
+        <v>177438</v>
+      </c>
+      <c r="C3105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3105" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3106" s="1" t="n">
+        <v>177260</v>
+      </c>
+      <c r="C3106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3107" s="1" t="n">
+        <v>176940</v>
+      </c>
+      <c r="C3107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3107" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3108" s="1" t="n">
+        <v>177222</v>
+      </c>
+      <c r="C3108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3108" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3109" s="1" t="n">
+        <v>177086</v>
+      </c>
+      <c r="C3109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3109" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3110" s="1" t="n">
+        <v>177701</v>
+      </c>
+      <c r="C3110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3110" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3111" s="1" t="n">
+        <v>177504</v>
+      </c>
+      <c r="C3111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3111" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -53125,18 +53611,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -53147,7 +53633,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -53158,7 +53644,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -53169,7 +53655,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -53180,7 +53666,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -53191,7 +53677,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -53202,32 +53688,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12460" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12576" uniqueCount="187">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -524,6 +524,21 @@
     <t xml:space="preserve">27.07.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">28.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jane web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">push&amp;showcase</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -683,10 +698,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3111"/>
+  <dimension ref="A1:G3142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3097" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3111" activeCellId="0" sqref="E3111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3138" activeCellId="0" sqref="G3138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53584,6 +53599,505 @@
       <c r="E3111" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3112" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3112" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3113" s="1" t="n">
+        <v>66413</v>
+      </c>
+      <c r="C3113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3113" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3113" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3114" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3114" s="1" t="n">
+        <v>110101</v>
+      </c>
+      <c r="C3114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3114" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3115" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3115" s="1" t="n">
+        <v>140263</v>
+      </c>
+      <c r="C3115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3116" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3116" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C3116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3117" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3117" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3117" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3118" s="1" t="n">
+        <v>173850</v>
+      </c>
+      <c r="C3118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3118" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3119" s="1" t="n">
+        <v>169155</v>
+      </c>
+      <c r="C3119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3119" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3120" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3120" s="1" t="n">
+        <v>24471</v>
+      </c>
+      <c r="C3120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3120" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3121" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3121" s="1" t="n">
+        <v>68177</v>
+      </c>
+      <c r="C3121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3122" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C3122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3122" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3122" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3123" s="1" t="n">
+        <v>176761</v>
+      </c>
+      <c r="C3123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3123" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3124" s="1" t="n">
+        <v>177537</v>
+      </c>
+      <c r="C3124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3124" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3125" s="1" t="n">
+        <v>177546</v>
+      </c>
+      <c r="C3125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3125" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3126" s="1" t="n">
+        <v>176966</v>
+      </c>
+      <c r="C3126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3127" s="1" t="n">
+        <v>177423</v>
+      </c>
+      <c r="C3127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3127" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3128" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3128" s="1" t="n">
+        <v>177267</v>
+      </c>
+      <c r="C3128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3128" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3129" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3129" s="1" t="n">
+        <v>176821</v>
+      </c>
+      <c r="C3129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3129" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3130" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3130" s="1" t="n">
+        <v>177886</v>
+      </c>
+      <c r="C3130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3131" s="1" t="n">
+        <v>17969</v>
+      </c>
+      <c r="C3131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3131" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3132" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C3132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3132" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3133" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3133" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3133" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3134" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3134" s="1" t="n">
+        <v>68177</v>
+      </c>
+      <c r="C3134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3135" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3136" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3137" s="1" t="n">
+        <v>163861</v>
+      </c>
+      <c r="C3137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3138" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3139" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C3139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3140" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3141" s="2"/>
+    </row>
+    <row r="3142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3142" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -53611,18 +54125,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -53633,7 +54147,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -53644,7 +54158,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -53655,7 +54169,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -53666,7 +54180,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -53677,7 +54191,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -53688,32 +54202,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12576" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12788" uniqueCount="189">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -539,6 +539,12 @@
     <t xml:space="preserve">push&amp;showcase</t>
   </si>
   <si>
+    <t xml:space="preserve">31.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafic questions</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -656,7 +662,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,6 +687,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,10 +708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3142"/>
+  <dimension ref="A1:G3202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3138" activeCellId="0" sqref="G3138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3141" activeCellId="0" sqref="A3141:E3193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54094,10 +54104,932 @@
       </c>
     </row>
     <row r="3141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3141" s="2"/>
+      <c r="A3141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3141" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C3141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3141" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3142" s="2"/>
+      <c r="A3142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3142" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="C3142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3142" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3143" s="1" t="n">
+        <v>177572</v>
+      </c>
+      <c r="C3143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3144" s="6" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3145" s="1" t="n">
+        <v>175757</v>
+      </c>
+      <c r="C3145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3145" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3146" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C3146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3146" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3147" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3147" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3148" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C3148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3148" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3149" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3149" s="1" t="n">
+        <v>169155</v>
+      </c>
+      <c r="C3149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3150" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3150" s="1" t="n">
+        <v>141301</v>
+      </c>
+      <c r="C3150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3151" s="1" t="n">
+        <v>172495</v>
+      </c>
+      <c r="C3151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3152" s="1" t="n">
+        <v>106698</v>
+      </c>
+      <c r="C3152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3153" s="1" t="n">
+        <v>84166</v>
+      </c>
+      <c r="C3153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3154" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3154" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3154" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3155" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C3155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3155" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3156" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C3156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3156" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3156" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3157" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3157" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3158" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3158" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3159" s="1" t="n">
+        <v>177532</v>
+      </c>
+      <c r="C3159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3159" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3160" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3160" s="1" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C3160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3160" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3161" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3161" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3162" s="1" t="n">
+        <v>154805</v>
+      </c>
+      <c r="C3162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3162" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3163" s="1" t="n">
+        <v>177995</v>
+      </c>
+      <c r="C3163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3164" s="1" t="n">
+        <v>178170</v>
+      </c>
+      <c r="C3164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3164" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3165" s="1" t="n">
+        <v>178135</v>
+      </c>
+      <c r="C3165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3165" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3166" s="1" t="n">
+        <v>178101</v>
+      </c>
+      <c r="C3166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3166" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3167" s="1" t="n">
+        <v>178090</v>
+      </c>
+      <c r="C3167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3167" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3168" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3168" s="1" t="n">
+        <v>178085</v>
+      </c>
+      <c r="C3168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3168" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3169" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3169" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3170" s="1" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C3170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3170" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3171" s="1" t="n">
+        <v>177945</v>
+      </c>
+      <c r="C3171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3172" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3172" s="1" t="n">
+        <v>177914</v>
+      </c>
+      <c r="C3172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3172" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3173" s="1" t="n">
+        <v>177912</v>
+      </c>
+      <c r="C3173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3173" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3174" s="1" t="n">
+        <v>177889</v>
+      </c>
+      <c r="C3174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3174" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3175" s="1" t="n">
+        <v>177889</v>
+      </c>
+      <c r="C3175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3175" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3176" s="1" t="n">
+        <v>177870</v>
+      </c>
+      <c r="C3176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3176" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3177" s="1" t="n">
+        <v>177854</v>
+      </c>
+      <c r="C3177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3177" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3178" s="1" t="n">
+        <v>177845</v>
+      </c>
+      <c r="C3178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3179" s="1" t="n">
+        <v>177800</v>
+      </c>
+      <c r="C3179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3179" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3180" s="1" t="n">
+        <v>177796</v>
+      </c>
+      <c r="C3180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3180" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3181" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3181" s="1" t="n">
+        <v>177795</v>
+      </c>
+      <c r="C3181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3181" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3182" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3182" s="1" t="n">
+        <v>177795</v>
+      </c>
+      <c r="C3182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3182" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3183" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3183" s="1" t="n">
+        <v>177794</v>
+      </c>
+      <c r="C3183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3183" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3184" s="1" t="n">
+        <v>177777</v>
+      </c>
+      <c r="C3184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3185" s="1" t="n">
+        <v>177168</v>
+      </c>
+      <c r="C3185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3185" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3185" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3186" s="1" t="n">
+        <v>177651</v>
+      </c>
+      <c r="C3186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3187" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3187" s="1" t="n">
+        <v>169504</v>
+      </c>
+      <c r="C3187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3187" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3188" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3188" s="1" t="n">
+        <v>177504</v>
+      </c>
+      <c r="C3188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3188" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3189" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3189" s="1" t="n">
+        <v>177605</v>
+      </c>
+      <c r="C3189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3189" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3190" s="1" t="n">
+        <v>176806</v>
+      </c>
+      <c r="C3190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3190" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3191" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3191" s="1" t="n">
+        <v>178135</v>
+      </c>
+      <c r="C3191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3192" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3192" s="1" t="n">
+        <v>177889</v>
+      </c>
+      <c r="C3192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3192" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3193" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3193" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3193" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3194" s="2"/>
+    </row>
+    <row r="3195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3195" s="2"/>
+    </row>
+    <row r="3196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3196" s="2"/>
+    </row>
+    <row r="3197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3197" s="2"/>
+    </row>
+    <row r="3198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3198" s="2"/>
+    </row>
+    <row r="3199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3199" s="2"/>
+    </row>
+    <row r="3200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3200" s="2"/>
+    </row>
+    <row r="3201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3201" s="2"/>
+    </row>
+    <row r="3202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3202" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -54118,25 +55050,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3141:E3193 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -54147,7 +55079,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -54158,7 +55090,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -54169,7 +55101,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -54180,7 +55112,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -54191,7 +55123,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -54202,32 +55134,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12788" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12924" uniqueCount="191">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -545,6 +545,12 @@
     <t xml:space="preserve">trafic questions</t>
   </si>
   <si>
+    <t xml:space="preserve">01.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -662,7 +668,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -687,10 +693,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3202"/>
+  <dimension ref="A1:G3228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3141" activeCellId="0" sqref="A3141:E3193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3205" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3228" activeCellId="0" sqref="A3228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54158,7 +54160,7 @@
       <c r="A3144" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3144" s="6" t="n">
+      <c r="B3144" s="1" t="n">
         <v>130577</v>
       </c>
       <c r="C3144" s="1" t="s">
@@ -55005,31 +55007,585 @@
       </c>
     </row>
     <row r="3194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3194" s="2"/>
+      <c r="A3194" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3194" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3194" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3194" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3195" s="2"/>
+      <c r="A3195" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3195" s="1" t="n">
+        <v>106698</v>
+      </c>
+      <c r="C3195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3195" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3195" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3196" s="2"/>
+      <c r="A3196" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3196" s="1" t="n">
+        <v>142502</v>
+      </c>
+      <c r="C3196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3196" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3196" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3197" s="2"/>
+      <c r="A3197" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3197" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C3197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3197" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3197" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3198" s="2"/>
+      <c r="A3198" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3198" s="1" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C3198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3198" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3199" s="2"/>
+      <c r="A3199" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3199" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3199" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3200" s="2"/>
+      <c r="A3200" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3200" s="1" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C3200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3200" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3201" s="2"/>
+      <c r="A3201" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3201" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="C3201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3201" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3202" s="2"/>
+      <c r="A3202" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3202" s="1" t="n">
+        <v>177168</v>
+      </c>
+      <c r="C3202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3202" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3203" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3203" s="1" t="n">
+        <v>177572</v>
+      </c>
+      <c r="C3203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3203" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3204" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3204" s="1" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C3204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3204" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3204" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3205" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3205" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3205" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3205" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3206" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3206" s="1" t="n">
+        <v>172227</v>
+      </c>
+      <c r="C3206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3206" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3207" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3207" s="1" t="n">
+        <v>175991</v>
+      </c>
+      <c r="C3207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3207" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3207" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3208" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3208" s="1" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C3208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3208" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3209" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3209" s="1" t="n">
+        <v>177795</v>
+      </c>
+      <c r="C3209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3209" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3210" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3210" s="1" t="n">
+        <v>177795</v>
+      </c>
+      <c r="C3210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3210" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3211" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3211" s="1" t="n">
+        <v>177870</v>
+      </c>
+      <c r="C3211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3212" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3212" s="1" t="n">
+        <v>177945</v>
+      </c>
+      <c r="C3212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3212" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3213" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3213" s="1" t="n">
+        <v>178090</v>
+      </c>
+      <c r="C3213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3214" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3214" s="1" t="n">
+        <v>177854</v>
+      </c>
+      <c r="C3214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3214" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3215" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3215" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3215" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3215" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3216" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3216" s="1" t="n">
+        <v>16462</v>
+      </c>
+      <c r="C3216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3216" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3217" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3217" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3217" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3217" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3218" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3218" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C3218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3218" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3218" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3219" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3219" s="1" t="n">
+        <v>154228</v>
+      </c>
+      <c r="C3219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3219" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3219" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3220" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3220" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C3220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3220" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3220" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3221" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3221" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C3221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3221" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3221" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3222" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3222" s="1" t="n">
+        <v>90924</v>
+      </c>
+      <c r="C3222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3222" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3222" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3223" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3223" s="1" t="n">
+        <v>57264</v>
+      </c>
+      <c r="C3223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3223" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3223" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3224" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3224" s="1" t="n">
+        <v>5413</v>
+      </c>
+      <c r="C3224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3224" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3224" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3225" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3225" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3225" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3225" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3226" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3226" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C3226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3226" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3227" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3227" s="1" t="n">
+        <v>120455</v>
+      </c>
+      <c r="C3227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3227" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3228" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -55050,25 +55606,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3141:E3193 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -55079,7 +55635,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -55090,7 +55646,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -55101,7 +55657,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -55112,7 +55668,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -55123,7 +55679,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -55134,32 +55690,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12924" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13080" uniqueCount="193">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -551,6 +551,12 @@
     <t xml:space="preserve">approval rate</t>
   </si>
   <si>
+    <t xml:space="preserve">02.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other account</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -710,10 +716,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3228"/>
+  <dimension ref="A1:G3278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3205" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3228" activeCellId="0" sqref="A3228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3267" activeCellId="0" sqref="A3267:E3278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55585,7 +55591,703 @@
       </c>
     </row>
     <row r="3228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3228" s="4"/>
+      <c r="A3228" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3228" s="1" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C3228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3228" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3229" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3229" s="1" t="n">
+        <v>177143</v>
+      </c>
+      <c r="C3229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3229" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3230" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3230" s="1" t="n">
+        <v>48972</v>
+      </c>
+      <c r="C3230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3230" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3231" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3231" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3231" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3232" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3232" s="1" t="n">
+        <v>132591</v>
+      </c>
+      <c r="C3232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3232" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3232" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3233" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3233" s="1" t="n">
+        <v>56788</v>
+      </c>
+      <c r="C3233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3233" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3233" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3234" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3234" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C3234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3234" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3234" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3235" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3235" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C3235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3235" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3235" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3236" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3236" s="1" t="n">
+        <v>121817</v>
+      </c>
+      <c r="C3236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3236" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3236" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3237" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3237" s="1" t="n">
+        <v>92899</v>
+      </c>
+      <c r="C3237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3237" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3237" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3238" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3238" s="1" t="n">
+        <v>178456</v>
+      </c>
+      <c r="C3238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3238" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3239" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3239" s="1" t="n">
+        <v>176719</v>
+      </c>
+      <c r="C3239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3239" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3240" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3240" s="1" t="n">
+        <v>176872</v>
+      </c>
+      <c r="C3240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3240" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3241" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3241" s="1" t="n">
+        <v>108204</v>
+      </c>
+      <c r="C3241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3241" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3241" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3242" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3242" s="1" t="n">
+        <v>178459</v>
+      </c>
+      <c r="C3242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3242" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3242" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3243" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3243" s="1" t="n">
+        <v>178432</v>
+      </c>
+      <c r="C3243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3243" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3244" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3244" s="1" t="n">
+        <v>178314</v>
+      </c>
+      <c r="C3244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3244" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3244" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3245" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3245" s="1" t="n">
+        <v>178324</v>
+      </c>
+      <c r="C3245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3245" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3245" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3246" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3246" s="1" t="n">
+        <v>178341</v>
+      </c>
+      <c r="C3246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3246" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3247" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3247" s="1" t="n">
+        <v>178292</v>
+      </c>
+      <c r="C3247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3247" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3248" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3248" s="1" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C3248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3248" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3248" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3249" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3249" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3249" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3249" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3250" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3250" s="1" t="n">
+        <v>178022</v>
+      </c>
+      <c r="C3250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3250" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3251" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3251" s="1" t="n">
+        <v>178092</v>
+      </c>
+      <c r="C3251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3251" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3252" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3252" s="1" t="n">
+        <v>178052</v>
+      </c>
+      <c r="C3252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3252" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3252" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3253" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3253" s="1" t="n">
+        <v>178061</v>
+      </c>
+      <c r="C3253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3253" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3254" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3254" s="1" t="n">
+        <v>177207</v>
+      </c>
+      <c r="C3254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3254" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3255" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3255" s="1" t="n">
+        <v>178536</v>
+      </c>
+      <c r="C3255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3255" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3256" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3256" s="1" t="n">
+        <v>178534</v>
+      </c>
+      <c r="C3256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3256" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3257" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3257" s="1" t="n">
+        <v>178519</v>
+      </c>
+      <c r="C3257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3257" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3258" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3258" s="1" t="n">
+        <v>178402</v>
+      </c>
+      <c r="C3258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3258" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3259" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3259" s="3" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C3259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3259" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3260" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3260" s="1" t="n">
+        <v>178397</v>
+      </c>
+      <c r="C3260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3260" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3261" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3261" s="1" t="n">
+        <v>178393</v>
+      </c>
+      <c r="C3261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3261" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3262" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3262" s="1" t="n">
+        <v>178389</v>
+      </c>
+      <c r="C3262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3263" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3263" s="1" t="n">
+        <v>178353</v>
+      </c>
+      <c r="C3263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3264" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3264" s="1" t="n">
+        <v>178341</v>
+      </c>
+      <c r="C3264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3264" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3265" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3265" s="1" t="n">
+        <v>178251</v>
+      </c>
+      <c r="C3265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3265" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3266" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3266" s="1" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C3266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3266" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3267" s="4"/>
+    </row>
+    <row r="3268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3268" s="4"/>
+    </row>
+    <row r="3269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3269" s="4"/>
+    </row>
+    <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3270" s="4"/>
+    </row>
+    <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3271" s="4"/>
+    </row>
+    <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3272" s="4"/>
+    </row>
+    <row r="3273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3273" s="4"/>
+    </row>
+    <row r="3274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3274" s="4"/>
+    </row>
+    <row r="3275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3275" s="4"/>
+    </row>
+    <row r="3276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3276" s="4"/>
+    </row>
+    <row r="3277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3277" s="4"/>
+    </row>
+    <row r="3278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3278" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -55606,25 +56308,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3267:E3278 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -55635,7 +56337,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -55646,7 +56348,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -55657,7 +56359,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -55668,7 +56370,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -55679,7 +56381,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -55690,32 +56392,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13080" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13196" uniqueCount="194">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -557,6 +557,9 @@
     <t xml:space="preserve">other account</t>
   </si>
   <si>
+    <t xml:space="preserve">03.08.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -716,10 +719,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3278"/>
+  <dimension ref="A1:G3309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3267" activeCellId="0" sqref="A3267:E3278"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3281" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3296" activeCellId="0" sqref="A3296:F3310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56254,40 +56257,539 @@
       </c>
     </row>
     <row r="3267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3267" s="4"/>
+      <c r="A3267" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3267" s="1" t="n">
+        <v>127455</v>
+      </c>
+      <c r="C3267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3267" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3267" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3268" s="4"/>
+      <c r="A3268" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3268" s="1" t="n">
+        <v>80607</v>
+      </c>
+      <c r="C3268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3268" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3269" s="4"/>
+      <c r="A3269" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3269" s="1" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C3269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3269" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3270" s="4"/>
+      <c r="A3270" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3270" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C3270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3270" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3270" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3271" s="4"/>
+      <c r="A3271" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3271" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C3271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3271" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3271" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3272" s="4"/>
+      <c r="A3272" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3272" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C3272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3272" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3272" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3273" s="4"/>
+      <c r="A3273" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3273" s="1" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C3273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3273" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3274" s="4"/>
+      <c r="A3274" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3274" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3274" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3275" s="4"/>
+      <c r="A3275" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3275" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3275" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3276" s="4"/>
+      <c r="A3276" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3276" s="1" t="n">
+        <v>158887</v>
+      </c>
+      <c r="C3276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3276" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3277" s="4"/>
+      <c r="A3277" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3277" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3277" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3278" s="4"/>
+      <c r="A3278" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3278" s="1" t="n">
+        <v>178456</v>
+      </c>
+      <c r="C3278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3278" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3279" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3279" s="1" t="n">
+        <v>148590</v>
+      </c>
+      <c r="C3279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3279" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3280" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3280" s="1" t="n">
+        <v>50996</v>
+      </c>
+      <c r="C3280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3280" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3280" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3281" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3281" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3281" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3281" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3282" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3282" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3282" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3282" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3283" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3283" s="1" t="n">
+        <v>167799</v>
+      </c>
+      <c r="C3283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3283" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3283" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3284" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3284" s="1" t="n">
+        <v>128875</v>
+      </c>
+      <c r="C3284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3284" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3285" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3285" s="1" t="n">
+        <v>178341</v>
+      </c>
+      <c r="C3285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3285" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3286" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3286" s="1" t="n">
+        <v>141301</v>
+      </c>
+      <c r="C3286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3286" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3287" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3287" s="1" t="n">
+        <v>176691</v>
+      </c>
+      <c r="C3287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3287" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3288" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3288" s="1" t="n">
+        <v>178402</v>
+      </c>
+      <c r="C3288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3288" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3289" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3289" s="1" t="n">
+        <v>178402</v>
+      </c>
+      <c r="C3289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3289" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3290" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3290" s="1" t="n">
+        <v>178657</v>
+      </c>
+      <c r="C3290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3290" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3291" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3291" s="1" t="n">
+        <v>178637</v>
+      </c>
+      <c r="C3291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3291" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3292" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3292" s="1" t="n">
+        <v>178609</v>
+      </c>
+      <c r="C3292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3292" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3293" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3293" s="1" t="n">
+        <v>178543</v>
+      </c>
+      <c r="C3293" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3293" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3294" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3294" s="1" t="n">
+        <v>178540</v>
+      </c>
+      <c r="C3294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3294" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3295" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3295" s="1" t="n">
+        <v>177559</v>
+      </c>
+      <c r="C3295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3295" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3296" s="4"/>
+    </row>
+    <row r="3297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3297" s="4"/>
+    </row>
+    <row r="3298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3298" s="4"/>
+    </row>
+    <row r="3299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3299" s="4"/>
+    </row>
+    <row r="3300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3300" s="4"/>
+    </row>
+    <row r="3301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3301" s="4"/>
+    </row>
+    <row r="3302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3302" s="4"/>
+    </row>
+    <row r="3303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3303" s="4"/>
+    </row>
+    <row r="3304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3304" s="4"/>
+    </row>
+    <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3305" s="4"/>
+    </row>
+    <row r="3306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3306" s="4"/>
+    </row>
+    <row r="3307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3307" s="4"/>
+    </row>
+    <row r="3308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3308" s="4"/>
+    </row>
+    <row r="3309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3309" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -56308,25 +56810,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3267:E3278 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3296:F3310 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -56337,7 +56839,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -56348,7 +56850,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -56359,7 +56861,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -56370,7 +56872,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -56381,7 +56883,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -56392,32 +56894,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13380" uniqueCount="197">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -560,6 +560,15 @@
     <t xml:space="preserve">03.08.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">04.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trafic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad results </t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -719,10 +728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3309"/>
+  <dimension ref="A1:G3345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3281" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3296" activeCellId="0" sqref="A3296:F3310"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3318" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3338" activeCellId="0" sqref="H3338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56750,46 +56759,798 @@
       </c>
     </row>
     <row r="3296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3296" s="4"/>
+      <c r="A3296" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3296" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="C3296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3296" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3296" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3297" s="4"/>
+      <c r="A3297" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3297" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3297" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3297" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3298" s="4"/>
+      <c r="A3298" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3298" s="1" t="n">
+        <v>128875</v>
+      </c>
+      <c r="C3298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3298" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3298" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3299" s="4"/>
+      <c r="A3299" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3299" s="1" t="n">
+        <v>128875</v>
+      </c>
+      <c r="C3299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3299" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3299" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3300" s="4"/>
+      <c r="A3300" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3300" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3300" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3300" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3301" s="4"/>
+      <c r="A3301" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3301" s="1" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C3301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3301" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3301" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3302" s="4"/>
+      <c r="A3302" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3302" s="1" t="n">
+        <v>178377</v>
+      </c>
+      <c r="C3302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3302" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3302" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3303" s="4"/>
+      <c r="A3303" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3303" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3303" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3303" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3304" s="4"/>
+      <c r="A3304" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3304" s="1" t="n">
+        <v>140276</v>
+      </c>
+      <c r="C3304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3304" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3305" s="4"/>
+      <c r="A3305" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3305" s="1" t="n">
+        <v>178657</v>
+      </c>
+      <c r="C3305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3305" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3306" s="4"/>
+      <c r="A3306" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3306" s="1" t="n">
+        <v>178637</v>
+      </c>
+      <c r="C3306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3306" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3307" s="4"/>
+      <c r="A3307" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3307" s="1" t="n">
+        <v>126246</v>
+      </c>
+      <c r="C3307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3307" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3308" s="4"/>
+      <c r="A3308" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3308" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3308" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3309" s="4"/>
+      <c r="A3309" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3309" s="1" t="n">
+        <v>178609</v>
+      </c>
+      <c r="C3309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3309" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3310" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3310" s="1" t="n">
+        <v>172034</v>
+      </c>
+      <c r="C3310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3310" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3311" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3311" s="1" t="n">
+        <v>178353</v>
+      </c>
+      <c r="C3311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3311" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3312" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3312" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3312" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3312" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3313" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3313" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="C3313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3313" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3313" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3314" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3314" s="1" t="n">
+        <v>119112</v>
+      </c>
+      <c r="C3314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3314" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3314" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3315" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3315" s="1" t="n">
+        <v>110101</v>
+      </c>
+      <c r="C3315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3315" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3315" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3316" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3316" s="1" t="n">
+        <v>25252</v>
+      </c>
+      <c r="C3316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3316" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3316" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3317" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3317" s="1" t="n">
+        <v>98356</v>
+      </c>
+      <c r="C3317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3317" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3317" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3318" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3318" s="1" t="n">
+        <v>57264</v>
+      </c>
+      <c r="C3318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3318" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3318" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3319" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3319" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C3319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3319" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3319" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3320" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3320" s="1" t="n">
+        <v>178432</v>
+      </c>
+      <c r="C3320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3320" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3321" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3321" s="1" t="n">
+        <v>178471</v>
+      </c>
+      <c r="C3321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3321" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3322" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3322" s="1" t="n">
+        <v>178459</v>
+      </c>
+      <c r="C3322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3322" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3322" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3323" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3323" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C3323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3323" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3323" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3324" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3324" s="1" t="n">
+        <v>177511</v>
+      </c>
+      <c r="C3324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3324" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3324" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3325" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3325" s="1" t="n">
+        <v>168801</v>
+      </c>
+      <c r="C3325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3325" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3325" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3326" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3326" s="1" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C3326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3326" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3326" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3327" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3327" s="1" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C3327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3327" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3327" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3328" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3328" s="1" t="n">
+        <v>128875</v>
+      </c>
+      <c r="C3328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3328" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3328" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3329" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3329" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C3329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3329" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3329" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3330" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3330" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C3330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3330" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3330" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3331" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3331" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3331" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3331" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3332" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3332" s="1" t="n">
+        <v>176251</v>
+      </c>
+      <c r="C3332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3332" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3332" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3333" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3333" s="1" t="n">
+        <v>178787</v>
+      </c>
+      <c r="C3333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3333" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3334" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3334" s="1" t="n">
+        <v>178777</v>
+      </c>
+      <c r="C3334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3334" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3334" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3335" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3335" s="1" t="n">
+        <v>178749</v>
+      </c>
+      <c r="C3335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3335" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3336" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3336" s="1" t="n">
+        <v>178713</v>
+      </c>
+      <c r="C3336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3336" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3337" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3337" s="1" t="n">
+        <v>178695</v>
+      </c>
+      <c r="C3337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3337" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3337" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3338" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3338" s="1" t="n">
+        <v>178690</v>
+      </c>
+      <c r="C3338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3338" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3339" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3339" s="1" t="n">
+        <v>178685</v>
+      </c>
+      <c r="C3339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3339" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3340" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3340" s="1" t="n">
+        <v>139193</v>
+      </c>
+      <c r="C3340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3340" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3341" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3341" s="1" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C3341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3341" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3342" s="4"/>
+    </row>
+    <row r="3343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3343" s="4"/>
+    </row>
+    <row r="3344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3344" s="4"/>
+    </row>
+    <row r="3345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3345" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -56810,25 +57571,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3296:F3310 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -56839,7 +57600,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -56850,7 +57611,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -56861,7 +57622,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -56872,7 +57633,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -56883,7 +57644,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -56894,32 +57655,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13380" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13552" uniqueCount="199">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -569,6 +569,12 @@
     <t xml:space="preserve">bad results </t>
   </si>
   <si>
+    <t xml:space="preserve">07.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraud</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -728,10 +734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3345"/>
+  <dimension ref="A1:G3390"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3318" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3338" activeCellId="0" sqref="H3338"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3369" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3390" activeCellId="0" sqref="C3390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57541,16 +57547,753 @@
       </c>
     </row>
     <row r="3342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3342" s="4"/>
+      <c r="A3342" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3342" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3342" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3342" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3343" s="4"/>
+      <c r="A3343" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3343" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3343" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3343" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3344" s="4"/>
+      <c r="A3344" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3344" s="1" t="n">
+        <v>14122</v>
+      </c>
+      <c r="C3344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3344" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3344" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3345" s="4"/>
+      <c r="A3345" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3345" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3345" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3345" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3346" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3346" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C3346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3346" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3346" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3347" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3347" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C3347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3347" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3347" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3348" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3348" s="1" t="n">
+        <v>163644</v>
+      </c>
+      <c r="C3348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3348" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3348" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3349" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3349" s="1" t="n">
+        <v>74558</v>
+      </c>
+      <c r="C3349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3349" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3349" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3350" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3350" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C3350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3350" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3350" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3351" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3351" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3351" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3351" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3352" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3352" s="1" t="n">
+        <v>121884</v>
+      </c>
+      <c r="C3352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3352" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3352" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3353" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3353" s="1" t="n">
+        <v>176447</v>
+      </c>
+      <c r="C3353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3353" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3353" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3354" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3354" s="1" t="n">
+        <v>176447</v>
+      </c>
+      <c r="C3354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3354" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3354" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3355" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3355" s="1" t="n">
+        <v>133868</v>
+      </c>
+      <c r="C3355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3355" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3355" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3356" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3356" s="1" t="n">
+        <v>178777</v>
+      </c>
+      <c r="C3356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3356" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3357" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3357" s="1" t="n">
+        <v>178393</v>
+      </c>
+      <c r="C3357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3357" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3358" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3358" s="1" t="n">
+        <v>178170</v>
+      </c>
+      <c r="C3358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3358" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3358" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3359" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3359" s="1" t="n">
+        <v>176251</v>
+      </c>
+      <c r="C3359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3359" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3359" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3360" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3360" s="1" t="n">
+        <v>74735</v>
+      </c>
+      <c r="C3360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3360" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3360" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3361" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3361" s="1" t="n">
+        <v>137032</v>
+      </c>
+      <c r="C3361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3361" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3361" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3362" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3362" s="1" t="n">
+        <v>168410</v>
+      </c>
+      <c r="C3362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3362" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3362" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3363" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3363" s="1" t="n">
+        <v>72324</v>
+      </c>
+      <c r="C3363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3363" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3363" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3364" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3364" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="C3364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3364" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3364" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3365" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3365" s="1" t="n">
+        <v>91375</v>
+      </c>
+      <c r="C3365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3365" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3365" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3366" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3366" s="1" t="n">
+        <v>66777</v>
+      </c>
+      <c r="C3366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3366" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3366" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3367" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3367" s="3" t="n">
+        <v>172295</v>
+      </c>
+      <c r="C3367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3367" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3368" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3368" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3368" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3368" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3369" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3369" s="1" t="n">
+        <v>179095</v>
+      </c>
+      <c r="C3369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3369" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3369" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3370" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3370" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3370" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3370" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3371" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3371" s="3" t="n">
+        <v>156459</v>
+      </c>
+      <c r="C3371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3371" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3371" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3372" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3372" s="1" t="n">
+        <v>179152</v>
+      </c>
+      <c r="C3372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3372" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3372" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3373" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3373" s="1" t="n">
+        <v>179086</v>
+      </c>
+      <c r="C3373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3373" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3373" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3374" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3374" s="1" t="n">
+        <v>179005</v>
+      </c>
+      <c r="C3374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3374" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3374" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3375" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3375" s="1" t="n">
+        <v>178964</v>
+      </c>
+      <c r="C3375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3375" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3375" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3376" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3376" s="1" t="n">
+        <v>178963</v>
+      </c>
+      <c r="C3376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3376" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3376" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3377" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3377" s="1" t="n">
+        <v>178959</v>
+      </c>
+      <c r="C3377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3377" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3377" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3378" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3378" s="1" t="n">
+        <v>178839</v>
+      </c>
+      <c r="C3378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3378" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3378" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3379" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3379" s="1" t="n">
+        <v>178836</v>
+      </c>
+      <c r="C3379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3379" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3379" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3380" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3380" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C3380" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3380" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3380" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3381" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3381" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C3381" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3381" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3382" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3382" s="1" t="n">
+        <v>174258</v>
+      </c>
+      <c r="C3382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3382" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3382" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3383" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3383" s="1" t="n">
+        <v>169652</v>
+      </c>
+      <c r="C3383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3383" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3383" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3384" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3384" s="1" t="n">
+        <v>145948</v>
+      </c>
+      <c r="C3384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3384" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3384" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3385" s="4"/>
+    </row>
+    <row r="3386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3386" s="4"/>
+    </row>
+    <row r="3387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3387" s="4"/>
+    </row>
+    <row r="3388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3388" s="4"/>
+    </row>
+    <row r="3389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3389" s="4"/>
+    </row>
+    <row r="3390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3390" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -57578,18 +58321,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -57600,7 +58343,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -57611,7 +58354,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -57622,7 +58365,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -57633,7 +58376,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -57644,7 +58387,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -57655,32 +58398,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13552" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13708" uniqueCount="204">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -575,6 +575,21 @@
     <t xml:space="preserve">fraud</t>
   </si>
   <si>
+    <t xml:space="preserve">08.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product foto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -734,10 +749,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3390"/>
+  <dimension ref="A1:G3423"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3369" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3390" activeCellId="0" sqref="C3390"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3424" activeCellId="0" sqref="A3424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58278,22 +58293,667 @@
       </c>
     </row>
     <row r="3385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3385" s="4"/>
+      <c r="A3385" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3385" s="1" t="n">
+        <v>156459</v>
+      </c>
+      <c r="C3385" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3385" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3385" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3386" s="4"/>
+      <c r="A3386" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3386" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3386" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3386" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3386" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3387" s="4"/>
+      <c r="A3387" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3387" s="1" t="n">
+        <v>106698</v>
+      </c>
+      <c r="C3387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3387" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3387" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3388" s="4"/>
+      <c r="A3388" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3388" s="1" t="n">
+        <v>132591</v>
+      </c>
+      <c r="C3388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3388" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3388" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3389" s="4"/>
+      <c r="A3389" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3389" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C3389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3389" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3389" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3390" s="4"/>
+      <c r="A3390" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3390" s="1" t="n">
+        <v>162003</v>
+      </c>
+      <c r="C3390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3390" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3390" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3391" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3391" s="1" t="n">
+        <v>178657</v>
+      </c>
+      <c r="C3391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3391" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3391" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3392" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3392" s="1" t="n">
+        <v>164866</v>
+      </c>
+      <c r="C3392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3392" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3393" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3393" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3393" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3393" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3394" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3394" s="1" t="n">
+        <v>116462</v>
+      </c>
+      <c r="C3394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3394" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3394" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3395" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3395" s="1" t="n">
+        <v>175445</v>
+      </c>
+      <c r="C3395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3395" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3395" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3396" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3396" s="1" t="n">
+        <v>179277</v>
+      </c>
+      <c r="C3396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3396" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3396" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3397" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3397" s="1" t="n">
+        <v>179275</v>
+      </c>
+      <c r="C3397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3397" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3397" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3398" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3398" s="1" t="n">
+        <v>179273</v>
+      </c>
+      <c r="C3398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3398" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3398" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3399" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3399" s="1" t="n">
+        <v>179248</v>
+      </c>
+      <c r="C3399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3399" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3399" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3400" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3400" s="1" t="n">
+        <v>179244</v>
+      </c>
+      <c r="C3400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3400" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3400" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3401" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3401" s="1" t="n">
+        <v>167799</v>
+      </c>
+      <c r="C3401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3401" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3401" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3402" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3402" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C3402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3402" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3402" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3403" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3403" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3403" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3403" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3404" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3404" s="1" t="n">
+        <v>99121</v>
+      </c>
+      <c r="C3404" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3404" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3404" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3405" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3405" s="1" t="n">
+        <v>172295</v>
+      </c>
+      <c r="C3405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3405" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3405" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3406" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3406" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C3406" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3406" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3406" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3407" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3407" s="1" t="n">
+        <v>179086</v>
+      </c>
+      <c r="C3407" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3407" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3407" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3408" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3408" s="1" t="n">
+        <v>128875</v>
+      </c>
+      <c r="C3408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3408" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3408" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3409" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3409" s="1" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C3409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3409" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3409" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3410" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3410" s="1" t="n">
+        <v>179005</v>
+      </c>
+      <c r="C3410" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3410" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3410" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3411" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3411" s="1" t="n">
+        <v>177511</v>
+      </c>
+      <c r="C3411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3411" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3411" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3412" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3412" s="1" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C3412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3412" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3412" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3413" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3413" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C3413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3413" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3414" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3414" s="1" t="n">
+        <v>179005</v>
+      </c>
+      <c r="C3414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3414" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3415" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3415" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C3415" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3415" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3415" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3416" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3416" s="1" t="n">
+        <v>178657</v>
+      </c>
+      <c r="C3416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3416" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3416" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3417" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3417" s="1" t="n">
+        <v>130432</v>
+      </c>
+      <c r="C3417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3417" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3417" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3418" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3418" s="1" t="n">
+        <v>179152</v>
+      </c>
+      <c r="C3418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3418" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3419" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3419" s="3" t="n">
+        <v>177796</v>
+      </c>
+      <c r="C3419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3419" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3419" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3420" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3420" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3420" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3420" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3421" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3421" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C3421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3421" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3421" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3422" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3422" s="1" t="n">
+        <v>161962</v>
+      </c>
+      <c r="C3422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3422" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3422" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3423" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3423" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C3423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3423" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3423" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -58321,18 +58981,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -58343,7 +59003,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -58354,7 +59014,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -58365,7 +59025,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -58376,7 +59036,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -58387,7 +59047,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -58398,32 +59058,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13708" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13960" uniqueCount="206">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -590,6 +590,12 @@
     <t xml:space="preserve">in </t>
   </si>
   <si>
+    <t xml:space="preserve">09.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revshare</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -642,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -663,6 +669,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -707,7 +718,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,6 +743,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,10 +768,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3423"/>
+  <dimension ref="A1:G3486"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3424" activeCellId="0" sqref="A3424"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3461" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3489" activeCellId="0" sqref="C3489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58953,6 +58972,1077 @@
       </c>
       <c r="E3423" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3424" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3424" s="1" t="n">
+        <v>154274</v>
+      </c>
+      <c r="C3424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3424" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3424" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3425" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3425" s="1" t="n">
+        <v>8976</v>
+      </c>
+      <c r="C3425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3425" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3425" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3426" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3426" s="1" t="n">
+        <v>113278</v>
+      </c>
+      <c r="C3426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3426" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3426" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3427" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3427" s="1" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C3427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3427" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3427" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3428" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3428" s="1" t="n">
+        <v>162119</v>
+      </c>
+      <c r="C3428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3428" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3428" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3429" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3429" s="1" t="n">
+        <v>156459</v>
+      </c>
+      <c r="C3429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3429" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3429" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3430" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3430" s="1" t="n">
+        <v>36361</v>
+      </c>
+      <c r="C3430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3430" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3430" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3431" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3431" s="1" t="n">
+        <v>123246</v>
+      </c>
+      <c r="C3431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3431" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3431" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3432" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3432" s="1" t="n">
+        <v>162003</v>
+      </c>
+      <c r="C3432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3432" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3432" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3433" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3433" s="1" t="n">
+        <v>134380</v>
+      </c>
+      <c r="C3433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3433" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3433" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3434" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3434" s="1" t="n">
+        <v>179534</v>
+      </c>
+      <c r="C3434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3434" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3434" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3435" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3435" s="1" t="n">
+        <v>164866</v>
+      </c>
+      <c r="C3435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3435" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3435" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3436" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3436" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C3436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3436" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3436" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3437" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3437" s="1" t="n">
+        <v>154274</v>
+      </c>
+      <c r="C3437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3437" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3437" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3438" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3438" s="1" t="n">
+        <v>179530</v>
+      </c>
+      <c r="C3438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3438" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3438" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3439" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3439" s="1" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C3439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3439" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3439" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3440" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3440" s="1" t="n">
+        <v>179536</v>
+      </c>
+      <c r="C3440" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3440" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3441" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3441" s="1" t="n">
+        <v>99121</v>
+      </c>
+      <c r="C3441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3441" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3442" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3442" s="1" t="n">
+        <v>56405</v>
+      </c>
+      <c r="C3442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3442" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3442" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3443" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3443" s="1" t="n">
+        <v>169935</v>
+      </c>
+      <c r="C3443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3443" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3443" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3444" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3444" s="1" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C3444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3444" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3444" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3445" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3445" s="1" t="n">
+        <v>99121</v>
+      </c>
+      <c r="C3445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3445" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3445" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3446" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3446" s="1" t="n">
+        <v>179709</v>
+      </c>
+      <c r="C3446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3446" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3446" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3447" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3447" s="1" t="n">
+        <v>179673</v>
+      </c>
+      <c r="C3447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3447" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3447" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3448" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3448" s="1" t="n">
+        <v>179671</v>
+      </c>
+      <c r="C3448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3448" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3448" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3449" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3449" s="1" t="n">
+        <v>179668</v>
+      </c>
+      <c r="C3449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3449" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3449" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3450" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3450" s="1" t="n">
+        <v>179667</v>
+      </c>
+      <c r="C3450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3450" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3450" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3451" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3451" s="1" t="n">
+        <v>179663</v>
+      </c>
+      <c r="C3451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3451" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3451" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3452" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3452" s="1" t="n">
+        <v>179653</v>
+      </c>
+      <c r="C3452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3452" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3452" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3453" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3453" s="1" t="n">
+        <v>179649</v>
+      </c>
+      <c r="C3453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3453" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3453" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3454" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3454" s="1" t="n">
+        <v>179647</v>
+      </c>
+      <c r="C3454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3454" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3454" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3455" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3455" s="1" t="n">
+        <v>179646</v>
+      </c>
+      <c r="C3455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3455" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3455" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3456" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3456" s="1" t="n">
+        <v>179608</v>
+      </c>
+      <c r="C3456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3456" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3456" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3457" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3457" s="1" t="n">
+        <v>179574</v>
+      </c>
+      <c r="C3457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3457" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3457" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3458" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3458" s="1" t="n">
+        <v>179554</v>
+      </c>
+      <c r="C3458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3458" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3458" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3459" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3459" s="1" t="n">
+        <v>179546</v>
+      </c>
+      <c r="C3459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3459" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3459" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3460" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3460" s="1" t="n">
+        <v>179545</v>
+      </c>
+      <c r="C3460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3460" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3461" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3461" s="1" t="n">
+        <v>179543</v>
+      </c>
+      <c r="C3461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3461" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3462" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3462" s="1" t="n">
+        <v>179540</v>
+      </c>
+      <c r="C3462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3462" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3462" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3463" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3463" s="1" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C3463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3463" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3463" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3464" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3464" s="1" t="n">
+        <v>179538</v>
+      </c>
+      <c r="C3464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3464" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3464" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3465" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3465" s="1" t="n">
+        <v>179535</v>
+      </c>
+      <c r="C3465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3465" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3465" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3466" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3466" s="1" t="n">
+        <v>179535</v>
+      </c>
+      <c r="C3466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3466" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3466" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3467" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3467" s="1" t="n">
+        <v>179532</v>
+      </c>
+      <c r="C3467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3467" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3467" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3468" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3468" s="1" t="n">
+        <v>179528</v>
+      </c>
+      <c r="C3468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3468" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3468" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3469" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3469" s="1" t="n">
+        <v>179527</v>
+      </c>
+      <c r="C3469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3469" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3469" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3470" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3470" s="1" t="n">
+        <v>179525</v>
+      </c>
+      <c r="C3470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3470" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3470" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3471" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3471" s="1" t="n">
+        <v>179521</v>
+      </c>
+      <c r="C3471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3471" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3471" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3472" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3472" s="1" t="n">
+        <v>167284</v>
+      </c>
+      <c r="C3472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3472" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3472" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3473" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3473" s="1" t="n">
+        <v>179647</v>
+      </c>
+      <c r="C3473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3473" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3473" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3474" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3474" s="1" t="n">
+        <v>179709</v>
+      </c>
+      <c r="C3474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3474" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3474" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3475" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3475" s="1" t="n">
+        <v>179667</v>
+      </c>
+      <c r="C3475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3475" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3475" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3476" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3476" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3476" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3476" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3477" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3477" s="1" t="n">
+        <v>179534</v>
+      </c>
+      <c r="C3477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3477" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3477" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3478" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3478" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C3478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3478" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3478" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3479" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3479" s="1" t="n">
+        <v>154274</v>
+      </c>
+      <c r="C3479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3479" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3479" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3480" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3480" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3480" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3480" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3481" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3481" s="7" t="n">
+        <v>179667</v>
+      </c>
+      <c r="C3481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3481" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3481" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3482" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3482" s="1" t="n">
+        <v>99121</v>
+      </c>
+      <c r="C3482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3482" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3482" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3483" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3483" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3483" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3483" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3483" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3484" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3484" s="1" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C3484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3484" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3484" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3485" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3485" s="7" t="n">
+        <v>179752</v>
+      </c>
+      <c r="C3485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3485" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3485" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3486" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3486" s="1" t="n">
+        <v>179802</v>
+      </c>
+      <c r="C3486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3486" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3486" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -58981,18 +60071,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -59003,7 +60093,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -59014,7 +60104,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -59025,7 +60115,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -59036,7 +60126,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -59047,7 +60137,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -59058,32 +60148,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13960" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="207">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -596,6 +596,9 @@
     <t xml:space="preserve">revshare</t>
   </si>
   <si>
+    <t xml:space="preserve">10.08.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -648,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -669,11 +672,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,7 +716,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -743,14 +741,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +758,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3486"/>
+  <dimension ref="A1:G3548"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3461" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3489" activeCellId="0" sqref="C3489"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3520" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3543" activeCellId="0" sqref="E3543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58975,7 +58965,7 @@
       </c>
     </row>
     <row r="3424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3424" s="6" t="s">
+      <c r="A3424" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3424" s="1" t="n">
@@ -58992,7 +58982,7 @@
       </c>
     </row>
     <row r="3425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3425" s="6" t="s">
+      <c r="A3425" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3425" s="1" t="n">
@@ -59009,7 +58999,7 @@
       </c>
     </row>
     <row r="3426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3426" s="6" t="s">
+      <c r="A3426" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3426" s="1" t="n">
@@ -59026,7 +59016,7 @@
       </c>
     </row>
     <row r="3427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3427" s="6" t="s">
+      <c r="A3427" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3427" s="1" t="n">
@@ -59043,7 +59033,7 @@
       </c>
     </row>
     <row r="3428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3428" s="6" t="s">
+      <c r="A3428" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3428" s="1" t="n">
@@ -59060,7 +59050,7 @@
       </c>
     </row>
     <row r="3429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3429" s="6" t="s">
+      <c r="A3429" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3429" s="1" t="n">
@@ -59077,7 +59067,7 @@
       </c>
     </row>
     <row r="3430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3430" s="6" t="s">
+      <c r="A3430" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3430" s="1" t="n">
@@ -59094,7 +59084,7 @@
       </c>
     </row>
     <row r="3431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3431" s="6" t="s">
+      <c r="A3431" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3431" s="1" t="n">
@@ -59111,7 +59101,7 @@
       </c>
     </row>
     <row r="3432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3432" s="6" t="s">
+      <c r="A3432" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3432" s="1" t="n">
@@ -59128,7 +59118,7 @@
       </c>
     </row>
     <row r="3433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3433" s="6" t="s">
+      <c r="A3433" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3433" s="1" t="n">
@@ -59145,7 +59135,7 @@
       </c>
     </row>
     <row r="3434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3434" s="6" t="s">
+      <c r="A3434" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3434" s="1" t="n">
@@ -59162,7 +59152,7 @@
       </c>
     </row>
     <row r="3435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3435" s="6" t="s">
+      <c r="A3435" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3435" s="1" t="n">
@@ -59179,7 +59169,7 @@
       </c>
     </row>
     <row r="3436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3436" s="6" t="s">
+      <c r="A3436" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3436" s="1" t="n">
@@ -59196,7 +59186,7 @@
       </c>
     </row>
     <row r="3437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3437" s="6" t="s">
+      <c r="A3437" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3437" s="1" t="n">
@@ -59213,7 +59203,7 @@
       </c>
     </row>
     <row r="3438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3438" s="6" t="s">
+      <c r="A3438" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3438" s="1" t="n">
@@ -59230,7 +59220,7 @@
       </c>
     </row>
     <row r="3439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3439" s="6" t="s">
+      <c r="A3439" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3439" s="1" t="n">
@@ -59247,7 +59237,7 @@
       </c>
     </row>
     <row r="3440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3440" s="6" t="s">
+      <c r="A3440" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3440" s="1" t="n">
@@ -59264,7 +59254,7 @@
       </c>
     </row>
     <row r="3441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3441" s="6" t="s">
+      <c r="A3441" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3441" s="1" t="n">
@@ -59281,7 +59271,7 @@
       </c>
     </row>
     <row r="3442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3442" s="6" t="s">
+      <c r="A3442" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3442" s="1" t="n">
@@ -59298,7 +59288,7 @@
       </c>
     </row>
     <row r="3443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3443" s="6" t="s">
+      <c r="A3443" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3443" s="1" t="n">
@@ -59315,7 +59305,7 @@
       </c>
     </row>
     <row r="3444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3444" s="6" t="s">
+      <c r="A3444" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3444" s="1" t="n">
@@ -59332,7 +59322,7 @@
       </c>
     </row>
     <row r="3445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3445" s="6" t="s">
+      <c r="A3445" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3445" s="1" t="n">
@@ -59349,7 +59339,7 @@
       </c>
     </row>
     <row r="3446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3446" s="6" t="s">
+      <c r="A3446" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3446" s="1" t="n">
@@ -59366,7 +59356,7 @@
       </c>
     </row>
     <row r="3447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3447" s="6" t="s">
+      <c r="A3447" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3447" s="1" t="n">
@@ -59383,7 +59373,7 @@
       </c>
     </row>
     <row r="3448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3448" s="6" t="s">
+      <c r="A3448" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3448" s="1" t="n">
@@ -59400,7 +59390,7 @@
       </c>
     </row>
     <row r="3449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3449" s="6" t="s">
+      <c r="A3449" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3449" s="1" t="n">
@@ -59417,7 +59407,7 @@
       </c>
     </row>
     <row r="3450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3450" s="6" t="s">
+      <c r="A3450" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3450" s="1" t="n">
@@ -59434,7 +59424,7 @@
       </c>
     </row>
     <row r="3451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3451" s="6" t="s">
+      <c r="A3451" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3451" s="1" t="n">
@@ -59451,7 +59441,7 @@
       </c>
     </row>
     <row r="3452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3452" s="6" t="s">
+      <c r="A3452" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3452" s="1" t="n">
@@ -59468,7 +59458,7 @@
       </c>
     </row>
     <row r="3453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3453" s="6" t="s">
+      <c r="A3453" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3453" s="1" t="n">
@@ -59485,7 +59475,7 @@
       </c>
     </row>
     <row r="3454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3454" s="6" t="s">
+      <c r="A3454" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3454" s="1" t="n">
@@ -59502,7 +59492,7 @@
       </c>
     </row>
     <row r="3455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3455" s="6" t="s">
+      <c r="A3455" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3455" s="1" t="n">
@@ -59519,7 +59509,7 @@
       </c>
     </row>
     <row r="3456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3456" s="6" t="s">
+      <c r="A3456" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3456" s="1" t="n">
@@ -59536,7 +59526,7 @@
       </c>
     </row>
     <row r="3457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3457" s="6" t="s">
+      <c r="A3457" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3457" s="1" t="n">
@@ -59553,7 +59543,7 @@
       </c>
     </row>
     <row r="3458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3458" s="6" t="s">
+      <c r="A3458" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3458" s="1" t="n">
@@ -59570,7 +59560,7 @@
       </c>
     </row>
     <row r="3459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3459" s="6" t="s">
+      <c r="A3459" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3459" s="1" t="n">
@@ -59587,7 +59577,7 @@
       </c>
     </row>
     <row r="3460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3460" s="6" t="s">
+      <c r="A3460" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3460" s="1" t="n">
@@ -59604,7 +59594,7 @@
       </c>
     </row>
     <row r="3461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3461" s="6" t="s">
+      <c r="A3461" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3461" s="1" t="n">
@@ -59621,7 +59611,7 @@
       </c>
     </row>
     <row r="3462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3462" s="6" t="s">
+      <c r="A3462" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3462" s="1" t="n">
@@ -59638,7 +59628,7 @@
       </c>
     </row>
     <row r="3463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3463" s="6" t="s">
+      <c r="A3463" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3463" s="1" t="n">
@@ -59655,7 +59645,7 @@
       </c>
     </row>
     <row r="3464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3464" s="6" t="s">
+      <c r="A3464" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3464" s="1" t="n">
@@ -59672,7 +59662,7 @@
       </c>
     </row>
     <row r="3465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3465" s="6" t="s">
+      <c r="A3465" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3465" s="1" t="n">
@@ -59689,7 +59679,7 @@
       </c>
     </row>
     <row r="3466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3466" s="6" t="s">
+      <c r="A3466" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3466" s="1" t="n">
@@ -59706,7 +59696,7 @@
       </c>
     </row>
     <row r="3467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3467" s="6" t="s">
+      <c r="A3467" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3467" s="1" t="n">
@@ -59723,7 +59713,7 @@
       </c>
     </row>
     <row r="3468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3468" s="6" t="s">
+      <c r="A3468" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3468" s="1" t="n">
@@ -59740,7 +59730,7 @@
       </c>
     </row>
     <row r="3469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3469" s="6" t="s">
+      <c r="A3469" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3469" s="1" t="n">
@@ -59757,7 +59747,7 @@
       </c>
     </row>
     <row r="3470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3470" s="6" t="s">
+      <c r="A3470" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3470" s="1" t="n">
@@ -59774,7 +59764,7 @@
       </c>
     </row>
     <row r="3471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3471" s="6" t="s">
+      <c r="A3471" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3471" s="1" t="n">
@@ -59791,7 +59781,7 @@
       </c>
     </row>
     <row r="3472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3472" s="6" t="s">
+      <c r="A3472" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3472" s="1" t="n">
@@ -59808,7 +59798,7 @@
       </c>
     </row>
     <row r="3473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3473" s="6" t="s">
+      <c r="A3473" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3473" s="1" t="n">
@@ -59825,7 +59815,7 @@
       </c>
     </row>
     <row r="3474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3474" s="6" t="s">
+      <c r="A3474" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3474" s="1" t="n">
@@ -59842,7 +59832,7 @@
       </c>
     </row>
     <row r="3475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3475" s="6" t="s">
+      <c r="A3475" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3475" s="1" t="n">
@@ -59859,7 +59849,7 @@
       </c>
     </row>
     <row r="3476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3476" s="6" t="s">
+      <c r="A3476" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3476" s="1" t="n">
@@ -59876,7 +59866,7 @@
       </c>
     </row>
     <row r="3477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3477" s="6" t="s">
+      <c r="A3477" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3477" s="1" t="n">
@@ -59893,7 +59883,7 @@
       </c>
     </row>
     <row r="3478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3478" s="6" t="s">
+      <c r="A3478" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3478" s="1" t="n">
@@ -59910,7 +59900,7 @@
       </c>
     </row>
     <row r="3479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3479" s="6" t="s">
+      <c r="A3479" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3479" s="1" t="n">
@@ -59927,7 +59917,7 @@
       </c>
     </row>
     <row r="3480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3480" s="6" t="s">
+      <c r="A3480" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3480" s="1" t="n">
@@ -59944,10 +59934,10 @@
       </c>
     </row>
     <row r="3481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3481" s="6" t="s">
+      <c r="A3481" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B3481" s="7" t="n">
+      <c r="B3481" s="1" t="n">
         <v>179667</v>
       </c>
       <c r="C3481" s="1" t="s">
@@ -59961,7 +59951,7 @@
       </c>
     </row>
     <row r="3482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3482" s="6" t="s">
+      <c r="A3482" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3482" s="1" t="n">
@@ -59978,7 +59968,7 @@
       </c>
     </row>
     <row r="3483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3483" s="6" t="s">
+      <c r="A3483" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3483" s="1" t="n">
@@ -59995,7 +59985,7 @@
       </c>
     </row>
     <row r="3484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3484" s="6" t="s">
+      <c r="A3484" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3484" s="1" t="n">
@@ -60012,10 +60002,10 @@
       </c>
     </row>
     <row r="3485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3485" s="6" t="s">
+      <c r="A3485" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B3485" s="7" t="n">
+      <c r="B3485" s="1" t="n">
         <v>179752</v>
       </c>
       <c r="C3485" s="1" t="s">
@@ -60029,7 +60019,7 @@
       </c>
     </row>
     <row r="3486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3486" s="6" t="s">
+      <c r="A3486" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B3486" s="1" t="n">
@@ -60044,6 +60034,836 @@
       <c r="E3486" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="3487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3487" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3487" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3487" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3487" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3488" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3488" s="1" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C3488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3488" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3488" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3489" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3489" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3489" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3489" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3490" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3490" s="1" t="n">
+        <v>108204</v>
+      </c>
+      <c r="C3490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3490" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3490" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3491" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3491" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3491" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3491" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3492" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3492" s="1" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C3492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3492" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3492" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3493" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3493" s="1" t="n">
+        <v>179718</v>
+      </c>
+      <c r="C3493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3493" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3493" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3494" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3494" s="1" t="n">
+        <v>134380</v>
+      </c>
+      <c r="C3494" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3494" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3494" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3495" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3495" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C3495" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3495" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3495" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3496" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3496" s="1" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C3496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3496" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3496" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3497" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3497" s="1" t="n">
+        <v>178607</v>
+      </c>
+      <c r="C3497" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3497" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3497" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3498" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3498" s="1" t="n">
+        <v>125894</v>
+      </c>
+      <c r="C3498" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3498" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3498" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3499" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3499" s="1" t="n">
+        <v>154274</v>
+      </c>
+      <c r="C3499" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3499" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3499" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3500" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3500" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="C3500" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3500" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3501" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3501" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3501" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3501" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3502" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3502" s="1" t="n">
+        <v>154274</v>
+      </c>
+      <c r="C3502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3502" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3502" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3503" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3503" s="1" t="n">
+        <v>179647</v>
+      </c>
+      <c r="C3503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3503" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3503" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3504" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3504" s="1" t="n">
+        <v>179752</v>
+      </c>
+      <c r="C3504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3504" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3504" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3505" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3505" s="1" t="n">
+        <v>179528</v>
+      </c>
+      <c r="C3505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3505" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3506" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3506" s="1" t="n">
+        <v>179709</v>
+      </c>
+      <c r="C3506" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3506" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3507" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3507" s="1" t="n">
+        <v>179802</v>
+      </c>
+      <c r="C3507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3507" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3507" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3508" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3508" s="1" t="n">
+        <v>179802</v>
+      </c>
+      <c r="C3508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3508" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3508" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3509" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3509" s="1" t="n">
+        <v>179546</v>
+      </c>
+      <c r="C3509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3509" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3509" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3510" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3510" s="1" t="n">
+        <v>103999</v>
+      </c>
+      <c r="C3510" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3510" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3510" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3511" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3511" s="1" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C3511" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3511" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3511" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3512" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3512" s="1" t="n">
+        <v>179608</v>
+      </c>
+      <c r="C3512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3512" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3512" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3513" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3513" s="1" t="n">
+        <v>95885</v>
+      </c>
+      <c r="C3513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3513" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3513" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3514" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3514" s="1" t="n">
+        <v>167284</v>
+      </c>
+      <c r="C3514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3514" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3514" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3515" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3515" s="1" t="n">
+        <v>172295</v>
+      </c>
+      <c r="C3515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3515" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3515" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3516" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3516" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C3516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3516" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3516" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3517" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3517" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3517" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3517" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3518" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3518" s="1" t="n">
+        <v>180116</v>
+      </c>
+      <c r="C3518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3518" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3518" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3519" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3519" s="1" t="n">
+        <v>180114</v>
+      </c>
+      <c r="C3519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3519" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3519" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3520" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3520" s="1" t="n">
+        <v>180072</v>
+      </c>
+      <c r="C3520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3520" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3520" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3521" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3521" s="1" t="n">
+        <v>180069</v>
+      </c>
+      <c r="C3521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3521" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3521" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3522" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3522" s="1" t="n">
+        <v>180026</v>
+      </c>
+      <c r="C3522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3522" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3522" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3523" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3523" s="1" t="n">
+        <v>179991</v>
+      </c>
+      <c r="C3523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3523" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3523" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3524" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3524" s="1" t="n">
+        <v>179876</v>
+      </c>
+      <c r="C3524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3524" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3524" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3525" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3525" s="1" t="n">
+        <v>179855</v>
+      </c>
+      <c r="C3525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3525" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3525" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3526" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3526" s="1" t="n">
+        <v>179820</v>
+      </c>
+      <c r="C3526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3526" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3526" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3527" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3527" s="1" t="n">
+        <v>180151</v>
+      </c>
+      <c r="C3527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3527" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3527" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3528" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3528" s="1" t="n">
+        <v>180145</v>
+      </c>
+      <c r="C3528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3528" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3528" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3529" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3529" s="1" t="n">
+        <v>180144</v>
+      </c>
+      <c r="C3529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3529" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3529" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3530" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3530" s="1" t="n">
+        <v>180136</v>
+      </c>
+      <c r="C3530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3530" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3530" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3531" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3531" s="1" t="n">
+        <v>179876</v>
+      </c>
+      <c r="C3531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3531" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3531" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3532" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3532" s="1" t="n">
+        <v>180072</v>
+      </c>
+      <c r="C3532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3532" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3532" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3533" s="4"/>
+    </row>
+    <row r="3534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3534" s="4"/>
+    </row>
+    <row r="3535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3535" s="4"/>
+    </row>
+    <row r="3536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3536" s="4"/>
+    </row>
+    <row r="3537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3537" s="4"/>
+    </row>
+    <row r="3538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3538" s="4"/>
+    </row>
+    <row r="3539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3539" s="4"/>
+    </row>
+    <row r="3540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3540" s="4"/>
+    </row>
+    <row r="3541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3541" s="4"/>
+    </row>
+    <row r="3542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3542" s="4"/>
+    </row>
+    <row r="3543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3543" s="4"/>
+    </row>
+    <row r="3544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3544" s="4"/>
+    </row>
+    <row r="3545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3545" s="4"/>
+    </row>
+    <row r="3546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3546" s="4"/>
+    </row>
+    <row r="3547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3547" s="4"/>
+    </row>
+    <row r="3548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3548" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -60071,18 +60891,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -60093,7 +60913,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -60104,7 +60924,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -60115,7 +60935,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -60126,7 +60946,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -60137,7 +60957,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -60148,32 +60968,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -760,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:G3548"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3520" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3543" activeCellId="0" sqref="E3543"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3502" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3533" activeCellId="0" sqref="A3533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14304" uniqueCount="209">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -599,6 +599,12 @@
     <t xml:space="preserve">10.08.2023</t>
   </si>
   <si>
+    <t xml:space="preserve">11.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference </t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -758,10 +764,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3548"/>
+  <dimension ref="A1:G3577"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3502" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3533" activeCellId="0" sqref="A3533"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3556" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3573" activeCellId="0" sqref="A3573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60818,52 +60824,699 @@
       </c>
     </row>
     <row r="3533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3533" s="4"/>
+      <c r="A3533" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3533" s="1" t="n">
+        <v>7043</v>
+      </c>
+      <c r="C3533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3533" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3533" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3534" s="4"/>
+      <c r="A3534" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3534" s="1" t="n">
+        <v>49996</v>
+      </c>
+      <c r="C3534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3534" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3534" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3535" s="4"/>
+      <c r="A3535" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3535" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3535" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3535" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3536" s="4"/>
+      <c r="A3536" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3536" s="1" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C3536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3536" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3536" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3537" s="4"/>
+      <c r="A3537" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3537" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3537" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3537" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3538" s="4"/>
+      <c r="A3538" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3538" s="1" t="n">
+        <v>179752</v>
+      </c>
+      <c r="C3538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3538" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3538" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3539" s="4"/>
+      <c r="A3539" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3539" s="1" t="n">
+        <v>177511</v>
+      </c>
+      <c r="C3539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3539" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3539" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3540" s="4"/>
+      <c r="A3540" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3540" s="1" t="n">
+        <v>103043</v>
+      </c>
+      <c r="C3540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3540" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3540" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3541" s="4"/>
+      <c r="A3541" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3541" s="1" t="n">
+        <v>107130</v>
+      </c>
+      <c r="C3541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3541" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3541" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3542" s="4"/>
+      <c r="A3542" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3542" s="1" t="n">
+        <v>176711</v>
+      </c>
+      <c r="C3542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3542" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3542" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3543" s="4"/>
+      <c r="A3543" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3543" s="1" t="n">
+        <v>128841</v>
+      </c>
+      <c r="C3543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3543" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3543" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3544" s="4"/>
+      <c r="A3544" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3544" s="1" t="n">
+        <v>179718</v>
+      </c>
+      <c r="C3544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3544" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3544" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3545" s="4"/>
+      <c r="A3545" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3545" s="1" t="n">
+        <v>134380</v>
+      </c>
+      <c r="C3545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3545" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3545" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3546" s="4"/>
+      <c r="A3546" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3546" s="1" t="n">
+        <v>161848</v>
+      </c>
+      <c r="C3546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3546" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3546" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3547" s="4"/>
+      <c r="A3547" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3547" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C3547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3547" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3547" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3548" s="4"/>
+      <c r="A3548" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3548" s="1" t="n">
+        <v>29651</v>
+      </c>
+      <c r="C3548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3548" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3548" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3549" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3549" s="1" t="n">
+        <v>128841</v>
+      </c>
+      <c r="C3549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3549" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3549" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3550" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3550" s="1" t="n">
+        <v>179752</v>
+      </c>
+      <c r="C3550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3550" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3550" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3551" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3551" s="1" t="n">
+        <v>180144</v>
+      </c>
+      <c r="C3551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3551" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3551" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3552" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3552" s="1" t="n">
+        <v>179532</v>
+      </c>
+      <c r="C3552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3552" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3552" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3553" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3553" s="1" t="n">
+        <v>180136</v>
+      </c>
+      <c r="C3553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3553" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3553" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3554" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3554" s="1" t="n">
+        <v>180182</v>
+      </c>
+      <c r="C3554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3554" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3554" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3555" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3555" s="1" t="n">
+        <v>180200</v>
+      </c>
+      <c r="C3555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3555" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3555" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3556" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3556" s="1" t="n">
+        <v>180278</v>
+      </c>
+      <c r="C3556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3556" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3556" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3557" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3557" s="1" t="n">
+        <v>180238</v>
+      </c>
+      <c r="C3557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3557" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3557" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3558" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3558" s="1" t="n">
+        <v>180101</v>
+      </c>
+      <c r="C3558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3558" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3558" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3559" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3559" s="1" t="n">
+        <v>178685</v>
+      </c>
+      <c r="C3559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3559" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3559" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3560" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3560" s="1" t="n">
+        <v>180144</v>
+      </c>
+      <c r="C3560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3560" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3560" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3561" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3561" s="1" t="n">
+        <v>178713</v>
+      </c>
+      <c r="C3561" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3561" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3561" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3562" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3562" s="1" t="n">
+        <v>178600</v>
+      </c>
+      <c r="C3562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3562" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3562" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3563" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3563" s="1" t="n">
+        <v>178627</v>
+      </c>
+      <c r="C3563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3563" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3563" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3564" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3564" s="1" t="n">
+        <v>177677</v>
+      </c>
+      <c r="C3564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3564" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3564" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3565" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3565" s="1" t="n">
+        <v>37456</v>
+      </c>
+      <c r="C3565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3565" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3565" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3566" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3566" s="1" t="n">
+        <v>132591</v>
+      </c>
+      <c r="C3566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3566" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3566" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3567" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3567" s="1" t="n">
+        <v>180136</v>
+      </c>
+      <c r="C3567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3567" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3567" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3568" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3568" s="1" t="n">
+        <v>94891</v>
+      </c>
+      <c r="C3568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3568" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3568" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3569" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3569" s="1" t="n">
+        <v>180182</v>
+      </c>
+      <c r="C3569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3569" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3569" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3570" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3570" s="1" t="n">
+        <v>164356</v>
+      </c>
+      <c r="C3570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3570" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3570" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3571" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3571" s="1" t="n">
+        <v>180278</v>
+      </c>
+      <c r="C3571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3571" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3571" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3572" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3572" s="1" t="n">
+        <v>120060</v>
+      </c>
+      <c r="C3572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3572" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3572" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3573" s="4"/>
+    </row>
+    <row r="3574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3574" s="4"/>
+    </row>
+    <row r="3575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3575" s="4"/>
+    </row>
+    <row r="3576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3576" s="4"/>
+    </row>
+    <row r="3577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3577" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -60891,18 +61544,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>236</v>
@@ -60913,7 +61566,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>330</v>
@@ -60924,7 +61577,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>251</v>
@@ -60935,7 +61588,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>172</v>
@@ -60946,7 +61599,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>160</v>
@@ -60957,7 +61610,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>61</v>
@@ -60968,32 +61621,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/reports/dar.xlsx
+++ b/reports/dar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14304" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14564" uniqueCount="210">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -605,6 +605,9 @@
     <t xml:space="preserve">reference </t>
   </si>
   <si>
+    <t xml:space="preserve">14.08.2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">month</t>
   </si>
   <si>
@@ -764,10 +767,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3577"/>
+  <dimension ref="A1:G3642"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3556" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3573" activeCellId="0" sqref="A3573"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3608" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3635" activeCellId="0" sqref="B3635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -61504,19 +61507,1124 @@
       </c>
     </row>
     <row r="3573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3573" s="4"/>
+      <c r="A3573" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3573" s="1" t="n">
+        <v>162003</v>
+      </c>
+      <c r="C3573" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3573" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3573" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3574" s="4"/>
+      <c r="A3574" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3574" s="1" t="n">
+        <v>132591</v>
+      </c>
+      <c r="C3574" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3574" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3574" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3575" s="4"/>
+      <c r="A3575" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3575" s="1" t="n">
+        <v>164507</v>
+      </c>
+      <c r="C3575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3575" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3575" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3576" s="4"/>
+      <c r="A3576" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3576" s="1" t="n">
+        <v>50996</v>
+      </c>
+      <c r="C3576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3576" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3576" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3577" s="4"/>
+      <c r="A3577" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3577" s="1" t="n">
+        <v>130577</v>
+      </c>
+      <c r="C3577" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3577" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3577" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3578" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3578" s="1" t="n">
+        <v>128946</v>
+      </c>
+      <c r="C3578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3578" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3578" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3579" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3579" s="1" t="n">
+        <v>148813</v>
+      </c>
+      <c r="C3579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3579" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3579" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3580" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3580" s="1" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C3580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3580" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3580" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3581" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3581" s="1" t="n">
+        <v>180617</v>
+      </c>
+      <c r="C3581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3581" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3581" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3582" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3582" s="1" t="n">
+        <v>172474</v>
+      </c>
+      <c r="C3582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3582" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3582" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3583" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3583" s="1" t="n">
+        <v>179752</v>
+      </c>
+      <c r="C3583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3583" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3583" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3584" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3584" s="1" t="n">
+        <v>8976</v>
+      </c>
+      <c r="C3584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3584" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3584" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3585" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3585" s="1" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C3585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3585" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3585" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3586" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3586" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3586" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3586" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3587" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3587" s="1" t="n">
+        <v>98967</v>
+      </c>
+      <c r="C3587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3587" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3587" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3588" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3588" s="1" t="n">
+        <v>56788</v>
+      </c>
+      <c r="C3588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3588" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3588" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3589" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3589" s="1" t="n">
+        <v>179608</v>
+      </c>
+      <c r="C3589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3589" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3589" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3590" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3590" s="1" t="n">
+        <v>15427</v>
+      </c>
+      <c r="C3590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3590" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3590" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3591" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3591" s="1" t="n">
+        <v>180182</v>
+      </c>
+      <c r="C3591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3591" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3591" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3592" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3592" s="1" t="n">
+        <v>117880</v>
+      </c>
+      <c r="C3592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3592" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3592" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3593" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3593" s="1" t="n">
+        <v>83109</v>
+      </c>
+      <c r="C3593" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3593" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3593" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3594" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3594" s="1" t="n">
+        <v>134146</v>
+      </c>
+      <c r="C3594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3594" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3594" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3595" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3595" s="1" t="n">
+        <v>60543</v>
+      </c>
+      <c r="C3595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3595" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3595" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3596" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3596" s="1" t="n">
+        <v>160143</v>
+      </c>
+      <c r="C3596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3596" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3596" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3597" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3597" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="C3597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3597" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3597" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3598" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3598" s="1" t="n">
+        <v>144179</v>
+      </c>
+      <c r="C3598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3598" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3598" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3599" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3599" s="1" t="n">
+        <v>154730</v>
+      </c>
+      <c r="C3599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3599" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3599" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3600" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3600" s="1" t="n">
+        <v>78840</v>
+      </c>
+      <c r="C3600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3600" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3600" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3601" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3601" s="1" t="n">
+        <v>154730</v>
+      </c>
+      <c r="C3601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3601" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3601" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3602" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3602" s="1" t="n">
+        <v>164718</v>
+      </c>
+      <c r="C3602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3602" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3602" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3603" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3603" s="1" t="n">
+        <v>149411</v>
+      </c>
+      <c r="C3603" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3603" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3603" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3604" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3604" s="1" t="n">
+        <v>122789</v>
+      </c>
+      <c r="C3604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3604" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3604" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3605" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3605" s="1" t="n">
+        <v>137032</v>
+      </c>
+      <c r="C3605" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3605" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3605" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3606" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3606" s="1" t="n">
+        <v>180608</v>
+      </c>
+      <c r="C3606" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3606" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3606" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3607" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3607" s="1" t="n">
+        <v>94744</v>
+      </c>
+      <c r="C3607" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3607" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3607" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3608" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3608" s="1" t="n">
+        <v>149436</v>
+      </c>
+      <c r="C3608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3608" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3608" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3609" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3609" s="1" t="n">
+        <v>160143</v>
+      </c>
+      <c r="C3609" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3609" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3609" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3610" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3610" s="1" t="n">
+        <v>180412</v>
+      </c>
+      <c r="C3610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3610" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3610" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3611" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3611" s="1" t="n">
+        <v>180754</v>
+      </c>
+      <c r="C3611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3611" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3611" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3612" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3612" s="1" t="n">
+        <v>180730</v>
+      </c>
+      <c r="C3612" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3612" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3612" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3613" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3613" s="1" t="n">
+        <v>180719</v>
+      </c>
+      <c r="C3613" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3613" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3613" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3614" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3614" s="1" t="n">
+        <v>180623</v>
+      </c>
+      <c r="C3614" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3614" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3614" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3615" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3615" s="1" t="n">
+        <v>180621</v>
+      </c>
+      <c r="C3615" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3615" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3615" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3616" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3616" s="1" t="n">
+        <v>180615</v>
+      </c>
+      <c r="C3616" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3616" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3616" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3617" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3617" s="1" t="n">
+        <v>180596</v>
+      </c>
+      <c r="C3617" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3617" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3617" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3618" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3618" s="1" t="n">
+        <v>180481</v>
+      </c>
+      <c r="C3618" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3618" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3618" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3619" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3619" s="1" t="n">
+        <v>180480</v>
+      </c>
+      <c r="C3619" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3619" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3619" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3620" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3620" s="1" t="n">
+        <v>180452</v>
+      </c>
+      <c r="C3620" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3620" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3620" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3621" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3621" s="1" t="n">
+        <v>180449</v>
+      </c>
+      <c r="C3621" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3621" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3621" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3622" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3622" s="1" t="n">
+        <v>180448</v>
+      </c>
+      <c r="C3622" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3622" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3622" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3623" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3623" s="1" t="n">
+        <v>180436</v>
+      </c>
+      <c r="C3623" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3623" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3623" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3624" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3624" s="1" t="n">
+        <v>180421</v>
+      </c>
+      <c r="C3624" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3624" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3624" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3625" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3625" s="1" t="n">
+        <v>180410</v>
+      </c>
+      <c r="C3625" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3625" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3625" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3626" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3626" s="1" t="n">
+        <v>180368</v>
+      </c>
+      <c r="C3626" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3626" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3626" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3627" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3627" s="1" t="n">
+        <v>180354</v>
+      </c>
+      <c r="C3627" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3627" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3627" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3628" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3628" s="1" t="n">
+        <v>180353</v>
+      </c>
+      <c r="C3628" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3628" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3628" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3629" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3629" s="1" t="n">
+        <v>180352</v>
+      </c>
+      <c r="C3629" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3629" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3629" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3630" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3630" s="1" t="n">
+        <v>180346</v>
+      </c>
+      <c r="C3630" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3630" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3630" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3631" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3631" s="1" t="n">
+        <v>180311</v>
+      </c>
+      <c r="C3631" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3631" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3631" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3632" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3632" s="1" t="n">
+        <v>180310</v>
+      </c>
+      <c r="C3632" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3632" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3632" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3633" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3633" s="1" t="n">
+        <v>180279</v>
+      </c>
+      <c r="C3633" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3633" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3633" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3634" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3634" s="1" t="n">
+        <v>180193</v>
+      </c>
+      <c r="C3634" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3634" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3634" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3635" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3635" s="1" t="n">
+        <v>180173</v>
+      </c>
+      <c r="C3635" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3635" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3635" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3636" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3636" s="1" t="n">
+        <v>180168</v>
+      </c>
+      <c r="C3636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3636" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3636" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3637" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3637" s="1" t="n">
+        <v>178713</v>
+      </c>
+      <c r="C3637" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3637" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3637" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3638" s="4"/>
+    </row>
+    <row r="3639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3639" s="4"/>
+    </row>
+    <row r="3640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3640" s="4"/>
+    </row>
+    <row r="3641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3641" s="4"/>
+    </row>
+    <row r="3642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3642" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLine